--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D963E3CE-7A6F-45B2-9BEC-52A556895668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101125D6-EF32-4375-9867-40FDD9FC2DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101125D6-EF32-4375-9867-40FDD9FC2DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BA5D5D-7827-4BFF-80D1-482D886E3840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="672" windowWidth="11652" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="65">
   <si>
     <t>image</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_678.png</t>
+  </si>
+  <si>
+    <t>typedAns</t>
   </si>
 </sst>
 </file>
@@ -387,6 +390,12 @@
         <charset val="161"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -406,6 +415,12 @@
         <charset val="161"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -517,16 +532,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:G97" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:G97" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
-  <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:H97" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:H97" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
+  <tableColumns count="8">
+    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{6E9770B6-3371-48AC-AC9F-EBDD6B22A8D6}" name="typedAns"/>
+    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{9E8F8608-00E0-4E1F-9B24-0C65CCC094B8}" name="target"/>
-    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -853,2313 +869,2350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F9B87-26D4-45DE-8FE2-82B28F57E788}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L87" sqref="L87"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="11" max="12" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="7">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>9</v>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>23</v>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="7">
-        <v>2</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>23</v>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
+      <c r="C26" t="s">
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>23</v>
+      <c r="C29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="6">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>13</v>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="7">
-        <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>10</v>
+      <c r="B31" s="6"/>
+      <c r="C31" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="2">
-        <v>2</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="6">
-        <v>2</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>13</v>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="4">
-        <v>2</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>9</v>
+      <c r="C37" t="s">
+        <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>10</v>
+      <c r="C38" t="s">
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="7">
-        <v>2</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>9</v>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="7">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>23</v>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="6">
-        <v>2</v>
-      </c>
+      <c r="B42" s="10"/>
       <c r="C42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="6">
+        <v>2</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>23</v>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="7">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>10</v>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="6">
-        <v>2</v>
-      </c>
+      <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="6">
+        <v>2</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="2">
-        <v>2</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="7">
-        <v>1</v>
-      </c>
+      <c r="B49" s="10"/>
       <c r="C49" s="7" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="6">
-        <v>2</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>13</v>
+      <c r="B50" s="6"/>
+      <c r="C50" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="6">
+        <v>2</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="3">
-        <v>2</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>11</v>
+      <c r="C51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>23</v>
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="7">
-        <v>1</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>10</v>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="6">
-        <v>1</v>
-      </c>
+      <c r="B54" s="10"/>
       <c r="C54" s="7" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3">
-        <v>2</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>11</v>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="1">
-        <v>2</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>23</v>
+      <c r="C56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="3">
-        <v>2</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>11</v>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>23</v>
+      <c r="C58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="7">
-        <v>2</v>
-      </c>
+      <c r="B59" s="6"/>
       <c r="C59" s="7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="7">
+        <v>2</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>11</v>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="3">
-        <v>2</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>23</v>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="1">
-        <v>2</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>11</v>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>23</v>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="6">
-        <v>1</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>13</v>
+      <c r="B64" s="6"/>
+      <c r="C64" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="7">
-        <v>2</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>9</v>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="7">
+        <v>2</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>11</v>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="3">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>23</v>
+      <c r="C67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="6">
-        <v>1</v>
-      </c>
+      <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="7">
-        <v>2</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>9</v>
+      <c r="B69" s="10"/>
+      <c r="C69" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="7">
+        <v>2</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="1">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>11</v>
+      <c r="C70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="3">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>23</v>
+      <c r="C71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="1">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>11</v>
+      <c r="C72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="3">
-        <v>2</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>23</v>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="3">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="6">
-        <v>2</v>
-      </c>
+      <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="6">
+        <v>2</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G74" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="4">
-        <v>2</v>
-      </c>
       <c r="C75" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="2">
-        <v>2</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="2">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="7">
-        <v>1</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>10</v>
+      <c r="B77" s="10"/>
+      <c r="C77" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B78" s="6">
-        <v>2</v>
-      </c>
+      <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="6">
+        <v>2</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="7">
-        <v>1</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>10</v>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="7">
+        <v>1</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="2">
-        <v>2</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="2">
+        <v>2</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="4">
-        <v>2</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>23</v>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="2">
-        <v>2</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
+      <c r="C82" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="2">
+        <v>2</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="4">
-        <v>1</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>10</v>
+      <c r="C83" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B84" s="6">
-        <v>1</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>13</v>
+      <c r="B84" s="10"/>
+      <c r="C84" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="6">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="4">
-        <v>1</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>10</v>
+      <c r="C85" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>26</v>
       </c>
-      <c r="B86" s="2">
-        <v>2</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
+      <c r="C86" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="2">
+        <v>2</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="4">
-        <v>2</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="2">
-        <v>1</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="7">
-        <v>2</v>
-      </c>
+      <c r="B89" s="6"/>
       <c r="C89" s="7" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="7">
+        <v>2</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G89" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="2">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>10</v>
+      <c r="C90" t="s">
+        <v>4</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="4">
-        <v>1</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>23</v>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="6">
-        <v>1</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>13</v>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="7">
-        <v>2</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>9</v>
+      <c r="B93" s="6"/>
+      <c r="C93" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="7">
+        <v>2</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>24</v>
       </c>
-      <c r="B94" s="2">
-        <v>1</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>10</v>
+      <c r="C94" t="s">
+        <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G94" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>24</v>
       </c>
-      <c r="B95" s="4">
-        <v>1</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>23</v>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>29</v>
       </c>
-      <c r="B96" s="2">
-        <v>1</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="4">
-        <v>2</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BA5D5D-7827-4BFF-80D1-482D886E3840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749B2DA-32D6-4B71-846E-D2C633DFDB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="672" windowWidth="11652" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11268" yWindow="636" windowWidth="11652" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="64">
   <si>
     <t>image</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_678.png</t>
-  </si>
-  <si>
-    <t>typedAns</t>
   </si>
 </sst>
 </file>
@@ -532,11 +529,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:H97" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:H97" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:G97" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:G97" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
+  <tableColumns count="7">
     <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{6E9770B6-3371-48AC-AC9F-EBDD6B22A8D6}" name="typedAns"/>
     <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="2"/>
@@ -869,2349 +865,2314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F9B87-26D4-45DE-8FE2-82B28F57E788}">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="11" max="12" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="10" max="11" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1">
-        <v>2</v>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3">
-        <v>2</v>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3">
-        <v>2</v>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
-        <v>2</v>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1">
-        <v>2</v>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3">
-        <v>2</v>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="3">
-        <v>2</v>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="7">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="C21" s="7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="7">
-        <v>2</v>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="3">
-        <v>2</v>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="7">
-        <v>1</v>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="2">
-        <v>2</v>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="4">
-        <v>2</v>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="2">
-        <v>2</v>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="4">
-        <v>2</v>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="C30" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="C31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="7">
-        <v>1</v>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="2">
-        <v>2</v>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C33" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="4">
-        <v>1</v>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="C34" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="6">
-        <v>2</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C35" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="4">
-        <v>1</v>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C36" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="2">
-        <v>2</v>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="s">
-        <v>1</v>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="4">
-        <v>2</v>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="C38" t="s">
-        <v>1</v>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="2">
-        <v>1</v>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="C39" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="D39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="7">
-        <v>2</v>
+      <c r="E39" s="7">
+        <v>2</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="2">
-        <v>1</v>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="4">
-        <v>1</v>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C42" s="6" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="6">
-        <v>2</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="E42" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C43" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="4">
-        <v>1</v>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="C44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="2">
-        <v>1</v>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="C45" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="7">
-        <v>1</v>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C46" s="6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="6">
-        <v>2</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="E46" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>30</v>
       </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C47" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="4">
-        <v>1</v>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C48" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="2">
-        <v>2</v>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="10"/>
+      <c r="B49" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C49" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="7">
-        <v>1</v>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="C50" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="6">
-        <v>2</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="E50" s="6">
+        <v>2</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="C51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="3">
-        <v>2</v>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="1">
-        <v>2</v>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="C53" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="7">
-        <v>1</v>
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="10"/>
+      <c r="B54" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C54" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="C55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="3">
-        <v>2</v>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="C56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="1">
-        <v>2</v>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="C57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="3">
-        <v>2</v>
+      <c r="E57" s="3">
+        <v>2</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="C58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="1">
-        <v>1</v>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="6"/>
+      <c r="B59" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="C59" s="7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="7">
-        <v>2</v>
+      <c r="E59" s="7">
+        <v>2</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>24</v>
       </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="1">
-        <v>1</v>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="3">
-        <v>2</v>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>27</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="1">
-        <v>2</v>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="4" t="s">
+      <c r="C63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="3">
-        <v>1</v>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="C64" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="6">
-        <v>1</v>
-      </c>
-      <c r="G64" s="7" t="s">
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="C65" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="D65" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="7">
-        <v>2</v>
+      <c r="E65" s="7">
+        <v>2</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="1">
-        <v>1</v>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="B67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="3">
-        <v>1</v>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C68" s="6" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="6">
-        <v>1</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="G68" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="C69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="7">
-        <v>2</v>
+      <c r="E69" s="7">
+        <v>2</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="C70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="1">
-        <v>1</v>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="3">
-        <v>1</v>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="C72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="1">
-        <v>1</v>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="4" t="s">
+      <c r="C73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="3">
-        <v>2</v>
+      <c r="E73" s="3">
+        <v>2</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="6"/>
+      <c r="B74" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C74" s="6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="6">
-        <v>2</v>
-      </c>
-      <c r="G74" s="7" t="s">
+      <c r="E74" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="G74" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
+      <c r="B75" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="4">
-        <v>2</v>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>28</v>
       </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="2">
-        <v>2</v>
+      <c r="E76" s="2">
+        <v>2</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="C77" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D77" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="7">
-        <v>1</v>
+      <c r="E77" s="7">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B78" s="6"/>
+      <c r="B78" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C78" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="6">
-        <v>2</v>
-      </c>
-      <c r="G78" s="7" t="s">
+      <c r="E78" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="G78" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6" t="s">
+      <c r="B79" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="C79" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="7">
-        <v>1</v>
+      <c r="E79" s="7">
+        <v>1</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="2">
-        <v>2</v>
+      <c r="E80" s="2">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="4" t="s">
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="4">
-        <v>2</v>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="2">
-        <v>2</v>
+      <c r="E82" s="2">
+        <v>2</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C83" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="4">
-        <v>1</v>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="C84" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="6">
-        <v>1</v>
-      </c>
-      <c r="G84" s="7" t="s">
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="G84" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C85" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="4">
-        <v>1</v>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>26</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="2">
-        <v>2</v>
+      <c r="E86" s="2">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H86" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>25</v>
       </c>
+      <c r="B87" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C87" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="4">
-        <v>2</v>
+      <c r="E87" s="4">
+        <v>2</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>25</v>
       </c>
+      <c r="B88" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C88" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="2">
-        <v>1</v>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="6"/>
+      <c r="B89" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="C89" s="7" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="7">
-        <v>2</v>
+      <c r="E89" s="7">
+        <v>2</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>27</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B90" t="s">
         <v>4</v>
       </c>
+      <c r="C90" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="2">
-        <v>1</v>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>27</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B91" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="4" t="s">
+      <c r="C91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="4">
-        <v>1</v>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H91" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="C92" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="6">
-        <v>1</v>
-      </c>
-      <c r="G92" s="7" t="s">
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="G92" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="6" t="s">
+      <c r="C93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F93" s="7">
-        <v>2</v>
+      <c r="E93" s="7">
+        <v>2</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>24</v>
       </c>
-      <c r="C94" t="s">
-        <v>1</v>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="2">
-        <v>1</v>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>24</v>
       </c>
-      <c r="C95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="4" t="s">
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="4">
-        <v>1</v>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H95" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>29</v>
       </c>
+      <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C96" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="2">
-        <v>1</v>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>29</v>
       </c>
+      <c r="B97" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C97" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="4">
-        <v>2</v>
+      <c r="E97" s="4">
+        <v>2</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H97" s="4" t="s">
         <v>37</v>
       </c>
     </row>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749B2DA-32D6-4B71-846E-D2C633DFDB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E460B0C8-43F0-4B32-84CB-D0B46FA9D268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11268" yWindow="636" windowWidth="11652" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E460B0C8-43F0-4B32-84CB-D0B46FA9D268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4F7780-06DC-4804-9EB7-5CD2C0D113B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11268" yWindow="636" windowWidth="11652" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5796" yWindow="636" windowWidth="17124" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -868,7 +868,7 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4F7780-06DC-4804-9EB7-5CD2C0D113B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F435E-DF98-42B7-A11B-856D4CFD9239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5796" yWindow="636" windowWidth="17124" windowHeight="11988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="67">
   <si>
     <t>image</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_678.png</t>
+  </si>
+  <si>
+    <t>frameColour</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
 </sst>
 </file>
@@ -330,7 +339,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -529,16 +563,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:G97" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:G97" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
-  <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:H97" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="A1:H97" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
+  <tableColumns count="8">
+    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{9E8F8608-00E0-4E1F-9B24-0C65CCC094B8}" name="target"/>
-    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -865,23 +900,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F9B87-26D4-45DE-8FE2-82B28F57E788}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="10" max="11" width="10.109375" customWidth="1"/>
+    <col min="3" max="4" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="27.44140625" customWidth="1"/>
+    <col min="11" max="12" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -892,19 +927,22 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -914,20 +952,23 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -937,24 +978,27 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
@@ -965,23 +1009,26 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -991,24 +1038,27 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1018,24 +1068,27 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
@@ -1046,23 +1099,26 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1072,24 +1128,27 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1099,24 +1158,27 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1126,24 +1188,27 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1153,24 +1218,27 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
@@ -1181,23 +1249,26 @@
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1207,24 +1278,27 @@
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1234,24 +1308,27 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
@@ -1262,23 +1339,26 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1288,24 +1368,27 @@
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1315,24 +1398,27 @@
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -1343,23 +1429,26 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="6">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1369,20 +1458,23 @@
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1392,20 +1484,23 @@
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
@@ -1416,19 +1511,22 @@
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="7">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1438,20 +1536,23 @@
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1461,20 +1562,23 @@
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>62</v>
       </c>
@@ -1485,19 +1589,22 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
@@ -1508,19 +1615,22 @@
         <v>10</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1531,19 +1641,22 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1553,20 +1666,23 @@
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1577,19 +1693,22 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1599,20 +1718,23 @@
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
@@ -1623,19 +1745,22 @@
         <v>10</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
@@ -1645,20 +1770,23 @@
       <c r="C31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1669,19 +1797,22 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1692,19 +1823,22 @@
         <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>63</v>
       </c>
@@ -1715,19 +1849,22 @@
         <v>9</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1738,19 +1875,22 @@
         <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1761,19 +1901,22 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1784,19 +1927,22 @@
         <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="4">
-        <v>2</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1807,19 +1953,22 @@
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>62</v>
       </c>
@@ -1830,19 +1979,22 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="7">
-        <v>2</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="7">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1853,19 +2005,22 @@
         <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1875,20 +2030,23 @@
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>56</v>
       </c>
@@ -1899,19 +2057,22 @@
         <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="6">
-        <v>2</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6">
+        <v>2</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1922,19 +2083,22 @@
         <v>10</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1944,20 +2108,23 @@
       <c r="C44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
@@ -1968,19 +2135,22 @@
         <v>10</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="7">
-        <v>1</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
@@ -1991,19 +2161,22 @@
         <v>9</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="6">
-        <v>2</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6">
+        <v>2</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2014,19 +2187,22 @@
         <v>10</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2037,19 +2213,22 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="2">
-        <v>2</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>57</v>
       </c>
@@ -2060,19 +2239,22 @@
         <v>10</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="7">
-        <v>1</v>
-      </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
@@ -2083,19 +2265,22 @@
         <v>9</v>
       </c>
       <c r="D50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="6">
-        <v>2</v>
-      </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6">
+        <v>2</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -2105,20 +2290,23 @@
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="3">
-        <v>2</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2128,20 +2316,23 @@
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="1">
-        <v>2</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>62</v>
       </c>
@@ -2152,19 +2343,22 @@
         <v>10</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="7">
-        <v>1</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>57</v>
       </c>
@@ -2175,19 +2369,22 @@
         <v>10</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -2197,20 +2394,23 @@
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="3">
-        <v>2</v>
-      </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -2220,20 +2420,23 @@
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="1">
-        <v>2</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2243,20 +2446,23 @@
       <c r="C57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="3">
-        <v>2</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -2266,20 +2472,23 @@
       <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>61</v>
       </c>
@@ -2290,19 +2499,22 @@
         <v>9</v>
       </c>
       <c r="D59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="7">
-        <v>2</v>
-      </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="7">
+        <v>2</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -2312,20 +2524,23 @@
       <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -2335,20 +2550,23 @@
       <c r="C61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="3">
-        <v>2</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -2358,20 +2576,23 @@
       <c r="C62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="1">
-        <v>2</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -2381,20 +2602,23 @@
       <c r="C63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
@@ -2405,19 +2629,22 @@
         <v>10</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="6">
-        <v>1</v>
-      </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -2428,19 +2655,22 @@
         <v>9</v>
       </c>
       <c r="D65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="7">
-        <v>2</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="7">
+        <v>2</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2450,20 +2680,23 @@
       <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -2473,20 +2706,23 @@
       <c r="C67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>58</v>
       </c>
@@ -2497,19 +2733,22 @@
         <v>10</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="6">
-        <v>1</v>
-      </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>56</v>
       </c>
@@ -2519,20 +2758,23 @@
       <c r="C69" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="7">
-        <v>2</v>
-      </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="7">
+        <v>2</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -2542,20 +2784,23 @@
       <c r="C70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -2565,20 +2810,23 @@
       <c r="C71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -2588,20 +2836,23 @@
       <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -2611,20 +2862,23 @@
       <c r="C73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="3">
-        <v>2</v>
-      </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="3">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>60</v>
       </c>
@@ -2635,19 +2889,22 @@
         <v>9</v>
       </c>
       <c r="D74" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6">
+        <v>2</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="H74" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -2658,19 +2915,22 @@
         <v>9</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="4">
-        <v>2</v>
-      </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2681,19 +2941,22 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="2">
-        <v>2</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="2">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>56</v>
       </c>
@@ -2704,19 +2967,22 @@
         <v>10</v>
       </c>
       <c r="D77" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="7">
-        <v>1</v>
-      </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>62</v>
       </c>
@@ -2726,20 +2992,23 @@
       <c r="C78" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="6">
+        <v>2</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="H78" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>58</v>
       </c>
@@ -2750,19 +3019,22 @@
         <v>10</v>
       </c>
       <c r="D79" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="7">
-        <v>1</v>
-      </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="7">
+        <v>1</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2773,19 +3045,22 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="2">
-        <v>2</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="2">
+        <v>2</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -2795,20 +3070,23 @@
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="4">
-        <v>2</v>
-      </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -2819,19 +3097,22 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="2">
-        <v>2</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="2">
+        <v>2</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -2842,19 +3123,22 @@
         <v>10</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>57</v>
       </c>
@@ -2865,19 +3149,22 @@
         <v>10</v>
       </c>
       <c r="D84" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E84" s="6">
-        <v>1</v>
-      </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="H84" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -2888,19 +3175,22 @@
         <v>10</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E85" s="4">
-        <v>1</v>
-      </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -2911,19 +3201,22 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="2">
-        <v>2</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="2">
+        <v>2</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -2934,19 +3227,22 @@
         <v>9</v>
       </c>
       <c r="D87" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E87" s="4">
-        <v>2</v>
-      </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="4">
+        <v>2</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -2957,19 +3253,22 @@
         <v>10</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>63</v>
       </c>
@@ -2980,19 +3279,22 @@
         <v>9</v>
       </c>
       <c r="D89" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="7">
-        <v>2</v>
-      </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="7">
+        <v>2</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -3003,19 +3305,22 @@
         <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E90" s="2">
-        <v>1</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -3025,20 +3330,23 @@
       <c r="C91" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="4">
-        <v>1</v>
-      </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>61</v>
       </c>
@@ -3049,19 +3357,22 @@
         <v>10</v>
       </c>
       <c r="D92" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="6">
-        <v>1</v>
-      </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="H92" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -3071,20 +3382,23 @@
       <c r="C93" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="7">
-        <v>2</v>
-      </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="7">
+        <v>2</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -3095,19 +3409,22 @@
         <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -3117,20 +3434,23 @@
       <c r="C95" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="4">
-        <v>1</v>
-      </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="H95" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -3141,19 +3461,22 @@
         <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -3164,15 +3487,18 @@
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="4">
-        <v>2</v>
-      </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="H97" s="4" t="s">
         <v>37</v>
       </c>
     </row>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F435E-DF98-42B7-A11B-856D4CFD9239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AFA895-260B-497F-BB25-E1AFC3F06AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -335,11 +335,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -383,6 +427,12 @@
         <charset val="161"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -402,31 +452,6 @@
         <charset val="161"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -569,11 +594,11 @@
     <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9E8F8608-00E0-4E1F-9B24-0C65CCC094B8}" name="target"/>
-    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -902,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F9B87-26D4-45DE-8FE2-82B28F57E788}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +936,7 @@
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="4" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="18" customWidth="1"/>
     <col min="8" max="8" width="27.44140625" customWidth="1"/>
     <col min="11" max="12" width="10.109375" customWidth="1"/>
   </cols>
@@ -932,7 +957,7 @@
       <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -958,7 +983,7 @@
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="12">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -984,7 +1009,7 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="13">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1014,7 +1039,7 @@
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="14">
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -1044,7 +1069,7 @@
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="13">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1074,7 +1099,7 @@
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="12">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1104,7 +1129,7 @@
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -1134,7 +1159,7 @@
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="12">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1164,7 +1189,7 @@
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1194,7 +1219,7 @@
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="12">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1224,7 +1249,7 @@
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="13">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1254,7 +1279,7 @@
       <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="14">
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -1284,7 +1309,7 @@
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="13">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1314,7 +1339,7 @@
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="12">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1344,7 +1369,7 @@
       <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="15">
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -1374,7 +1399,7 @@
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="12">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1404,7 +1429,7 @@
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1434,7 +1459,7 @@
       <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="14">
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -1464,7 +1489,7 @@
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -1490,7 +1515,7 @@
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="12">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1516,7 +1541,7 @@
       <c r="E21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -1542,7 +1567,7 @@
       <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="12">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1568,7 +1593,7 @@
       <c r="E23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="13">
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -1594,7 +1619,7 @@
       <c r="E24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="14">
         <v>1</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -1620,7 +1645,7 @@
       <c r="E25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="15">
         <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
@@ -1646,7 +1671,7 @@
       <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="16">
         <v>2</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1672,7 +1697,7 @@
       <c r="E27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="17">
         <v>2</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -1698,7 +1723,7 @@
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="16">
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -1724,7 +1749,7 @@
       <c r="E29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="17">
         <v>2</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -1750,7 +1775,7 @@
       <c r="E30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="14">
         <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -1776,7 +1801,7 @@
       <c r="E31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="15">
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -1802,7 +1827,7 @@
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="16">
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -1828,7 +1853,7 @@
       <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="17">
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -1854,7 +1879,7 @@
       <c r="E34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="14">
         <v>2</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -1880,7 +1905,7 @@
       <c r="E35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="17">
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -1906,7 +1931,7 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="16">
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1932,7 +1957,7 @@
       <c r="E37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="17">
         <v>2</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -1958,7 +1983,7 @@
       <c r="E38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="16">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -1984,7 +2009,7 @@
       <c r="E39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="15">
         <v>2</v>
       </c>
       <c r="G39" s="7" t="s">
@@ -2010,7 +2035,7 @@
       <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="16">
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -2036,7 +2061,7 @@
       <c r="E41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="17">
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -2062,7 +2087,7 @@
       <c r="E42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="14">
         <v>2</v>
       </c>
       <c r="G42" s="7" t="s">
@@ -2088,7 +2113,7 @@
       <c r="E43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="17">
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -2114,7 +2139,7 @@
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="16">
         <v>1</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -2140,7 +2165,7 @@
       <c r="E45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="15">
         <v>1</v>
       </c>
       <c r="G45" s="7" t="s">
@@ -2166,7 +2191,7 @@
       <c r="E46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="14">
         <v>2</v>
       </c>
       <c r="G46" s="7" t="s">
@@ -2192,7 +2217,7 @@
       <c r="E47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="17">
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -2218,7 +2243,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="16">
         <v>2</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -2244,7 +2269,7 @@
       <c r="E49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="15">
         <v>1</v>
       </c>
       <c r="G49" s="7" t="s">
@@ -2270,7 +2295,7 @@
       <c r="E50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="14">
         <v>2</v>
       </c>
       <c r="G50" s="7" t="s">
@@ -2296,7 +2321,7 @@
       <c r="E51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="13">
         <v>2</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -2322,7 +2347,7 @@
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="12">
         <v>2</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -2348,7 +2373,7 @@
       <c r="E53" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="15">
         <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
@@ -2374,7 +2399,7 @@
       <c r="E54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="14">
         <v>1</v>
       </c>
       <c r="G54" s="7" t="s">
@@ -2400,7 +2425,7 @@
       <c r="E55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="13">
         <v>2</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -2426,7 +2451,7 @@
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="12">
         <v>2</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -2452,7 +2477,7 @@
       <c r="E57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="13">
         <v>2</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -2478,7 +2503,7 @@
       <c r="E58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="12">
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -2504,7 +2529,7 @@
       <c r="E59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="15">
         <v>2</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -2530,7 +2555,7 @@
       <c r="E60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="12">
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -2556,7 +2581,7 @@
       <c r="E61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="13">
         <v>2</v>
       </c>
       <c r="G61" s="4" t="s">
@@ -2582,7 +2607,7 @@
       <c r="E62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="12">
         <v>2</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -2608,7 +2633,7 @@
       <c r="E63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="13">
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -2634,7 +2659,7 @@
       <c r="E64" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="14">
         <v>1</v>
       </c>
       <c r="G64" s="7" t="s">
@@ -2660,7 +2685,7 @@
       <c r="E65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="15">
         <v>2</v>
       </c>
       <c r="G65" s="7" t="s">
@@ -2686,7 +2711,7 @@
       <c r="E66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="12">
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -2712,7 +2737,7 @@
       <c r="E67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="13">
         <v>1</v>
       </c>
       <c r="G67" s="4" t="s">
@@ -2738,7 +2763,7 @@
       <c r="E68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="14">
         <v>1</v>
       </c>
       <c r="G68" s="7" t="s">
@@ -2764,7 +2789,7 @@
       <c r="E69" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="15">
         <v>2</v>
       </c>
       <c r="G69" s="7" t="s">
@@ -2790,7 +2815,7 @@
       <c r="E70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="12">
         <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -2816,7 +2841,7 @@
       <c r="E71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="13">
         <v>1</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -2842,7 +2867,7 @@
       <c r="E72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="12">
         <v>1</v>
       </c>
       <c r="G72" s="2" t="s">
@@ -2868,7 +2893,7 @@
       <c r="E73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="13">
         <v>2</v>
       </c>
       <c r="G73" s="4" t="s">
@@ -2894,7 +2919,7 @@
       <c r="E74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="14">
         <v>2</v>
       </c>
       <c r="G74" s="7" t="s">
@@ -2920,7 +2945,7 @@
       <c r="E75" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="17">
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
@@ -2946,7 +2971,7 @@
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="16">
         <v>2</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -2972,7 +2997,7 @@
       <c r="E77" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="15">
         <v>1</v>
       </c>
       <c r="G77" s="7" t="s">
@@ -2998,7 +3023,7 @@
       <c r="E78" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="14">
         <v>2</v>
       </c>
       <c r="G78" s="7" t="s">
@@ -3024,7 +3049,7 @@
       <c r="E79" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="15">
         <v>1</v>
       </c>
       <c r="G79" s="7" t="s">
@@ -3050,7 +3075,7 @@
       <c r="E80" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="16">
         <v>2</v>
       </c>
       <c r="G80" s="2" t="s">
@@ -3076,7 +3101,7 @@
       <c r="E81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="17">
         <v>2</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -3102,7 +3127,7 @@
       <c r="E82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="16">
         <v>2</v>
       </c>
       <c r="G82" s="2" t="s">
@@ -3128,7 +3153,7 @@
       <c r="E83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="17">
         <v>1</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -3154,7 +3179,7 @@
       <c r="E84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="14">
         <v>1</v>
       </c>
       <c r="G84" s="7" t="s">
@@ -3180,7 +3205,7 @@
       <c r="E85" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="17">
         <v>1</v>
       </c>
       <c r="G85" s="4" t="s">
@@ -3206,7 +3231,7 @@
       <c r="E86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="16">
         <v>2</v>
       </c>
       <c r="G86" s="2" t="s">
@@ -3232,7 +3257,7 @@
       <c r="E87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="17">
         <v>2</v>
       </c>
       <c r="G87" s="4" t="s">
@@ -3258,7 +3283,7 @@
       <c r="E88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="16">
         <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
@@ -3284,7 +3309,7 @@
       <c r="E89" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="15">
         <v>2</v>
       </c>
       <c r="G89" s="7" t="s">
@@ -3310,7 +3335,7 @@
       <c r="E90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="16">
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -3336,7 +3361,7 @@
       <c r="E91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="17">
         <v>1</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -3362,7 +3387,7 @@
       <c r="E92" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="14">
         <v>1</v>
       </c>
       <c r="G92" s="7" t="s">
@@ -3388,7 +3413,7 @@
       <c r="E93" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="15">
         <v>2</v>
       </c>
       <c r="G93" s="7" t="s">
@@ -3414,7 +3439,7 @@
       <c r="E94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="16">
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
@@ -3440,7 +3465,7 @@
       <c r="E95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="17">
         <v>1</v>
       </c>
       <c r="G95" s="4" t="s">
@@ -3466,7 +3491,7 @@
       <c r="E96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="16">
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
@@ -3492,7 +3517,7 @@
       <c r="E97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="17">
         <v>2</v>
       </c>
       <c r="G97" s="4" t="s">

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AFA895-260B-497F-BB25-E1AFC3F06AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D2E8D-0BD6-4835-B3FB-6ACBAF7E699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,10 +230,10 @@
     <t>frameColour</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>blue</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
@@ -382,6 +382,25 @@
         <charset val="161"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -433,25 +452,6 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -594,11 +594,11 @@
     <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{9E8F8608-00E0-4E1F-9B24-0C65CCC094B8}" name="target"/>
-    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -928,7 +928,7 @@
   <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1004,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
@@ -1094,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -1154,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>14</v>
@@ -1214,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1244,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
@@ -1274,7 +1274,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>22</v>
@@ -1304,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
@@ -1334,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -1364,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
@@ -1424,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>12</v>
@@ -1454,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>22</v>
@@ -1484,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>21</v>
@@ -1510,7 +1510,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1536,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -1562,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>14</v>
@@ -1614,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>22</v>
@@ -1640,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>22</v>
@@ -1666,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
@@ -1692,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>12</v>
@@ -1718,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
@@ -1744,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>12</v>
@@ -1770,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>22</v>
@@ -1796,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>22</v>
@@ -1822,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>21</v>
@@ -1848,7 +1848,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -1874,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>22</v>
@@ -1900,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>21</v>
@@ -1926,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>14</v>
@@ -1952,7 +1952,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>21</v>
@@ -1978,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>14</v>
@@ -2004,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>22</v>
@@ -2030,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>21</v>
@@ -2056,7 +2056,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>12</v>
@@ -2082,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>22</v>
@@ -2108,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>21</v>
@@ -2134,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
@@ -2160,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>22</v>
@@ -2186,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>22</v>
@@ -2212,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>21</v>
@@ -2238,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>14</v>
@@ -2264,7 +2264,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>22</v>
@@ -2290,7 +2290,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>22</v>
@@ -2316,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>21</v>
@@ -2342,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -2368,7 +2368,7 @@
         <v>10</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>22</v>
@@ -2394,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>22</v>
@@ -2420,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>21</v>
@@ -2446,7 +2446,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -2472,7 +2472,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>21</v>
@@ -2498,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>14</v>
@@ -2524,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>22</v>
@@ -2550,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>21</v>
@@ -2576,7 +2576,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>14</v>
@@ -2602,7 +2602,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>21</v>
@@ -2628,7 +2628,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>14</v>
@@ -2654,7 +2654,7 @@
         <v>10</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>22</v>
@@ -2680,7 +2680,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>22</v>
@@ -2706,7 +2706,7 @@
         <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>21</v>
@@ -2732,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>12</v>
@@ -2758,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>22</v>
@@ -2784,7 +2784,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>22</v>
@@ -2810,7 +2810,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>21</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>12</v>
@@ -2862,7 +2862,7 @@
         <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>21</v>
@@ -2888,7 +2888,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>14</v>
@@ -2914,7 +2914,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>22</v>
@@ -2940,7 +2940,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>21</v>
@@ -2966,7 +2966,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
@@ -2992,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>22</v>
@@ -3018,7 +3018,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>22</v>
@@ -3044,7 +3044,7 @@
         <v>10</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>22</v>
@@ -3070,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>21</v>
@@ -3096,7 +3096,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>12</v>
@@ -3122,7 +3122,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>21</v>
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>14</v>
@@ -3174,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>22</v>
@@ -3200,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>21</v>
@@ -3226,7 +3226,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>14</v>
@@ -3252,7 +3252,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>21</v>
@@ -3278,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>14</v>
@@ -3304,7 +3304,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>22</v>
@@ -3330,7 +3330,7 @@
         <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>21</v>
@@ -3356,7 +3356,7 @@
         <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>12</v>
@@ -3382,7 +3382,7 @@
         <v>10</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>22</v>
@@ -3408,7 +3408,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>22</v>
@@ -3434,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>21</v>
@@ -3460,7 +3460,7 @@
         <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>12</v>
@@ -3486,7 +3486,7 @@
         <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>21</v>
@@ -3512,7 +3512,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>14</v>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D2E8D-0BD6-4835-B3FB-6ACBAF7E699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B18DCA6-8FD2-480C-B4E5-4FB82A6F915B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="69">
   <si>
     <t>image</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>textColour</t>
+  </si>
+  <si>
+    <t>white</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -588,17 +619,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:H97" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="A1:H97" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
-  <tableColumns count="8">
-    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:I97" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A1:I97" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
+  <tableColumns count="9">
+    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{45924224-0F11-4C32-8A17-1769F4A0CF33}" name="textColour" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{9E8F8608-00E0-4E1F-9B24-0C65CCC094B8}" name="target"/>
-    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -925,23 +957,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F9B87-26D4-45DE-8FE2-82B28F57E788}">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="4" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" customWidth="1"/>
-    <col min="11" max="12" width="10.109375" customWidth="1"/>
+    <col min="3" max="5" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="12" max="13" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -955,19 +987,22 @@
         <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -980,20 +1015,23 @@
       <c r="D2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="12">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="12">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1006,24 +1044,27 @@
       <c r="D3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="13">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
@@ -1036,24 +1077,27 @@
       <c r="D4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1066,24 +1110,27 @@
       <c r="D5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="13">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="13">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1096,24 +1143,27 @@
       <c r="D6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
@@ -1126,24 +1176,27 @@
       <c r="D7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1156,24 +1209,27 @@
       <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="12">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="12">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1186,24 +1242,27 @@
       <c r="D9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1216,24 +1275,27 @@
       <c r="D10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1246,24 +1308,27 @@
       <c r="D11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="13">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="13">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
@@ -1276,24 +1341,27 @@
       <c r="D12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="14">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1306,24 +1374,27 @@
       <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1336,24 +1407,27 @@
       <c r="D14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
@@ -1366,24 +1440,27 @@
       <c r="D15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1396,24 +1473,27 @@
       <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1426,24 +1506,27 @@
       <c r="D17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -1456,24 +1539,27 @@
       <c r="D18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="14">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="14">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1486,20 +1572,23 @@
       <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1512,20 +1601,23 @@
       <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="12">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
@@ -1538,20 +1630,23 @@
       <c r="D21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="15">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="15">
+        <v>2</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1564,20 +1659,23 @@
       <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="12">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1590,20 +1688,23 @@
       <c r="D23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="13">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="13">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>62</v>
       </c>
@@ -1616,20 +1717,23 @@
       <c r="D24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="14">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
@@ -1642,20 +1746,23 @@
       <c r="D25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="15">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1668,20 +1775,23 @@
       <c r="D26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="16">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="16">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1694,20 +1804,23 @@
       <c r="D27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="17">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="17">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1720,20 +1833,23 @@
       <c r="D28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="16">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="16">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1746,20 +1862,23 @@
       <c r="D29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="17">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="17">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
@@ -1772,20 +1891,23 @@
       <c r="D30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="14">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
@@ -1798,20 +1920,23 @@
       <c r="D31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1824,20 +1949,23 @@
       <c r="D32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="16">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="16">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1850,20 +1978,23 @@
       <c r="D33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="17">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>63</v>
       </c>
@@ -1876,20 +2007,23 @@
       <c r="D34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="14">
-        <v>2</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="14">
+        <v>2</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1902,20 +2036,23 @@
       <c r="D35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="17">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1928,20 +2065,23 @@
       <c r="D36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="16">
-        <v>2</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="16">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1954,20 +2094,23 @@
       <c r="D37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="17">
-        <v>2</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="17">
+        <v>2</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1980,20 +2123,23 @@
       <c r="D38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="16">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>62</v>
       </c>
@@ -2006,20 +2152,23 @@
       <c r="D39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="15">
-        <v>2</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="15">
+        <v>2</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2032,20 +2181,23 @@
       <c r="D40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="16">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="16">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -2058,20 +2210,23 @@
       <c r="D41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="17">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>56</v>
       </c>
@@ -2084,20 +2239,23 @@
       <c r="D42" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="14">
-        <v>2</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="14">
+        <v>2</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -2110,20 +2268,23 @@
       <c r="D43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="17">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2136,20 +2297,23 @@
       <c r="D44" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="16">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
@@ -2162,20 +2326,23 @@
       <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="15">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="15">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
@@ -2188,20 +2355,23 @@
       <c r="D46" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="14">
-        <v>2</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="14">
+        <v>2</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2214,20 +2384,23 @@
       <c r="D47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="17">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2240,20 +2413,23 @@
       <c r="D48" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="16">
-        <v>2</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="16">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>57</v>
       </c>
@@ -2266,20 +2442,23 @@
       <c r="D49" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="15">
-        <v>1</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="15">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
@@ -2292,20 +2471,23 @@
       <c r="D50" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="14">
-        <v>2</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="14">
+        <v>2</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -2318,20 +2500,23 @@
       <c r="D51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="13">
-        <v>2</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="13">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2344,20 +2529,23 @@
       <c r="D52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="12">
-        <v>2</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="12">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>62</v>
       </c>
@@ -2370,20 +2558,23 @@
       <c r="D53" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="15">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="15">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="I53" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>57</v>
       </c>
@@ -2396,20 +2587,23 @@
       <c r="D54" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="14">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="14">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -2422,20 +2616,23 @@
       <c r="D55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="13">
-        <v>2</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="13">
+        <v>2</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -2448,20 +2645,23 @@
       <c r="D56" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="12">
-        <v>2</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="12">
+        <v>2</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2474,20 +2674,23 @@
       <c r="D57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="13">
-        <v>2</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="13">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -2500,20 +2703,23 @@
       <c r="D58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="12">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="12">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>61</v>
       </c>
@@ -2526,20 +2732,23 @@
       <c r="D59" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="15">
-        <v>2</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="15">
+        <v>2</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -2552,20 +2761,23 @@
       <c r="D60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="12">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="12">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -2578,20 +2790,23 @@
       <c r="D61" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="13">
-        <v>2</v>
-      </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="13">
+        <v>2</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -2604,20 +2819,23 @@
       <c r="D62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="12">
-        <v>2</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="12">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -2630,20 +2848,23 @@
       <c r="D63" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="13">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="13">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
@@ -2656,20 +2877,23 @@
       <c r="D64" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="14">
-        <v>1</v>
-      </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="14">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="I64" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -2682,20 +2906,23 @@
       <c r="D65" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="15">
-        <v>2</v>
-      </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="15">
+        <v>2</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="I65" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -2708,20 +2935,23 @@
       <c r="D66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="12">
-        <v>1</v>
-      </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="12">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -2734,20 +2964,23 @@
       <c r="D67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="13">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="13">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>58</v>
       </c>
@@ -2760,20 +2993,23 @@
       <c r="D68" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="14">
-        <v>1</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="14">
+        <v>1</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="I68" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>56</v>
       </c>
@@ -2786,20 +3022,23 @@
       <c r="D69" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="15">
-        <v>2</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="15">
+        <v>2</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="I69" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -2812,20 +3051,23 @@
       <c r="D70" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="12">
-        <v>1</v>
-      </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="12">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -2838,20 +3080,23 @@
       <c r="D71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="13">
-        <v>1</v>
-      </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="13">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -2864,20 +3109,23 @@
       <c r="D72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="12">
-        <v>1</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="12">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -2890,20 +3138,23 @@
       <c r="D73" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="13">
-        <v>2</v>
-      </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="13">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>60</v>
       </c>
@@ -2916,20 +3167,23 @@
       <c r="D74" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="14">
-        <v>2</v>
-      </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="14">
+        <v>2</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="I74" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -2942,20 +3196,23 @@
       <c r="D75" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="17">
-        <v>2</v>
-      </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="17">
+        <v>2</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2968,20 +3225,23 @@
       <c r="D76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="16">
-        <v>2</v>
-      </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="16">
+        <v>2</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>56</v>
       </c>
@@ -2994,20 +3254,23 @@
       <c r="D77" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="15">
-        <v>1</v>
-      </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="15">
+        <v>1</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="I77" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>62</v>
       </c>
@@ -3020,20 +3283,23 @@
       <c r="D78" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="14">
-        <v>2</v>
-      </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="14">
+        <v>2</v>
+      </c>
+      <c r="H78" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="I78" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>58</v>
       </c>
@@ -3046,20 +3312,23 @@
       <c r="D79" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="15">
-        <v>1</v>
-      </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="15">
+        <v>1</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="I79" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -3072,20 +3341,23 @@
       <c r="D80" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="16">
-        <v>2</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="16">
+        <v>2</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -3098,20 +3370,23 @@
       <c r="D81" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="17">
-        <v>2</v>
-      </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="17">
+        <v>2</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -3124,20 +3399,23 @@
       <c r="D82" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="16">
-        <v>2</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="16">
+        <v>2</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -3150,20 +3428,23 @@
       <c r="D83" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="17">
-        <v>1</v>
-      </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="17">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="I83" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>57</v>
       </c>
@@ -3176,20 +3457,23 @@
       <c r="D84" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="14">
-        <v>1</v>
-      </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="14">
+        <v>1</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="I84" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -3202,20 +3486,23 @@
       <c r="D85" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="17">
-        <v>1</v>
-      </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="17">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -3228,20 +3515,23 @@
       <c r="D86" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="16">
-        <v>2</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="16">
+        <v>2</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -3254,20 +3544,23 @@
       <c r="D87" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="17">
-        <v>2</v>
-      </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="17">
+        <v>2</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -3280,20 +3573,23 @@
       <c r="D88" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="16">
-        <v>1</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="16">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>63</v>
       </c>
@@ -3306,20 +3602,23 @@
       <c r="D89" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="15">
-        <v>2</v>
-      </c>
-      <c r="G89" s="7" t="s">
+      <c r="G89" s="15">
+        <v>2</v>
+      </c>
+      <c r="H89" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="I89" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -3332,20 +3631,23 @@
       <c r="D90" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="16">
-        <v>1</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="16">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -3358,20 +3660,23 @@
       <c r="D91" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="17">
-        <v>1</v>
-      </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="17">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>61</v>
       </c>
@@ -3384,20 +3689,23 @@
       <c r="D92" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="14">
-        <v>1</v>
-      </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" s="14">
+        <v>1</v>
+      </c>
+      <c r="H92" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="I92" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -3410,20 +3718,23 @@
       <c r="D93" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F93" s="15">
-        <v>2</v>
-      </c>
-      <c r="G93" s="7" t="s">
+      <c r="G93" s="15">
+        <v>2</v>
+      </c>
+      <c r="H93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="I93" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -3436,20 +3747,23 @@
       <c r="D94" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="16">
-        <v>1</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="16">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -3462,20 +3776,23 @@
       <c r="D95" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="17">
-        <v>1</v>
-      </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="17">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -3488,20 +3805,23 @@
       <c r="D96" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="16">
-        <v>1</v>
-      </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="16">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -3514,16 +3834,19 @@
       <c r="D97" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="17">
-        <v>2</v>
-      </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" s="17">
+        <v>2</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="I97" s="4" t="s">
         <v>37</v>
       </c>
     </row>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B94BB2-ED6C-49FB-98E1-F56DE270A366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77A3BCF-92A6-406D-8C75-F470CAA8C19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="828" windowWidth="13620" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C8F218-CB0D-46BD-A883-45A3E21F7764}">
   <dimension ref="A1:M388"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:I194"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288:XFD288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77A3BCF-92A6-406D-8C75-F470CAA8C19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B56618-F15A-4FCB-BE3C-3A81ABD2E2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="828" windowWidth="13620" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -1048,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C8F218-CB0D-46BD-A883-45A3E21F7764}">
   <dimension ref="A1:M388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A288" sqref="A288:XFD288"/>
     </sheetView>
   </sheetViews>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B298F0-7044-4E6C-8DBD-9C8A9C533CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B6842-DD59-4978-B0B0-41B9BABB789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -248,9 +248,6 @@
     <t>cuerda</t>
   </si>
   <si>
-    <t>tiza</t>
-  </si>
-  <si>
     <t>puente</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
   </si>
   <si>
     <t>bombero</t>
-  </si>
-  <si>
-    <t>cesta</t>
   </si>
   <si>
     <t>manzana</t>
@@ -275,22 +269,10 @@
     <t>baño</t>
   </si>
   <si>
-    <t>cabra</t>
-  </si>
-  <si>
-    <t>babero</t>
-  </si>
-  <si>
     <t>fresa</t>
   </si>
   <si>
-    <t>puño</t>
-  </si>
-  <si>
     <t>oveja</t>
-  </si>
-  <si>
-    <t>vestido</t>
   </si>
   <si>
     <t>pierna</t>
@@ -381,6 +363,24 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_91.png</t>
+  </si>
+  <si>
+    <t>oreja</t>
+  </si>
+  <si>
+    <t>pulpo</t>
+  </si>
+  <si>
+    <t>traje</t>
+  </si>
+  <si>
+    <t>goma</t>
+  </si>
+  <si>
+    <t>puerta</t>
+  </si>
+  <si>
+    <t>braga</t>
   </si>
 </sst>
 </file>
@@ -699,18 +699,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E632066-3D31-488B-9626-3EC9567911CC}" name="Table33" displayName="Table33" ref="A1:I385" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A1:I385" xr:uid="{0E632066-3D31-488B-9626-3EC9567911CC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8936D077-876B-4C64-99BE-AC6B099BF6AE}" name="Table332" displayName="Table332" ref="A1:I385" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:I385" xr:uid="{8936D077-876B-4C64-99BE-AC6B099BF6AE}"/>
   <tableColumns count="9">
-    <tableColumn id="8" xr3:uid="{91172857-E9BB-4FBD-8A99-8C312C1D756C}" name="image" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{D9952848-2138-433B-9827-844A04758645}" name="correctAns" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{5DFB9609-8B15-4C73-9E32-C6D95D2A1D4D}" name="respModal" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{218BD083-0ADD-4E04-8988-186ACC6ACB5D}" name="frameColour" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{D8F85928-4126-4AD3-BB47-EBEF5BB7E0CA}" name="repSwitch" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{ADAD980D-6BC1-4D72-B7CA-88F777BCFE5C}" name="sequence" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{09AA678D-0783-4E73-A2BD-B35D097C28B2}" name="target" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{8F55EF54-C7AC-4721-B673-4CD5F5E3B120}" name="set" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{AC6EB153-D027-43E6-A1E3-75F22A37873C}" name="stimulus" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{AAC2525B-EEB7-4C77-8144-789666C1EE77}" name="image" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{356E7C16-DC84-47BC-A838-692165270B9C}" name="correctAns" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{A33D72A7-AA2C-4569-9724-E34B7B5FE5BA}" name="respModal" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{82D5032D-52E2-4E9F-986B-C22E168EE5C7}" name="frameColour" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{138B71F2-3E5B-4D1D-8B8D-09A30A3CE74E}" name="repSwitch" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2C5E9C98-DE10-480B-889B-32EF39402387}" name="sequence" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8E03A433-5E08-4085-9622-CB3F0E9BABDF}" name="target" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A503346D-610A-4844-989F-3C4B1C16C654}" name="set" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{791CFDCE-A233-47FE-907A-8F7FAD0227F9}" name="stimulus" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1036,11 +1036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250FB55B-57DB-4109-8879-2F4AEBAB4B22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5FFB8-ADEE-4233-9EF1-4711A9BB639D}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F396" sqref="F396"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>60</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>60</v>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>61</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>61</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>62</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>62</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>63</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>63</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>64</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>64</v>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>65</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>65</v>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>60</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>66</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>66</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>67</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>67</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>68</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>68</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>61</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>69</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>69</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>62</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>70</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>70</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>63</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>64</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>65</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>5</v>
@@ -2468,10 +2468,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>5</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>5</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>66</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>67</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>68</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>69</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
@@ -2874,10 +2874,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
@@ -2932,10 +2932,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>5</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>70</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
@@ -3019,10 +3019,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>5</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
@@ -3106,10 +3106,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -3222,10 +3222,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
@@ -3251,10 +3251,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>5</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
@@ -3425,10 +3425,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
@@ -3483,10 +3483,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
@@ -3570,10 +3570,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -3599,10 +3599,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
@@ -3715,10 +3715,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
@@ -3744,10 +3744,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>5</v>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>5</v>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>5</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>62</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>62</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>61</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>61</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>63</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>63</v>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>60</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>60</v>
@@ -4237,10 +4237,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>65</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>64</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>64</v>
@@ -4527,10 +4527,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>5</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>69</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>69</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>62</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>67</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>67</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>61</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>66</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>66</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>63</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>60</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>68</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>68</v>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
@@ -5078,10 +5078,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>65</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>64</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>70</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>70</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>69</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>5</v>
@@ -5310,10 +5310,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>67</v>
@@ -5368,10 +5368,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>5</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>5</v>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
@@ -5542,10 +5542,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>66</v>
@@ -5629,10 +5629,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
@@ -5658,10 +5658,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
@@ -5687,10 +5687,10 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
@@ -5716,10 +5716,10 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>5</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>68</v>
@@ -5774,10 +5774,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>5</v>
@@ -5803,10 +5803,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>5</v>
@@ -5832,10 +5832,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
@@ -5861,10 +5861,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>5</v>
@@ -5890,10 +5890,10 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>5</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>70</v>
@@ -5948,10 +5948,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
@@ -5977,10 +5977,10 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>5</v>
@@ -6006,10 +6006,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>5</v>
@@ -6035,10 +6035,10 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>5</v>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
@@ -6093,10 +6093,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>5</v>
@@ -6122,10 +6122,10 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
@@ -6151,10 +6151,10 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
@@ -6180,10 +6180,10 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>5</v>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
@@ -6267,10 +6267,10 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>5</v>
@@ -6296,10 +6296,10 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
@@ -6325,10 +6325,10 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>5</v>
@@ -6354,10 +6354,10 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
@@ -6383,10 +6383,10 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
@@ -6412,10 +6412,10 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
@@ -6441,10 +6441,10 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>5</v>
@@ -6470,10 +6470,10 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
@@ -6499,10 +6499,10 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>5</v>
@@ -6528,10 +6528,10 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>5</v>
@@ -6557,10 +6557,10 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>5</v>
@@ -6586,10 +6586,10 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>4</v>
@@ -6615,10 +6615,10 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>5</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>4</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>64</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>64</v>
@@ -6731,10 +6731,10 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>5</v>
@@ -6760,10 +6760,10 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>5</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>63</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>63</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>65</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>65</v>
@@ -6905,10 +6905,10 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>4</v>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>62</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>62</v>
@@ -7050,10 +7050,10 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>5</v>
@@ -7079,10 +7079,10 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>4</v>
@@ -7108,7 +7108,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>60</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>60</v>
@@ -7166,10 +7166,10 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>5</v>
@@ -7195,10 +7195,10 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>4</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>61</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>61</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>64</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>63</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>70</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>70</v>
@@ -7514,7 +7514,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>68</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>68</v>
@@ -7572,7 +7572,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>65</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>69</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>69</v>
@@ -7659,10 +7659,10 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>5</v>
@@ -7688,10 +7688,10 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>4</v>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>62</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>66</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>66</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>60</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>67</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>67</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>61</v>
@@ -8036,10 +8036,10 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>5</v>
@@ -8065,10 +8065,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>4</v>
@@ -8123,7 +8123,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>70</v>
@@ -8152,10 +8152,10 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>4</v>
@@ -8181,10 +8181,10 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>5</v>
@@ -8210,10 +8210,10 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>5</v>
@@ -8239,10 +8239,10 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>4</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>68</v>
@@ -8297,10 +8297,10 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>4</v>
@@ -8326,10 +8326,10 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>4</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>69</v>
@@ -8384,10 +8384,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>4</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>66</v>
@@ -8442,10 +8442,10 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>4</v>
@@ -8471,10 +8471,10 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>4</v>
@@ -8500,10 +8500,10 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>4</v>
@@ -8529,10 +8529,10 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>5</v>
@@ -8558,10 +8558,10 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>5</v>
@@ -8587,10 +8587,10 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>5</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>67</v>
@@ -8645,10 +8645,10 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>5</v>
@@ -8674,10 +8674,10 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>5</v>
@@ -8732,10 +8732,10 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>5</v>
@@ -8761,10 +8761,10 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>5</v>
@@ -8790,10 +8790,10 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>4</v>
@@ -8819,10 +8819,10 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>5</v>
@@ -8848,10 +8848,10 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>4</v>
@@ -8877,10 +8877,10 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>4</v>
@@ -8906,10 +8906,10 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>4</v>
@@ -8935,10 +8935,10 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>5</v>
@@ -8964,10 +8964,10 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>4</v>
@@ -8993,10 +8993,10 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>4</v>
@@ -9022,10 +9022,10 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>5</v>
@@ -9051,10 +9051,10 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>5</v>
@@ -9080,10 +9080,10 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>4</v>
@@ -9109,10 +9109,10 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>5</v>
@@ -9138,10 +9138,10 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>4</v>
@@ -9167,10 +9167,10 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>4</v>
@@ -9196,10 +9196,10 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>5</v>
@@ -9225,10 +9225,10 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>4</v>
@@ -9254,10 +9254,10 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>5</v>
@@ -9283,10 +9283,10 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>5</v>
@@ -9312,10 +9312,10 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>5</v>
@@ -9341,10 +9341,10 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>4</v>
@@ -9370,10 +9370,10 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>5</v>
@@ -9399,10 +9399,10 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>4</v>
@@ -9428,10 +9428,10 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>4</v>
@@ -9515,10 +9515,10 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>5</v>
@@ -9544,10 +9544,10 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>4</v>
@@ -9573,10 +9573,10 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>5</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>65</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>65</v>
@@ -9660,7 +9660,7 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>64</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>64</v>
@@ -9718,10 +9718,10 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>5</v>
@@ -9747,7 +9747,7 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>61</v>
@@ -9776,7 +9776,7 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>61</v>
@@ -9805,7 +9805,7 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>60</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>60</v>
@@ -9863,10 +9863,10 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>4</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>62</v>
@@ -9921,7 +9921,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>62</v>
@@ -9950,10 +9950,10 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>5</v>
@@ -9979,10 +9979,10 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>4</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>63</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>63</v>
@@ -10124,10 +10124,10 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>5</v>
@@ -10153,10 +10153,10 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>5</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>68</v>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>68</v>
@@ -10269,7 +10269,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>65</v>
@@ -10298,7 +10298,7 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>70</v>
@@ -10327,7 +10327,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>70</v>
@@ -10356,7 +10356,7 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>66</v>
@@ -10385,7 +10385,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>66</v>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>64</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>61</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>60</v>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>67</v>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>67</v>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>62</v>
@@ -10646,7 +10646,7 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>69</v>
@@ -10675,7 +10675,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>69</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>63</v>
@@ -10820,10 +10820,10 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>5</v>
@@ -10849,10 +10849,10 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>4</v>
@@ -10878,10 +10878,10 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>4</v>
@@ -10907,10 +10907,10 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>5</v>
@@ -10936,10 +10936,10 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>4</v>
@@ -10965,7 +10965,7 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>68</v>
@@ -10994,10 +10994,10 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>5</v>
@@ -11023,10 +11023,10 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>4</v>
@@ -11052,7 +11052,7 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>70</v>
@@ -11081,10 +11081,10 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>4</v>
@@ -11110,10 +11110,10 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>4</v>
@@ -11139,7 +11139,7 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>66</v>
@@ -11197,10 +11197,10 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>4</v>
@@ -11226,10 +11226,10 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>4</v>
@@ -11255,10 +11255,10 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>4</v>
@@ -11284,10 +11284,10 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>5</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>67</v>
@@ -11342,7 +11342,7 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>69</v>
@@ -11371,10 +11371,10 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>5</v>
@@ -11400,10 +11400,10 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>5</v>
@@ -11458,10 +11458,10 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>5</v>
@@ -11487,10 +11487,10 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>5</v>
@@ -11516,10 +11516,10 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>4</v>
@@ -11545,10 +11545,10 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>4</v>
@@ -11574,10 +11574,10 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>5</v>
@@ -11603,10 +11603,10 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>5</v>
@@ -11632,10 +11632,10 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>5</v>
@@ -11661,10 +11661,10 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>4</v>
@@ -11690,10 +11690,10 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>5</v>
@@ -11719,10 +11719,10 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>4</v>
@@ -11748,10 +11748,10 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>4</v>
@@ -11777,10 +11777,10 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>4</v>
@@ -11806,10 +11806,10 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>5</v>
@@ -11835,10 +11835,10 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>4</v>
@@ -11864,10 +11864,10 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>5</v>
@@ -11893,10 +11893,10 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>4</v>
@@ -11922,10 +11922,10 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>4</v>
@@ -11951,10 +11951,10 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>5</v>
@@ -11980,10 +11980,10 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>5</v>
@@ -12009,10 +12009,10 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>4</v>
@@ -12038,10 +12038,10 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>4</v>
@@ -12067,10 +12067,10 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>5</v>
@@ -12096,10 +12096,10 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>5</v>
@@ -12125,10 +12125,10 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>5</v>
@@ -12154,10 +12154,10 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>4</v>
@@ -12183,10 +12183,10 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>5</v>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B6842-DD59-4978-B0B0-41B9BABB789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58748C0-B250-4AFB-9AA7-6D799634DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,13 +633,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="6"/>
         </top>
@@ -660,6 +653,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8936D077-876B-4C64-99BE-AC6B099BF6AE}" name="Table332" displayName="Table332" ref="A1:I385" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8936D077-876B-4C64-99BE-AC6B099BF6AE}" name="Table332" displayName="Table332" ref="A1:I385" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A1:I385" xr:uid="{8936D077-876B-4C64-99BE-AC6B099BF6AE}"/>
   <tableColumns count="9">
     <tableColumn id="8" xr3:uid="{AAC2525B-EEB7-4C77-8144-789666C1EE77}" name="image" dataDxfId="8"/>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5FFB8-ADEE-4233-9EF1-4711A9BB639D}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="B393" sqref="B393"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="M380" sqref="M380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11951,39 +11951,39 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F377" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H377" s="2">
         <v>4</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>5</v>
@@ -12004,36 +12004,36 @@
         <v>4</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F379" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H379" s="2">
         <v>4</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58748C0-B250-4AFB-9AA7-6D799634DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A26B4F-FC04-4D83-860B-143F8674E879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="600" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -717,9 +717,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -757,9 +757,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,26 +792,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -844,26 +827,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1039,11 +1005,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5FFB8-ADEE-4233-9EF1-4711A9BB639D}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M380" sqref="M380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A26B4F-FC04-4D83-860B-143F8674E879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E72EF-DEA6-4116-91C8-C24682844247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="600" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10632" yWindow="600" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>REPSWITCH1/PICTURE_178.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_354.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1/PICTURE_142.png</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_242.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_377.png</t>
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_152.png</t>
@@ -311,16 +305,7 @@
     <t>REPSWITCH1/PICTURE_381.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_14.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1/PICTURE_319.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_487.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_411.png</t>
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_320.png</t>
@@ -341,9 +326,6 @@
     <t>REPSWITCH1/PICTURE_576.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_664.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1/PICTURE_264.png</t>
   </si>
   <si>
@@ -354,9 +336,6 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_271.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_622.png</t>
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_719.png</t>
@@ -381,6 +360,27 @@
   </si>
   <si>
     <t>braga</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_135.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_464.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_19.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_35.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_545.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_728.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_546.png</t>
   </si>
 </sst>
 </file>
@@ -1005,12 +1005,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5FFB8-ADEE-4233-9EF1-4711A9BB639D}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M380" sqref="M380"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1103,10 +1104,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1132,7 +1133,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>60</v>
@@ -1161,7 +1162,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>60</v>
@@ -1190,10 +1191,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1219,7 +1220,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>61</v>
@@ -1248,7 +1249,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>61</v>
@@ -1277,7 +1278,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>62</v>
@@ -1306,7 +1307,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>62</v>
@@ -1335,7 +1336,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>78</v>
@@ -1422,10 +1423,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1451,7 +1452,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>63</v>
@@ -1480,7 +1481,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>63</v>
@@ -1509,7 +1510,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>79</v>
@@ -1538,7 +1539,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>64</v>
@@ -1567,7 +1568,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>64</v>
@@ -1596,10 +1597,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -1625,7 +1626,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>65</v>
@@ -1654,7 +1655,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>65</v>
@@ -1683,7 +1684,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>80</v>
@@ -1712,7 +1713,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>81</v>
@@ -1828,7 +1829,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>60</v>
@@ -1857,7 +1858,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>66</v>
@@ -1886,7 +1887,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>66</v>
@@ -1915,7 +1916,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>67</v>
@@ -1944,7 +1945,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>67</v>
@@ -1973,7 +1974,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>68</v>
@@ -2002,7 +2003,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>68</v>
@@ -2031,7 +2032,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>61</v>
@@ -2060,7 +2061,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>69</v>
@@ -2089,7 +2090,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>69</v>
@@ -2118,7 +2119,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>62</v>
@@ -2176,7 +2177,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>70</v>
@@ -2205,7 +2206,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>70</v>
@@ -2234,7 +2235,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>63</v>
@@ -2321,7 +2322,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>64</v>
@@ -2350,7 +2351,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>65</v>
@@ -2379,10 +2380,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -2408,10 +2409,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>5</v>
@@ -2495,7 +2496,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>72</v>
@@ -2524,7 +2525,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>72</v>
@@ -2582,7 +2583,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>73</v>
@@ -2611,7 +2612,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>73</v>
@@ -2640,7 +2641,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>66</v>
@@ -2669,10 +2670,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -2698,10 +2699,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -2727,7 +2728,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>67</v>
@@ -2756,7 +2757,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>68</v>
@@ -2785,7 +2786,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>69</v>
@@ -2814,7 +2815,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>74</v>
@@ -2843,7 +2844,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>74</v>
@@ -2872,7 +2873,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>75</v>
@@ -2901,7 +2902,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>75</v>
@@ -2930,7 +2931,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>70</v>
@@ -2959,7 +2960,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>76</v>
@@ -2988,7 +2989,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>76</v>
@@ -3046,10 +3047,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
@@ -3075,7 +3076,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>77</v>
@@ -3104,7 +3105,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>77</v>
@@ -3162,10 +3163,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -3191,10 +3192,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
@@ -3220,10 +3221,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>5</v>
@@ -3249,10 +3250,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -3278,7 +3279,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>72</v>
@@ -3307,7 +3308,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>73</v>
@@ -3336,7 +3337,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>78</v>
@@ -3365,7 +3366,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>78</v>
@@ -3394,10 +3395,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
@@ -3423,10 +3424,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
@@ -3452,10 +3453,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
@@ -3481,7 +3482,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>79</v>
@@ -3510,7 +3511,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>79</v>
@@ -3539,10 +3540,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -3568,10 +3569,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -3597,7 +3598,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>74</v>
@@ -3626,7 +3627,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -3655,7 +3656,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>76</v>
@@ -3684,7 +3685,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>80</v>
@@ -3713,7 +3714,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>80</v>
@@ -3742,7 +3743,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>77</v>
@@ -3771,7 +3772,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>81</v>
@@ -3800,7 +3801,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>81</v>
@@ -3829,7 +3830,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>62</v>
@@ -3858,7 +3859,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>62</v>
@@ -3887,7 +3888,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>78</v>
@@ -3916,7 +3917,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>81</v>
@@ -3945,7 +3946,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>61</v>
@@ -3974,7 +3975,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>61</v>
@@ -4003,7 +4004,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>63</v>
@@ -4032,7 +4033,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>63</v>
@@ -4061,10 +4062,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
@@ -4090,7 +4091,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>60</v>
@@ -4119,7 +4120,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>60</v>
@@ -4206,10 +4207,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
@@ -4235,7 +4236,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -4264,7 +4265,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>65</v>
@@ -4293,7 +4294,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>80</v>
@@ -4380,10 +4381,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
@@ -4409,10 +4410,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
@@ -4438,7 +4439,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>64</v>
@@ -4467,7 +4468,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>64</v>
@@ -4496,7 +4497,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>79</v>
@@ -4525,7 +4526,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>69</v>
@@ -4554,7 +4555,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>69</v>
@@ -4583,7 +4584,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>62</v>
@@ -4612,7 +4613,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>67</v>
@@ -4641,7 +4642,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>67</v>
@@ -4728,7 +4729,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>61</v>
@@ -4815,7 +4816,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>66</v>
@@ -4844,7 +4845,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>66</v>
@@ -4873,7 +4874,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>63</v>
@@ -4902,7 +4903,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>60</v>
@@ -4931,7 +4932,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>68</v>
@@ -4960,7 +4961,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>68</v>
@@ -5018,10 +5019,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
@@ -5047,10 +5048,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
@@ -5076,7 +5077,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>65</v>
@@ -5134,7 +5135,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>64</v>
@@ -5163,7 +5164,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>70</v>
@@ -5192,7 +5193,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>70</v>
@@ -5221,7 +5222,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>69</v>
@@ -5250,7 +5251,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>75</v>
@@ -5279,7 +5280,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>75</v>
@@ -5308,7 +5309,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>67</v>
@@ -5337,10 +5338,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
@@ -5366,10 +5367,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>5</v>
@@ -5395,7 +5396,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>77</v>
@@ -5424,7 +5425,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>77</v>
@@ -5482,7 +5483,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>76</v>
@@ -5511,7 +5512,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>76</v>
@@ -5569,7 +5570,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>66</v>
@@ -5656,7 +5657,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>73</v>
@@ -5685,7 +5686,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>73</v>
@@ -5714,7 +5715,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>68</v>
@@ -5743,7 +5744,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>74</v>
@@ -5772,7 +5773,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>74</v>
@@ -5801,10 +5802,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
@@ -5830,7 +5831,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>72</v>
@@ -5859,7 +5860,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>72</v>
@@ -5888,7 +5889,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>70</v>
@@ -5917,7 +5918,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>75</v>
@@ -5946,7 +5947,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>78</v>
@@ -5975,7 +5976,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>78</v>
@@ -6004,7 +6005,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>81</v>
@@ -6033,7 +6034,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>81</v>
@@ -6062,10 +6063,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>5</v>
@@ -6091,10 +6092,10 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
@@ -6120,10 +6121,10 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
@@ -6149,10 +6150,10 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
@@ -6178,10 +6179,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>5</v>
@@ -6207,7 +6208,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>77</v>
@@ -6236,7 +6237,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>76</v>
@@ -6294,7 +6295,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>80</v>
@@ -6323,7 +6324,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>80</v>
@@ -6352,10 +6353,10 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
@@ -6381,10 +6382,10 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
@@ -6410,7 +6411,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>73</v>
@@ -6439,10 +6440,10 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
@@ -6468,10 +6469,10 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>5</v>
@@ -6497,7 +6498,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>79</v>
@@ -6526,7 +6527,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>79</v>
@@ -6555,7 +6556,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>74</v>
@@ -6584,7 +6585,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>72</v>
@@ -6613,10 +6614,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>4</v>
@@ -6642,7 +6643,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>64</v>
@@ -6671,7 +6672,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>64</v>
@@ -6700,10 +6701,10 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>5</v>
@@ -6729,10 +6730,10 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>5</v>
@@ -6758,7 +6759,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>63</v>
@@ -6787,7 +6788,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>63</v>
@@ -6816,7 +6817,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>65</v>
@@ -6845,7 +6846,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>65</v>
@@ -6874,7 +6875,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>79</v>
@@ -6961,7 +6962,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>62</v>
@@ -6990,7 +6991,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>62</v>
@@ -7019,10 +7020,10 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>5</v>
@@ -7048,7 +7049,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>81</v>
@@ -7077,7 +7078,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>60</v>
@@ -7106,7 +7107,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>60</v>
@@ -7135,7 +7136,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>78</v>
@@ -7164,7 +7165,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>80</v>
@@ -7193,7 +7194,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>61</v>
@@ -7222,7 +7223,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>61</v>
@@ -7367,7 +7368,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>64</v>
@@ -7396,7 +7397,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>63</v>
@@ -7425,7 +7426,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>70</v>
@@ -7454,7 +7455,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>70</v>
@@ -7483,7 +7484,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>68</v>
@@ -7512,7 +7513,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>68</v>
@@ -7541,7 +7542,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>65</v>
@@ -7570,7 +7571,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>69</v>
@@ -7599,7 +7600,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>69</v>
@@ -7628,10 +7629,10 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>5</v>
@@ -7657,10 +7658,10 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>4</v>
@@ -7715,7 +7716,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>62</v>
@@ -7744,7 +7745,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>66</v>
@@ -7773,7 +7774,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>66</v>
@@ -7802,7 +7803,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>60</v>
@@ -7889,7 +7890,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>67</v>
@@ -7918,7 +7919,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>67</v>
@@ -7947,7 +7948,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>61</v>
@@ -8005,10 +8006,10 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>5</v>
@@ -8034,10 +8035,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>4</v>
@@ -8092,7 +8093,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>70</v>
@@ -8121,7 +8122,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>76</v>
@@ -8150,7 +8151,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>76</v>
@@ -8179,7 +8180,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>72</v>
@@ -8208,7 +8209,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>72</v>
@@ -8237,7 +8238,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>68</v>
@@ -8266,7 +8267,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>75</v>
@@ -8295,7 +8296,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>75</v>
@@ -8324,7 +8325,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>69</v>
@@ -8353,10 +8354,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>4</v>
@@ -8382,7 +8383,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>66</v>
@@ -8411,7 +8412,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>77</v>
@@ -8440,7 +8441,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>77</v>
@@ -8469,7 +8470,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>74</v>
@@ -8498,7 +8499,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>74</v>
@@ -8527,7 +8528,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>73</v>
@@ -8556,7 +8557,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>73</v>
@@ -8585,7 +8586,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>67</v>
@@ -8701,10 +8702,10 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>5</v>
@@ -8730,10 +8731,10 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>5</v>
@@ -8759,10 +8760,10 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>4</v>
@@ -8788,10 +8789,10 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>5</v>
@@ -8817,10 +8818,10 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>4</v>
@@ -8846,10 +8847,10 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>4</v>
@@ -8875,10 +8876,10 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>4</v>
@@ -8904,7 +8905,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>76</v>
@@ -8933,7 +8934,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>72</v>
@@ -8962,7 +8963,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>79</v>
@@ -8991,7 +8992,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>79</v>
@@ -9020,10 +9021,10 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>5</v>
@@ -9049,10 +9050,10 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>4</v>
@@ -9078,7 +9079,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>75</v>
@@ -9107,7 +9108,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>81</v>
@@ -9136,7 +9137,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>81</v>
@@ -9165,7 +9166,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>77</v>
@@ -9194,7 +9195,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>78</v>
@@ -9223,7 +9224,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>78</v>
@@ -9252,7 +9253,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>80</v>
@@ -9281,7 +9282,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>80</v>
@@ -9310,7 +9311,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>74</v>
@@ -9339,7 +9340,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>73</v>
@@ -9397,10 +9398,10 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>4</v>
@@ -9484,7 +9485,7 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>78</v>
@@ -9513,7 +9514,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>79</v>
@@ -9542,10 +9543,10 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>5</v>
@@ -9571,7 +9572,7 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>65</v>
@@ -9600,7 +9601,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>65</v>
@@ -9629,7 +9630,7 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>64</v>
@@ -9658,7 +9659,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>64</v>
@@ -9687,10 +9688,10 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>5</v>
@@ -9716,7 +9717,7 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>61</v>
@@ -9745,7 +9746,7 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>61</v>
@@ -9774,7 +9775,7 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>60</v>
@@ -9803,7 +9804,7 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>60</v>
@@ -9832,7 +9833,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>80</v>
@@ -9861,7 +9862,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>62</v>
@@ -9890,7 +9891,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>62</v>
@@ -9919,7 +9920,7 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>81</v>
@@ -9948,10 +9949,10 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>4</v>
@@ -10035,7 +10036,7 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>63</v>
@@ -10064,7 +10065,7 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>63</v>
@@ -10093,10 +10094,10 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>5</v>
@@ -10122,10 +10123,10 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>5</v>
@@ -10180,7 +10181,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>68</v>
@@ -10209,7 +10210,7 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>68</v>
@@ -10238,7 +10239,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>65</v>
@@ -10267,7 +10268,7 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>70</v>
@@ -10296,7 +10297,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>70</v>
@@ -10325,7 +10326,7 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>66</v>
@@ -10354,7 +10355,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>66</v>
@@ -10383,7 +10384,7 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>64</v>
@@ -10412,7 +10413,7 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>61</v>
@@ -10441,7 +10442,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>60</v>
@@ -10528,7 +10529,7 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>67</v>
@@ -10557,7 +10558,7 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>67</v>
@@ -10586,7 +10587,7 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>62</v>
@@ -10615,7 +10616,7 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>69</v>
@@ -10644,7 +10645,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>69</v>
@@ -10702,7 +10703,7 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>63</v>
@@ -10789,7 +10790,7 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>74</v>
@@ -10818,7 +10819,7 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>74</v>
@@ -10905,10 +10906,10 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>4</v>
@@ -10934,7 +10935,7 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>68</v>
@@ -10963,7 +10964,7 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>76</v>
@@ -10992,7 +10993,7 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>76</v>
@@ -11021,7 +11022,7 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>70</v>
@@ -11050,7 +11051,7 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>73</v>
@@ -11079,7 +11080,7 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>73</v>
@@ -11108,7 +11109,7 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>66</v>
@@ -11166,7 +11167,7 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>72</v>
@@ -11195,7 +11196,7 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>72</v>
@@ -11224,7 +11225,7 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>77</v>
@@ -11253,7 +11254,7 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>77</v>
@@ -11282,7 +11283,7 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>67</v>
@@ -11311,7 +11312,7 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>69</v>
@@ -11340,7 +11341,7 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>75</v>
@@ -11369,7 +11370,7 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>75</v>
@@ -11427,10 +11428,10 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>5</v>
@@ -11456,10 +11457,10 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>5</v>
@@ -11485,7 +11486,7 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>74</v>
@@ -11543,10 +11544,10 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>5</v>
@@ -11572,10 +11573,10 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>5</v>
@@ -11601,7 +11602,7 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>78</v>
@@ -11630,7 +11631,7 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>78</v>
@@ -11659,7 +11660,7 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>76</v>
@@ -11688,7 +11689,7 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>79</v>
@@ -11717,7 +11718,7 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>79</v>
@@ -11746,10 +11747,10 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>4</v>
@@ -11775,10 +11776,10 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>5</v>
@@ -11804,7 +11805,7 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>73</v>
@@ -11833,10 +11834,10 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>5</v>
@@ -11862,10 +11863,10 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>4</v>
@@ -11891,7 +11892,7 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>80</v>
@@ -11920,7 +11921,7 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>80</v>
@@ -11949,7 +11950,7 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>72</v>
@@ -11978,7 +11979,7 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>77</v>
@@ -12007,7 +12008,7 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>81</v>
@@ -12036,7 +12037,7 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>81</v>
@@ -12065,10 +12066,10 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>5</v>
@@ -12094,10 +12095,10 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>5</v>
@@ -12123,7 +12124,7 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>75</v>
@@ -12152,10 +12153,10 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>5</v>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E72EF-DEA6-4116-91C8-C24682844247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F410B-4D0A-4F06-8A36-75E01B75F85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10632" yWindow="600" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11508" yWindow="600" windowWidth="11532" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>frameColour</t>
-  </si>
-  <si>
-    <t>blue</t>
   </si>
   <si>
     <t>yellow</t>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_546.png</t>
+  </si>
+  <si>
+    <t>indigo</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5FFB8-ADEE-4233-9EF1-4711A9BB639D}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>15</v>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -1084,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1104,16 +1104,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1128,21 +1128,21 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -1191,16 +1191,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -1215,21 +1215,21 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1249,16 +1249,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -1278,16 +1278,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1307,16 +1307,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
@@ -1336,16 +1336,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
@@ -1403,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
@@ -1423,16 +1423,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -1447,21 +1447,21 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1481,16 +1481,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -1534,21 +1534,21 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -1568,16 +1568,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -1621,21 +1621,21 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
@@ -1684,16 +1684,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -1708,21 +1708,21 @@
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1751,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -1780,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1809,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -1824,21 +1824,21 @@
         <v>2</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>17</v>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -1882,21 +1882,21 @@
         <v>2</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -1911,21 +1911,21 @@
         <v>2</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
@@ -1940,21 +1940,21 @@
         <v>2</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>9</v>
@@ -1969,21 +1969,21 @@
         <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -1998,21 +1998,21 @@
         <v>2</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
@@ -2027,21 +2027,21 @@
         <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
@@ -2061,16 +2061,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
@@ -2085,21 +2085,21 @@
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
@@ -2114,21 +2114,21 @@
         <v>2</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -2157,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>16</v>
@@ -2201,21 +2201,21 @@
         <v>2</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
@@ -2230,21 +2230,21 @@
         <v>2</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -2273,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>16</v>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
@@ -2317,21 +2317,21 @@
         <v>2</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -2351,16 +2351,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>16</v>
@@ -2404,21 +2404,21 @@
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
@@ -2433,21 +2433,21 @@
         <v>2</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>16</v>
@@ -2467,16 +2467,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
@@ -2496,16 +2496,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>16</v>
@@ -2525,16 +2525,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>9</v>
@@ -2563,7 +2563,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -2578,21 +2578,21 @@
         <v>3</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
@@ -2612,16 +2612,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
@@ -2641,16 +2641,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -2665,21 +2665,21 @@
         <v>3</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>16</v>
@@ -2699,16 +2699,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>7</v>
@@ -2728,16 +2728,16 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>17</v>
@@ -2752,21 +2752,21 @@
         <v>3</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
@@ -2781,21 +2781,21 @@
         <v>3</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>17</v>
@@ -2810,21 +2810,21 @@
         <v>3</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
@@ -2844,16 +2844,16 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>7</v>
@@ -2873,16 +2873,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>16</v>
@@ -2902,16 +2902,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
@@ -2931,16 +2931,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>17</v>
@@ -2955,21 +2955,21 @@
         <v>3</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>7</v>
@@ -3027,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>17</v>
@@ -3042,21 +3042,21 @@
         <v>3</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>17</v>
@@ -3071,21 +3071,21 @@
         <v>3</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>16</v>
@@ -3105,16 +3105,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>7</v>
@@ -3134,16 +3134,16 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>17</v>
@@ -3163,16 +3163,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>16</v>
@@ -3187,21 +3187,21 @@
         <v>4</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>7</v>
@@ -3216,21 +3216,21 @@
         <v>4</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -3245,21 +3245,21 @@
         <v>4</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
@@ -3274,21 +3274,21 @@
         <v>4</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>17</v>
@@ -3308,16 +3308,16 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>17</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>16</v>
@@ -3361,21 +3361,21 @@
         <v>4</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>7</v>
@@ -3390,21 +3390,21 @@
         <v>4</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>16</v>
@@ -3419,21 +3419,21 @@
         <v>4</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -3448,21 +3448,21 @@
         <v>4</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>17</v>
@@ -3482,16 +3482,16 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -3506,21 +3506,21 @@
         <v>4</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>9</v>
@@ -3535,21 +3535,21 @@
         <v>4</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>16</v>
@@ -3564,21 +3564,21 @@
         <v>4</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>7</v>
@@ -3593,21 +3593,21 @@
         <v>4</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>17</v>
@@ -3627,16 +3627,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>17</v>
@@ -3656,16 +3656,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>17</v>
@@ -3685,16 +3685,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>16</v>
@@ -3709,21 +3709,21 @@
         <v>4</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>9</v>
@@ -3738,21 +3738,21 @@
         <v>4</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>17</v>
@@ -3772,16 +3772,16 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>16</v>
@@ -3796,21 +3796,21 @@
         <v>4</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>7</v>
@@ -3825,21 +3825,21 @@
         <v>4</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>16</v>
@@ -3859,16 +3859,16 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>7</v>
@@ -3888,16 +3888,16 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>17</v>
@@ -3912,21 +3912,21 @@
         <v>1</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>17</v>
@@ -3941,21 +3941,21 @@
         <v>1</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>16</v>
@@ -3975,16 +3975,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>7</v>
@@ -4004,16 +4004,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>16</v>
@@ -4033,16 +4033,16 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>9</v>
@@ -4062,16 +4062,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>17</v>
@@ -4086,21 +4086,21 @@
         <v>1</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>16</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>9</v>
@@ -4158,7 +4158,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>16</v>
@@ -4187,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>9</v>
@@ -4207,16 +4207,16 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>17</v>
@@ -4231,21 +4231,21 @@
         <v>1</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>16</v>
@@ -4265,16 +4265,16 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>7</v>
@@ -4294,16 +4294,16 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>17</v>
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -4332,7 +4332,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>16</v>
@@ -4361,7 +4361,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>7</v>
@@ -4381,16 +4381,16 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>17</v>
@@ -4405,21 +4405,21 @@
         <v>1</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>17</v>
@@ -4434,21 +4434,21 @@
         <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>16</v>
@@ -4468,16 +4468,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>9</v>
@@ -4497,16 +4497,16 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>17</v>
@@ -4521,21 +4521,21 @@
         <v>1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>16</v>
@@ -4550,21 +4550,21 @@
         <v>2</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>7</v>
@@ -4579,21 +4579,21 @@
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>17</v>
@@ -4613,16 +4613,16 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>16</v>
@@ -4637,21 +4637,21 @@
         <v>2</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>7</v>
@@ -4666,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -4680,7 +4680,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>16</v>
@@ -4695,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -4709,7 +4709,7 @@
         <v>4</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>9</v>
@@ -4724,21 +4724,21 @@
         <v>2</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>17</v>
@@ -4767,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>16</v>
@@ -4782,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -4796,7 +4796,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>9</v>
@@ -4811,21 +4811,21 @@
         <v>2</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>16</v>
@@ -4840,21 +4840,21 @@
         <v>2</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>9</v>
@@ -4869,21 +4869,21 @@
         <v>2</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>17</v>
@@ -4903,16 +4903,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>17</v>
@@ -4932,16 +4932,16 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>16</v>
@@ -4956,21 +4956,21 @@
         <v>2</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>7</v>
@@ -4985,7 +4985,7 @@
         <v>2</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -4999,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>17</v>
@@ -5019,16 +5019,16 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>16</v>
@@ -5043,21 +5043,21 @@
         <v>2</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>7</v>
@@ -5072,21 +5072,21 @@
         <v>2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>17</v>
@@ -5115,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>17</v>
@@ -5135,16 +5135,16 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>17</v>
@@ -5164,16 +5164,16 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>16</v>
@@ -5188,21 +5188,21 @@
         <v>2</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>9</v>
@@ -5217,21 +5217,21 @@
         <v>2</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>17</v>
@@ -5246,21 +5246,21 @@
         <v>3</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>16</v>
@@ -5280,16 +5280,16 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>9</v>
@@ -5309,16 +5309,16 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>17</v>
@@ -5333,21 +5333,21 @@
         <v>3</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>16</v>
@@ -5367,16 +5367,16 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>9</v>
@@ -5396,16 +5396,16 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>16</v>
@@ -5425,16 +5425,16 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>9</v>
@@ -5463,7 +5463,7 @@
         <v>5</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>17</v>
@@ -5478,21 +5478,21 @@
         <v>3</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>16</v>
@@ -5512,16 +5512,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>7</v>
@@ -5550,7 +5550,7 @@
         <v>5</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>17</v>
@@ -5565,21 +5565,21 @@
         <v>3</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>17</v>
@@ -5594,21 +5594,21 @@
         <v>3</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>16</v>
@@ -5628,16 +5628,16 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>7</v>
@@ -5657,16 +5657,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>16</v>
@@ -5686,16 +5686,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>9</v>
@@ -5715,16 +5715,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>17</v>
@@ -5739,21 +5739,21 @@
         <v>3</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>16</v>
@@ -5773,16 +5773,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>7</v>
@@ -5802,16 +5802,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>17</v>
@@ -5826,21 +5826,21 @@
         <v>3</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>16</v>
@@ -5860,16 +5860,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>7</v>
@@ -5889,16 +5889,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>17</v>
@@ -5913,21 +5913,21 @@
         <v>3</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>17</v>
@@ -5947,16 +5947,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>16</v>
@@ -5971,21 +5971,21 @@
         <v>4</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>7</v>
@@ -6000,21 +6000,21 @@
         <v>4</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>16</v>
@@ -6029,21 +6029,21 @@
         <v>4</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>9</v>
@@ -6058,21 +6058,21 @@
         <v>4</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>17</v>
@@ -6092,16 +6092,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>16</v>
@@ -6116,21 +6116,21 @@
         <v>4</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>7</v>
@@ -6145,21 +6145,21 @@
         <v>4</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>16</v>
@@ -6174,21 +6174,21 @@
         <v>4</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>9</v>
@@ -6203,21 +6203,21 @@
         <v>4</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>17</v>
@@ -6237,16 +6237,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>17</v>
@@ -6266,16 +6266,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>17</v>
@@ -6295,16 +6295,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>16</v>
@@ -6319,21 +6319,21 @@
         <v>4</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>9</v>
@@ -6348,21 +6348,21 @@
         <v>4</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>16</v>
@@ -6377,21 +6377,21 @@
         <v>4</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>7</v>
@@ -6406,21 +6406,21 @@
         <v>4</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>17</v>
@@ -6440,16 +6440,16 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>16</v>
@@ -6464,21 +6464,21 @@
         <v>4</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>9</v>
@@ -6493,21 +6493,21 @@
         <v>4</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>16</v>
@@ -6522,21 +6522,21 @@
         <v>4</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>7</v>
@@ -6551,21 +6551,21 @@
         <v>4</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>17</v>
@@ -6585,16 +6585,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>17</v>
@@ -6614,16 +6614,16 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>17</v>
@@ -6638,21 +6638,21 @@
         <v>1</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>16</v>
@@ -6672,16 +6672,16 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>7</v>
@@ -6701,16 +6701,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>17</v>
@@ -6725,21 +6725,21 @@
         <v>1</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>17</v>
@@ -6754,21 +6754,21 @@
         <v>1</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>16</v>
@@ -6788,16 +6788,16 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>7</v>
@@ -6817,16 +6817,16 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>16</v>
@@ -6846,16 +6846,16 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>9</v>
@@ -6875,16 +6875,16 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>17</v>
@@ -6899,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -6913,7 +6913,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>16</v>
@@ -6942,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>9</v>
@@ -6962,16 +6962,16 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>16</v>
@@ -6991,16 +6991,16 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>9</v>
@@ -7020,16 +7020,16 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>17</v>
@@ -7044,21 +7044,21 @@
         <v>1</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>17</v>
@@ -7073,21 +7073,21 @@
         <v>1</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>16</v>
@@ -7107,16 +7107,16 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>7</v>
@@ -7136,16 +7136,16 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>17</v>
@@ -7160,21 +7160,21 @@
         <v>1</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>17</v>
@@ -7189,21 +7189,21 @@
         <v>1</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>16</v>
@@ -7223,16 +7223,16 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>7</v>
@@ -7261,7 +7261,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>16</v>
@@ -7290,7 +7290,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>9</v>
@@ -7319,7 +7319,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>16</v>
@@ -7334,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -7348,7 +7348,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>7</v>
@@ -7363,21 +7363,21 @@
         <v>2</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>17</v>
@@ -7397,16 +7397,16 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>17</v>
@@ -7426,16 +7426,16 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>16</v>
@@ -7450,21 +7450,21 @@
         <v>2</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>7</v>
@@ -7479,21 +7479,21 @@
         <v>2</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>16</v>
@@ -7508,21 +7508,21 @@
         <v>2</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>9</v>
@@ -7537,21 +7537,21 @@
         <v>2</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>17</v>
@@ -7571,16 +7571,16 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>16</v>
@@ -7595,21 +7595,21 @@
         <v>2</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>9</v>
@@ -7624,21 +7624,21 @@
         <v>2</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>16</v>
@@ -7653,21 +7653,21 @@
         <v>2</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>9</v>
@@ -7682,7 +7682,7 @@
         <v>2</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -7696,7 +7696,7 @@
         <v>4</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>17</v>
@@ -7716,16 +7716,16 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>17</v>
@@ -7745,16 +7745,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>16</v>
@@ -7769,21 +7769,21 @@
         <v>2</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>7</v>
@@ -7798,21 +7798,21 @@
         <v>2</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>17</v>
@@ -7841,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>16</v>
@@ -7856,7 +7856,7 @@
         <v>2</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -7870,7 +7870,7 @@
         <v>4</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>7</v>
@@ -7885,21 +7885,21 @@
         <v>2</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>16</v>
@@ -7914,21 +7914,21 @@
         <v>2</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>9</v>
@@ -7943,21 +7943,21 @@
         <v>2</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>17</v>
@@ -7986,7 +7986,7 @@
         <v>4</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>17</v>
@@ -8006,16 +8006,16 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>16</v>
@@ -8035,16 +8035,16 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>9</v>
@@ -8073,7 +8073,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>17</v>
@@ -8088,21 +8088,21 @@
         <v>3</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>17</v>
@@ -8117,21 +8117,21 @@
         <v>3</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>16</v>
@@ -8151,16 +8151,16 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>9</v>
@@ -8180,16 +8180,16 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>16</v>
@@ -8209,16 +8209,16 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>9</v>
@@ -8238,16 +8238,16 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>17</v>
@@ -8262,21 +8262,21 @@
         <v>3</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>16</v>
@@ -8296,16 +8296,16 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>7</v>
@@ -8325,16 +8325,16 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>17</v>
@@ -8349,21 +8349,21 @@
         <v>3</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>17</v>
@@ -8378,21 +8378,21 @@
         <v>3</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>17</v>
@@ -8407,21 +8407,21 @@
         <v>3</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>16</v>
@@ -8441,16 +8441,16 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>7</v>
@@ -8470,16 +8470,16 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>16</v>
@@ -8499,16 +8499,16 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>9</v>
@@ -8528,16 +8528,16 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>16</v>
@@ -8557,16 +8557,16 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>7</v>
@@ -8586,16 +8586,16 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>17</v>
@@ -8610,21 +8610,21 @@
         <v>3</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>16</v>
@@ -8644,16 +8644,16 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>7</v>
@@ -8682,7 +8682,7 @@
         <v>4</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>17</v>
@@ -8697,21 +8697,21 @@
         <v>3</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>16</v>
@@ -8726,21 +8726,21 @@
         <v>4</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>7</v>
@@ -8755,21 +8755,21 @@
         <v>4</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>17</v>
@@ -8789,16 +8789,16 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>16</v>
@@ -8813,21 +8813,21 @@
         <v>4</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>9</v>
@@ -8842,21 +8842,21 @@
         <v>4</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>16</v>
@@ -8871,21 +8871,21 @@
         <v>4</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>7</v>
@@ -8900,21 +8900,21 @@
         <v>4</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>17</v>
@@ -8934,16 +8934,16 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>17</v>
@@ -8963,16 +8963,16 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>16</v>
@@ -8987,21 +8987,21 @@
         <v>4</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>9</v>
@@ -9016,21 +9016,21 @@
         <v>4</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>16</v>
@@ -9045,21 +9045,21 @@
         <v>4</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>9</v>
@@ -9074,21 +9074,21 @@
         <v>4</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>17</v>
@@ -9108,16 +9108,16 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>16</v>
@@ -9132,21 +9132,21 @@
         <v>4</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>7</v>
@@ -9161,21 +9161,21 @@
         <v>4</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>17</v>
@@ -9195,16 +9195,16 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>16</v>
@@ -9219,21 +9219,21 @@
         <v>4</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>9</v>
@@ -9248,21 +9248,21 @@
         <v>4</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>16</v>
@@ -9277,21 +9277,21 @@
         <v>4</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>7</v>
@@ -9306,21 +9306,21 @@
         <v>4</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>17</v>
@@ -9340,16 +9340,16 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>17</v>
@@ -9369,16 +9369,16 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>17</v>
@@ -9398,16 +9398,16 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>17</v>
@@ -9422,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -9436,7 +9436,7 @@
         <v>4</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>16</v>
@@ -9465,7 +9465,7 @@
         <v>4</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>7</v>
@@ -9485,16 +9485,16 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>17</v>
@@ -9509,21 +9509,21 @@
         <v>1</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>17</v>
@@ -9538,21 +9538,21 @@
         <v>1</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>17</v>
@@ -9567,21 +9567,21 @@
         <v>1</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>16</v>
@@ -9601,16 +9601,16 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>7</v>
@@ -9630,16 +9630,16 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>16</v>
@@ -9659,16 +9659,16 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>9</v>
@@ -9688,16 +9688,16 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>17</v>
@@ -9712,21 +9712,21 @@
         <v>1</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>16</v>
@@ -9746,16 +9746,16 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>9</v>
@@ -9775,16 +9775,16 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>16</v>
@@ -9804,16 +9804,16 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>9</v>
@@ -9833,16 +9833,16 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>17</v>
@@ -9857,21 +9857,21 @@
         <v>1</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>16</v>
@@ -9891,16 +9891,16 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>7</v>
@@ -9920,16 +9920,16 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>17</v>
@@ -9944,21 +9944,21 @@
         <v>1</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>17</v>
@@ -9973,7 +9973,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -9987,7 +9987,7 @@
         <v>5</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>16</v>
@@ -10016,7 +10016,7 @@
         <v>5</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>7</v>
@@ -10036,16 +10036,16 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>16</v>
@@ -10065,16 +10065,16 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>9</v>
@@ -10094,16 +10094,16 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>16</v>
@@ -10118,21 +10118,21 @@
         <v>2</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>7</v>
@@ -10147,7 +10147,7 @@
         <v>2</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -10161,7 +10161,7 @@
         <v>4</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>17</v>
@@ -10181,16 +10181,16 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>16</v>
@@ -10205,21 +10205,21 @@
         <v>2</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>7</v>
@@ -10234,21 +10234,21 @@
         <v>2</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>17</v>
@@ -10268,16 +10268,16 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>16</v>
@@ -10292,21 +10292,21 @@
         <v>2</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>9</v>
@@ -10321,21 +10321,21 @@
         <v>2</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>16</v>
@@ -10350,21 +10350,21 @@
         <v>2</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>9</v>
@@ -10379,21 +10379,21 @@
         <v>2</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>17</v>
@@ -10413,16 +10413,16 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>17</v>
@@ -10442,16 +10442,16 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>17</v>
@@ -10480,7 +10480,7 @@
         <v>5</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>16</v>
@@ -10495,7 +10495,7 @@
         <v>2</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -10509,7 +10509,7 @@
         <v>4</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>9</v>
@@ -10524,21 +10524,21 @@
         <v>2</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>16</v>
@@ -10553,21 +10553,21 @@
         <v>2</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>7</v>
@@ -10582,21 +10582,21 @@
         <v>2</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>17</v>
@@ -10616,16 +10616,16 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>16</v>
@@ -10640,21 +10640,21 @@
         <v>2</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>7</v>
@@ -10669,7 +10669,7 @@
         <v>2</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -10683,7 +10683,7 @@
         <v>5</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>17</v>
@@ -10703,16 +10703,16 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>17</v>
@@ -10741,7 +10741,7 @@
         <v>4</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>16</v>
@@ -10756,7 +10756,7 @@
         <v>2</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -10770,7 +10770,7 @@
         <v>5</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>9</v>
@@ -10785,21 +10785,21 @@
         <v>2</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>16</v>
@@ -10819,16 +10819,16 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>9</v>
@@ -10848,16 +10848,16 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>16</v>
@@ -10877,16 +10877,16 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>9</v>
@@ -10906,16 +10906,16 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>17</v>
@@ -10930,21 +10930,21 @@
         <v>3</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>17</v>
@@ -10959,21 +10959,21 @@
         <v>3</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>16</v>
@@ -10993,16 +10993,16 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>9</v>
@@ -11022,16 +11022,16 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>17</v>
@@ -11046,21 +11046,21 @@
         <v>3</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>16</v>
@@ -11080,16 +11080,16 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>7</v>
@@ -11109,16 +11109,16 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>17</v>
@@ -11133,7 +11133,7 @@
         <v>3</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -11147,7 +11147,7 @@
         <v>5</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>17</v>
@@ -11162,21 +11162,21 @@
         <v>3</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>16</v>
@@ -11196,16 +11196,16 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>7</v>
@@ -11225,16 +11225,16 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>16</v>
@@ -11254,16 +11254,16 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>9</v>
@@ -11283,16 +11283,16 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>17</v>
@@ -11307,21 +11307,21 @@
         <v>3</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>17</v>
@@ -11336,21 +11336,21 @@
         <v>3</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>16</v>
@@ -11370,16 +11370,16 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>7</v>
@@ -11408,7 +11408,7 @@
         <v>4</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>17</v>
@@ -11423,21 +11423,21 @@
         <v>3</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>16</v>
@@ -11457,16 +11457,16 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>7</v>
@@ -11486,16 +11486,16 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>17</v>
@@ -11515,16 +11515,16 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>17</v>
@@ -11544,16 +11544,16 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>16</v>
@@ -11568,21 +11568,21 @@
         <v>4</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>7</v>
@@ -11597,21 +11597,21 @@
         <v>4</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>16</v>
@@ -11626,21 +11626,21 @@
         <v>4</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>9</v>
@@ -11655,21 +11655,21 @@
         <v>4</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>17</v>
@@ -11689,16 +11689,16 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>16</v>
@@ -11713,21 +11713,21 @@
         <v>4</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>7</v>
@@ -11742,21 +11742,21 @@
         <v>4</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>16</v>
@@ -11771,21 +11771,21 @@
         <v>4</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>9</v>
@@ -11800,21 +11800,21 @@
         <v>4</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>17</v>
@@ -11834,16 +11834,16 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>16</v>
@@ -11858,21 +11858,21 @@
         <v>4</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>9</v>
@@ -11887,21 +11887,21 @@
         <v>4</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>16</v>
@@ -11916,21 +11916,21 @@
         <v>4</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>7</v>
@@ -11945,21 +11945,21 @@
         <v>4</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>17</v>
@@ -11979,16 +11979,16 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>17</v>
@@ -12008,16 +12008,16 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>16</v>
@@ -12032,21 +12032,21 @@
         <v>4</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>9</v>
@@ -12061,21 +12061,21 @@
         <v>4</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>16</v>
@@ -12090,21 +12090,21 @@
         <v>4</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>7</v>
@@ -12119,21 +12119,21 @@
         <v>4</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>17</v>
@@ -12153,16 +12153,16 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>17</v>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F410B-4D0A-4F06-8A36-75E01B75F85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18424E86-40DF-49C1-9A5A-EB238F40F2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11508" yWindow="600" windowWidth="11532" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18288" yWindow="708" windowWidth="7764" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5FFB8-ADEE-4233-9EF1-4711A9BB639D}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18424E86-40DF-49C1-9A5A-EB238F40F2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40632A6-B9C1-43A4-92D9-E3E87DAC3A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18288" yWindow="708" windowWidth="7764" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="114">
   <si>
     <t>image</t>
   </si>
@@ -266,16 +266,7 @@
     <t>baño</t>
   </si>
   <si>
-    <t>fresa</t>
-  </si>
-  <si>
-    <t>oveja</t>
-  </si>
-  <si>
     <t>pierna</t>
-  </si>
-  <si>
-    <t>boca</t>
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_178.png</t>
@@ -299,9 +290,6 @@
     <t>REPSWITCH1/PICTURE_48.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_381.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1/PICTURE_319.png</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_552.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_636.png</t>
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_235.png</t>
@@ -338,9 +323,6 @@
     <t>REPSWITCH1/PICTURE_719.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_91.png</t>
-  </si>
-  <si>
     <t>oreja</t>
   </si>
   <si>
@@ -351,12 +333,6 @@
   </si>
   <si>
     <t>goma</t>
-  </si>
-  <si>
-    <t>puerta</t>
-  </si>
-  <si>
-    <t>braga</t>
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_135.png</t>
@@ -371,16 +347,34 @@
     <t>REPSWITCH1/PICTURE_35.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_545.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1/PICTURE_728.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_546.png</t>
+    <t>indigo</t>
   </si>
   <si>
-    <t>indigo</t>
+    <t>taza</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_498.png</t>
+  </si>
+  <si>
+    <t>regalo</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_338.png</t>
+  </si>
+  <si>
+    <t>cerdo</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_446.png</t>
+  </si>
+  <si>
+    <t>espalda</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_169.png</t>
   </si>
 </sst>
 </file>
@@ -1005,14 +999,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5FFB8-ADEE-4233-9EF1-4711A9BB639D}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B390" sqref="B390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1046,10 +1041,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -1075,10 +1070,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -1104,16 +1099,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1133,7 +1128,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>59</v>
@@ -1162,7 +1157,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>59</v>
@@ -1191,16 +1186,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -1220,10 +1215,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1249,16 +1244,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -1278,16 +1273,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1307,10 +1302,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1336,7 +1331,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>77</v>
@@ -1365,10 +1360,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1394,16 +1389,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
@@ -1423,7 +1418,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>106</v>
@@ -1452,16 +1447,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1481,16 +1476,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -1513,7 +1508,7 @@
         <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -1539,16 +1534,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -1568,16 +1563,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1597,10 +1592,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -1626,16 +1621,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
@@ -1655,10 +1650,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -1684,16 +1679,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -1713,16 +1708,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
@@ -1742,10 +1737,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -1771,16 +1766,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -1800,16 +1795,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -1829,7 +1824,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>59</v>
@@ -1858,16 +1853,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -1887,16 +1882,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -1916,16 +1911,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
@@ -1945,10 +1940,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -1977,7 +1972,7 @@
         <v>89</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -2006,13 +2001,13 @@
         <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
@@ -2032,10 +2027,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -2061,16 +2056,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
@@ -2090,10 +2085,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -2119,16 +2114,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -2148,16 +2143,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -2177,10 +2172,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -2206,10 +2201,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
@@ -2235,16 +2230,16 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -2264,10 +2259,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
@@ -2293,10 +2288,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
@@ -2322,10 +2317,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
@@ -2351,16 +2346,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -2380,10 +2375,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -2409,16 +2404,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
@@ -2438,16 +2433,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>16</v>
@@ -2467,10 +2462,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
@@ -2496,10 +2491,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
@@ -2525,16 +2520,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>9</v>
@@ -2554,16 +2549,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -2583,16 +2578,16 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
@@ -2612,10 +2607,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -2641,16 +2636,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -2670,10 +2665,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -2699,10 +2694,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -2728,10 +2723,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
@@ -2760,13 +2755,13 @@
         <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
@@ -2786,16 +2781,16 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>17</v>
@@ -2815,10 +2810,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
@@ -2844,10 +2839,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -2873,10 +2868,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
@@ -2902,16 +2897,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
@@ -2931,10 +2926,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>4</v>
@@ -2960,16 +2955,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -2989,16 +2984,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>7</v>
@@ -3018,10 +3013,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
@@ -3047,10 +3042,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
@@ -3076,16 +3071,16 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>16</v>
@@ -3105,16 +3100,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>7</v>
@@ -3134,10 +3129,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -3163,16 +3158,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>16</v>
@@ -3192,16 +3187,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>7</v>
@@ -3221,16 +3216,16 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -3250,10 +3245,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -3279,16 +3274,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>17</v>
@@ -3308,16 +3303,16 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>17</v>
@@ -3337,7 +3332,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>77</v>
@@ -3366,7 +3361,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>77</v>
@@ -3395,7 +3390,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>106</v>
@@ -3424,7 +3419,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>106</v>
@@ -3433,7 +3428,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -3453,10 +3448,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
@@ -3485,13 +3480,13 @@
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -3514,7 +3509,7 @@
         <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
@@ -3540,10 +3535,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -3569,10 +3564,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -3598,16 +3593,16 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>17</v>
@@ -3627,10 +3622,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
@@ -3656,16 +3651,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>17</v>
@@ -3685,10 +3680,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
@@ -3714,16 +3709,16 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>9</v>
@@ -3743,10 +3738,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
@@ -3772,16 +3767,16 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>16</v>
@@ -3801,16 +3796,16 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>7</v>
@@ -3830,10 +3825,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>4</v>
@@ -3859,10 +3854,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>4</v>
@@ -3888,7 +3883,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>77</v>
@@ -3897,7 +3892,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>17</v>
@@ -3917,16 +3912,16 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>17</v>
@@ -3946,10 +3941,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
@@ -3975,10 +3970,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
@@ -4004,10 +3999,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
@@ -4033,16 +4028,16 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>9</v>
@@ -4062,7 +4057,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>106</v>
@@ -4091,7 +4086,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>59</v>
@@ -4100,7 +4095,7 @@
         <v>5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>16</v>
@@ -4120,7 +4115,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>59</v>
@@ -4149,10 +4144,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
@@ -4178,16 +4173,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>9</v>
@@ -4207,10 +4202,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
@@ -4236,16 +4231,16 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>16</v>
@@ -4265,16 +4260,16 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>7</v>
@@ -4294,10 +4289,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
@@ -4323,16 +4318,16 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>16</v>
@@ -4352,16 +4347,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>7</v>
@@ -4381,16 +4376,16 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>17</v>
@@ -4410,10 +4405,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
@@ -4439,16 +4434,16 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>16</v>
@@ -4468,10 +4463,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
@@ -4500,13 +4495,13 @@
         <v>92</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>17</v>
@@ -4526,16 +4521,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>16</v>
@@ -4555,16 +4550,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>7</v>
@@ -4584,10 +4579,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
@@ -4613,16 +4608,16 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>16</v>
@@ -4642,16 +4637,16 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>7</v>
@@ -4671,16 +4666,16 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>16</v>
@@ -4700,10 +4695,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>4</v>
@@ -4729,10 +4724,10 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>4</v>
@@ -4758,10 +4753,10 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
@@ -4787,16 +4782,16 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>9</v>
@@ -4816,16 +4811,16 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>16</v>
@@ -4845,10 +4840,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
@@ -4874,16 +4869,16 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>17</v>
@@ -4903,7 +4898,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>59</v>
@@ -4912,7 +4907,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>17</v>
@@ -4935,7 +4930,7 @@
         <v>89</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
@@ -4964,7 +4959,7 @@
         <v>89</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
@@ -4990,16 +4985,16 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>17</v>
@@ -5019,10 +5014,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
@@ -5048,10 +5043,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
@@ -5077,10 +5072,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
@@ -5106,16 +5101,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>17</v>
@@ -5135,10 +5130,10 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
@@ -5164,10 +5159,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
@@ -5193,16 +5188,16 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>9</v>
@@ -5222,10 +5217,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
@@ -5251,16 +5246,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>16</v>
@@ -5280,10 +5275,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
@@ -5309,10 +5304,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
@@ -5338,10 +5333,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
@@ -5367,16 +5362,16 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>9</v>
@@ -5396,16 +5391,16 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>16</v>
@@ -5425,10 +5420,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
@@ -5454,16 +5449,16 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>17</v>
@@ -5483,10 +5478,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
@@ -5512,10 +5507,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
@@ -5541,16 +5536,16 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>17</v>
@@ -5570,16 +5565,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>17</v>
@@ -5599,10 +5594,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
@@ -5628,10 +5623,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
@@ -5657,10 +5652,10 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
@@ -5686,16 +5681,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>9</v>
@@ -5718,7 +5713,7 @@
         <v>89</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
@@ -5744,16 +5739,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>16</v>
@@ -5773,16 +5768,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>7</v>
@@ -5802,10 +5797,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
@@ -5831,16 +5826,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>16</v>
@@ -5860,16 +5855,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>7</v>
@@ -5889,16 +5884,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>17</v>
@@ -5918,10 +5913,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
@@ -5947,7 +5942,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>77</v>
@@ -5956,7 +5951,7 @@
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>16</v>
@@ -5976,7 +5971,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>77</v>
@@ -5985,7 +5980,7 @@
         <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>7</v>
@@ -6005,16 +6000,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>16</v>
@@ -6034,10 +6029,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
@@ -6063,16 +6058,16 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>17</v>
@@ -6092,7 +6087,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>106</v>
@@ -6121,7 +6116,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>106</v>
@@ -6150,10 +6145,10 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
@@ -6179,16 +6174,16 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>9</v>
@@ -6208,10 +6203,10 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
@@ -6237,16 +6232,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>17</v>
@@ -6266,10 +6261,10 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
@@ -6295,16 +6290,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>16</v>
@@ -6324,10 +6319,10 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
@@ -6353,10 +6348,10 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
@@ -6382,10 +6377,10 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
@@ -6411,16 +6406,16 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>17</v>
@@ -6440,10 +6435,10 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
@@ -6469,16 +6464,16 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>9</v>
@@ -6501,13 +6496,13 @@
         <v>92</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>16</v>
@@ -6530,13 +6525,13 @@
         <v>92</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>7</v>
@@ -6556,10 +6551,10 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>4</v>
@@ -6585,16 +6580,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>17</v>
@@ -6614,7 +6609,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>106</v>
@@ -6643,10 +6638,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>4</v>
@@ -6672,10 +6667,10 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>4</v>
@@ -6701,16 +6696,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>17</v>
@@ -6730,16 +6725,16 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>17</v>
@@ -6759,10 +6754,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>4</v>
@@ -6788,10 +6783,10 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>4</v>
@@ -6817,10 +6812,10 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>4</v>
@@ -6846,16 +6841,16 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>9</v>
@@ -6878,7 +6873,7 @@
         <v>92</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>4</v>
@@ -6904,16 +6899,16 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>16</v>
@@ -6933,10 +6928,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>4</v>
@@ -6962,10 +6957,10 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>4</v>
@@ -6991,16 +6986,16 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>9</v>
@@ -7020,16 +7015,16 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>17</v>
@@ -7049,10 +7044,10 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>4</v>
@@ -7078,7 +7073,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>59</v>
@@ -7087,7 +7082,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>16</v>
@@ -7107,7 +7102,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>59</v>
@@ -7116,7 +7111,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>7</v>
@@ -7136,7 +7131,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>77</v>
@@ -7145,7 +7140,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>17</v>
@@ -7165,10 +7160,10 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>4</v>
@@ -7194,16 +7189,16 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>16</v>
@@ -7223,16 +7218,16 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>7</v>
@@ -7252,16 +7247,16 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>16</v>
@@ -7281,10 +7276,10 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>4</v>
@@ -7310,16 +7305,16 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>16</v>
@@ -7339,16 +7334,16 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>7</v>
@@ -7368,10 +7363,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>4</v>
@@ -7397,10 +7392,10 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>4</v>
@@ -7426,16 +7421,16 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>16</v>
@@ -7455,16 +7450,16 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>7</v>
@@ -7487,13 +7482,13 @@
         <v>89</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>16</v>
@@ -7516,7 +7511,7 @@
         <v>89</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>4</v>
@@ -7542,16 +7537,16 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>17</v>
@@ -7571,10 +7566,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>4</v>
@@ -7600,16 +7595,16 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>9</v>
@@ -7629,16 +7624,16 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>16</v>
@@ -7658,10 +7653,10 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>4</v>
@@ -7687,10 +7682,10 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>4</v>
@@ -7716,16 +7711,16 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>17</v>
@@ -7745,10 +7740,10 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>4</v>
@@ -7774,10 +7769,10 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>4</v>
@@ -7803,7 +7798,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>59</v>
@@ -7812,7 +7807,7 @@
         <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>17</v>
@@ -7832,10 +7827,10 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>4</v>
@@ -7861,10 +7856,10 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>4</v>
@@ -7890,10 +7885,10 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>4</v>
@@ -7919,16 +7914,16 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>9</v>
@@ -7948,16 +7943,16 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>17</v>
@@ -7977,10 +7972,10 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>4</v>
@@ -8006,16 +8001,16 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>16</v>
@@ -8035,10 +8030,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>4</v>
@@ -8064,10 +8059,10 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>4</v>
@@ -8093,16 +8088,16 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>17</v>
@@ -8122,10 +8117,10 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>4</v>
@@ -8151,16 +8146,16 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>9</v>
@@ -8180,16 +8175,16 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>16</v>
@@ -8209,10 +8204,10 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>4</v>
@@ -8241,13 +8236,13 @@
         <v>89</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>17</v>
@@ -8267,10 +8262,10 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>4</v>
@@ -8296,10 +8291,10 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>4</v>
@@ -8325,16 +8320,16 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>17</v>
@@ -8354,10 +8349,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>4</v>
@@ -8383,16 +8378,16 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>17</v>
@@ -8412,10 +8407,10 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>4</v>
@@ -8441,10 +8436,10 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>4</v>
@@ -8470,10 +8465,10 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>4</v>
@@ -8499,16 +8494,16 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>9</v>
@@ -8528,16 +8523,16 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>16</v>
@@ -8557,16 +8552,16 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>7</v>
@@ -8586,10 +8581,10 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>4</v>
@@ -8615,16 +8610,16 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>16</v>
@@ -8644,16 +8639,16 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>7</v>
@@ -8673,10 +8668,10 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>4</v>
@@ -8702,7 +8697,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>106</v>
@@ -8711,7 +8706,7 @@
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>16</v>
@@ -8731,7 +8726,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>106</v>
@@ -8740,7 +8735,7 @@
         <v>5</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>7</v>
@@ -8760,10 +8755,10 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>4</v>
@@ -8789,16 +8784,16 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>16</v>
@@ -8818,10 +8813,10 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>4</v>
@@ -8847,10 +8842,10 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>4</v>
@@ -8876,10 +8871,10 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>4</v>
@@ -8905,16 +8900,16 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>17</v>
@@ -8934,10 +8929,10 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>4</v>
@@ -8966,7 +8961,7 @@
         <v>92</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>4</v>
@@ -8995,13 +8990,13 @@
         <v>92</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>9</v>
@@ -9021,16 +9016,16 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>16</v>
@@ -9050,10 +9045,10 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>4</v>
@@ -9079,16 +9074,16 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>17</v>
@@ -9108,10 +9103,10 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>4</v>
@@ -9137,10 +9132,10 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>4</v>
@@ -9166,16 +9161,16 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>17</v>
@@ -9195,7 +9190,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>77</v>
@@ -9224,7 +9219,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>77</v>
@@ -9233,7 +9228,7 @@
         <v>5</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>9</v>
@@ -9253,16 +9248,16 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>16</v>
@@ -9282,16 +9277,16 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>7</v>
@@ -9311,10 +9306,10 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>4</v>
@@ -9340,16 +9335,16 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>17</v>
@@ -9369,10 +9364,10 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>4</v>
@@ -9398,10 +9393,10 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>4</v>
@@ -9427,10 +9422,10 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>4</v>
@@ -9456,10 +9451,10 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>4</v>
@@ -9485,7 +9480,7 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>77</v>
@@ -9494,7 +9489,7 @@
         <v>5</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>17</v>
@@ -9517,7 +9512,7 @@
         <v>92</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>4</v>
@@ -9543,16 +9538,16 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>17</v>
@@ -9572,10 +9567,10 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>4</v>
@@ -9601,10 +9596,10 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>4</v>
@@ -9630,10 +9625,10 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>4</v>
@@ -9659,16 +9654,16 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>9</v>
@@ -9688,7 +9683,7 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>106</v>
@@ -9697,7 +9692,7 @@
         <v>5</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>17</v>
@@ -9717,16 +9712,16 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>16</v>
@@ -9746,10 +9741,10 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>4</v>
@@ -9775,7 +9770,7 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>59</v>
@@ -9804,7 +9799,7 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>59</v>
@@ -9813,7 +9808,7 @@
         <v>5</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>9</v>
@@ -9833,10 +9828,10 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>4</v>
@@ -9862,16 +9857,16 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>16</v>
@@ -9891,16 +9886,16 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>7</v>
@@ -9920,16 +9915,16 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>17</v>
@@ -9949,10 +9944,10 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>4</v>
@@ -9978,16 +9973,16 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>16</v>
@@ -10007,16 +10002,16 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>7</v>
@@ -10036,16 +10031,16 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>16</v>
@@ -10065,10 +10060,10 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>4</v>
@@ -10094,16 +10089,16 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>16</v>
@@ -10123,16 +10118,16 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>7</v>
@@ -10152,10 +10147,10 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>4</v>
@@ -10184,13 +10179,13 @@
         <v>89</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>16</v>
@@ -10213,13 +10208,13 @@
         <v>89</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>7</v>
@@ -10239,10 +10234,10 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>4</v>
@@ -10268,16 +10263,16 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>16</v>
@@ -10297,10 +10292,10 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>4</v>
@@ -10326,10 +10321,10 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>4</v>
@@ -10355,16 +10350,16 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>9</v>
@@ -10384,16 +10379,16 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>17</v>
@@ -10413,10 +10408,10 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>4</v>
@@ -10442,7 +10437,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>59</v>
@@ -10451,7 +10446,7 @@
         <v>5</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>17</v>
@@ -10471,16 +10466,16 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>16</v>
@@ -10500,10 +10495,10 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>4</v>
@@ -10529,10 +10524,10 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>4</v>
@@ -10558,10 +10553,10 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>4</v>
@@ -10587,16 +10582,16 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>17</v>
@@ -10616,10 +10611,10 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>4</v>
@@ -10645,10 +10640,10 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>4</v>
@@ -10674,16 +10669,16 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>17</v>
@@ -10703,10 +10698,10 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>4</v>
@@ -10732,10 +10727,10 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>4</v>
@@ -10761,16 +10756,16 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>9</v>
@@ -10790,16 +10785,16 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>16</v>
@@ -10819,10 +10814,10 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>4</v>
@@ -10848,10 +10843,10 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>4</v>
@@ -10877,16 +10872,16 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>9</v>
@@ -10906,10 +10901,10 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>4</v>
@@ -10938,13 +10933,13 @@
         <v>89</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>17</v>
@@ -10964,16 +10959,16 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>16</v>
@@ -10993,10 +10988,10 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>4</v>
@@ -11022,16 +11017,16 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>17</v>
@@ -11051,10 +11046,10 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>4</v>
@@ -11080,10 +11075,10 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>4</v>
@@ -11109,16 +11104,16 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>17</v>
@@ -11138,16 +11133,16 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>17</v>
@@ -11167,10 +11162,10 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>4</v>
@@ -11196,10 +11191,10 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>4</v>
@@ -11225,10 +11220,10 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>4</v>
@@ -11254,16 +11249,16 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>9</v>
@@ -11283,10 +11278,10 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>4</v>
@@ -11312,10 +11307,10 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>4</v>
@@ -11341,16 +11336,16 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>16</v>
@@ -11370,16 +11365,16 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>7</v>
@@ -11399,10 +11394,10 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>4</v>
@@ -11428,16 +11423,16 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>16</v>
@@ -11457,16 +11452,16 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>7</v>
@@ -11486,10 +11481,10 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>4</v>
@@ -11515,10 +11510,10 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>4</v>
@@ -11544,16 +11539,16 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>16</v>
@@ -11573,16 +11568,16 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>7</v>
@@ -11602,7 +11597,7 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>77</v>
@@ -11611,7 +11606,7 @@
         <v>5</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>16</v>
@@ -11631,7 +11626,7 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>77</v>
@@ -11660,16 +11655,16 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>17</v>
@@ -11692,7 +11687,7 @@
         <v>92</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>4</v>
@@ -11721,7 +11716,7 @@
         <v>92</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>4</v>
@@ -11747,10 +11742,10 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>4</v>
@@ -11776,16 +11771,16 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>9</v>
@@ -11805,10 +11800,10 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>4</v>
@@ -11834,7 +11829,7 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>106</v>
@@ -11843,7 +11838,7 @@
         <v>5</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>16</v>
@@ -11863,7 +11858,7 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>106</v>
@@ -11892,10 +11887,10 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>4</v>
@@ -11921,10 +11916,10 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>4</v>
@@ -11950,16 +11945,16 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>17</v>
@@ -11979,16 +11974,16 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>17</v>
@@ -12008,10 +12003,10 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>4</v>
@@ -12037,16 +12032,16 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>9</v>
@@ -12066,16 +12061,16 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>16</v>
@@ -12095,16 +12090,16 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>7</v>
@@ -12124,10 +12119,10 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>4</v>
@@ -12153,16 +12148,16 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>17</v>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40632A6-B9C1-43A4-92D9-E3E87DAC3A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B845BD8-62BF-44A4-B60B-12250F981A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_610.png</t>
-  </si>
-  <si>
-    <t>frameColour</t>
   </si>
   <si>
     <t>yellow</t>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_169.png</t>
+  </si>
+  <si>
+    <t>frameColor</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
     <tableColumn id="8" xr3:uid="{AAC2525B-EEB7-4C77-8144-789666C1EE77}" name="image" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{356E7C16-DC84-47BC-A838-692165270B9C}" name="correctAns" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{A33D72A7-AA2C-4569-9724-E34B7B5FE5BA}" name="respModal" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{82D5032D-52E2-4E9F-986B-C22E168EE5C7}" name="frameColour" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{82D5032D-52E2-4E9F-986B-C22E168EE5C7}" name="frameColor" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{138B71F2-3E5B-4D1D-8B8D-09A30A3CE74E}" name="repSwitch" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{2C5E9C98-DE10-480B-889B-32EF39402387}" name="sequence" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{8E03A433-5E08-4085-9622-CB3F0E9BABDF}" name="target" dataDxfId="2"/>
@@ -1000,13 +1000,14 @@
   <dimension ref="A1:I385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B390" sqref="B390"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1021,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -1033,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>15</v>
@@ -1041,16 +1042,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -1070,16 +1071,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1099,16 +1100,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1123,21 +1124,21 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -1157,16 +1158,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -1186,16 +1187,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -1210,21 +1211,21 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1244,16 +1245,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -1282,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1311,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
@@ -1331,16 +1332,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -1355,21 +1356,21 @@
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
@@ -1389,16 +1390,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
@@ -1418,16 +1419,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -1442,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1456,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1485,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -1505,16 +1506,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -1529,21 +1530,21 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -1563,16 +1564,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1592,16 +1593,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -1616,21 +1617,21 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
@@ -1650,16 +1651,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
@@ -1679,16 +1680,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -1703,21 +1704,21 @@
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
@@ -1732,21 +1733,21 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -1766,16 +1767,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -1790,21 +1791,21 @@
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -1819,21 +1820,21 @@
         <v>2</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>17</v>
@@ -1853,16 +1854,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -1877,21 +1878,21 @@
         <v>2</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -1906,21 +1907,21 @@
         <v>2</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
@@ -1935,21 +1936,21 @@
         <v>2</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>9</v>
@@ -1964,21 +1965,21 @@
         <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -1993,21 +1994,21 @@
         <v>2</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
@@ -2022,21 +2023,21 @@
         <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
@@ -2056,16 +2057,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
@@ -2080,21 +2081,21 @@
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
@@ -2109,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2123,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -2143,16 +2144,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -2172,16 +2173,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>16</v>
@@ -2196,21 +2197,21 @@
         <v>2</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
@@ -2225,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2239,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -2259,16 +2260,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>16</v>
@@ -2283,21 +2284,21 @@
         <v>2</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
@@ -2312,21 +2313,21 @@
         <v>2</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -2346,16 +2347,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -2384,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>16</v>
@@ -2399,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2413,7 +2414,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
@@ -2428,21 +2429,21 @@
         <v>2</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>16</v>
@@ -2462,16 +2463,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
@@ -2500,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>16</v>
@@ -2529,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>9</v>
@@ -2549,16 +2550,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -2573,21 +2574,21 @@
         <v>3</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
@@ -2607,16 +2608,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
@@ -2636,16 +2637,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -2660,21 +2661,21 @@
         <v>3</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>16</v>
@@ -2694,16 +2695,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>7</v>
@@ -2723,16 +2724,16 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>17</v>
@@ -2747,21 +2748,21 @@
         <v>3</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
@@ -2776,21 +2777,21 @@
         <v>3</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>17</v>
@@ -2805,21 +2806,21 @@
         <v>3</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
@@ -2839,16 +2840,16 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>7</v>
@@ -2868,16 +2869,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>16</v>
@@ -2897,16 +2898,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
@@ -2926,16 +2927,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>17</v>
@@ -2950,21 +2951,21 @@
         <v>3</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -2984,16 +2985,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>7</v>
@@ -3013,16 +3014,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>17</v>
@@ -3037,7 +3038,7 @@
         <v>3</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3051,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>17</v>
@@ -3066,21 +3067,21 @@
         <v>3</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>16</v>
@@ -3100,16 +3101,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>7</v>
@@ -3129,16 +3130,16 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>17</v>
@@ -3158,16 +3159,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>16</v>
@@ -3182,21 +3183,21 @@
         <v>4</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>7</v>
@@ -3211,21 +3212,21 @@
         <v>4</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -3240,21 +3241,21 @@
         <v>4</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
@@ -3269,7 +3270,7 @@
         <v>4</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -3283,7 +3284,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>17</v>
@@ -3303,16 +3304,16 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>17</v>
@@ -3332,16 +3333,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>16</v>
@@ -3356,21 +3357,21 @@
         <v>4</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>7</v>
@@ -3385,21 +3386,21 @@
         <v>4</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>16</v>
@@ -3414,21 +3415,21 @@
         <v>4</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -3443,21 +3444,21 @@
         <v>4</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>17</v>
@@ -3477,16 +3478,16 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -3501,21 +3502,21 @@
         <v>4</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>9</v>
@@ -3530,21 +3531,21 @@
         <v>4</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>16</v>
@@ -3559,21 +3560,21 @@
         <v>4</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>7</v>
@@ -3588,21 +3589,21 @@
         <v>4</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>17</v>
@@ -3622,16 +3623,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>17</v>
@@ -3651,16 +3652,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>17</v>
@@ -3680,16 +3681,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>16</v>
@@ -3704,21 +3705,21 @@
         <v>4</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>9</v>
@@ -3733,21 +3734,21 @@
         <v>4</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>17</v>
@@ -3767,16 +3768,16 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>16</v>
@@ -3791,21 +3792,21 @@
         <v>4</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>7</v>
@@ -3820,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -3834,7 +3835,7 @@
         <v>4</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>16</v>
@@ -3863,7 +3864,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>7</v>
@@ -3883,16 +3884,16 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>17</v>
@@ -3907,21 +3908,21 @@
         <v>1</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>17</v>
@@ -3936,21 +3937,21 @@
         <v>1</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>16</v>
@@ -3970,16 +3971,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>7</v>
@@ -4008,7 +4009,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>16</v>
@@ -4037,7 +4038,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>9</v>
@@ -4057,16 +4058,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>17</v>
@@ -4081,21 +4082,21 @@
         <v>1</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>16</v>
@@ -4115,16 +4116,16 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>9</v>
@@ -4144,16 +4145,16 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>16</v>
@@ -4173,16 +4174,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>9</v>
@@ -4202,16 +4203,16 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>17</v>
@@ -4226,21 +4227,21 @@
         <v>1</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>16</v>
@@ -4260,16 +4261,16 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>7</v>
@@ -4289,16 +4290,16 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>17</v>
@@ -4313,21 +4314,21 @@
         <v>1</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>16</v>
@@ -4347,16 +4348,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>7</v>
@@ -4376,16 +4377,16 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>17</v>
@@ -4400,21 +4401,21 @@
         <v>1</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>17</v>
@@ -4429,21 +4430,21 @@
         <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>16</v>
@@ -4463,16 +4464,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>9</v>
@@ -4492,16 +4493,16 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>17</v>
@@ -4516,21 +4517,21 @@
         <v>1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>16</v>
@@ -4545,21 +4546,21 @@
         <v>2</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>7</v>
@@ -4574,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -4588,7 +4589,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>17</v>
@@ -4608,16 +4609,16 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>16</v>
@@ -4632,21 +4633,21 @@
         <v>2</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>7</v>
@@ -4661,21 +4662,21 @@
         <v>2</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>16</v>
@@ -4690,21 +4691,21 @@
         <v>2</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>9</v>
@@ -4719,21 +4720,21 @@
         <v>2</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>17</v>
@@ -4753,16 +4754,16 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>16</v>
@@ -4777,21 +4778,21 @@
         <v>2</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>9</v>
@@ -4806,21 +4807,21 @@
         <v>2</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>16</v>
@@ -4835,21 +4836,21 @@
         <v>2</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>9</v>
@@ -4864,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -4878,7 +4879,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>17</v>
@@ -4898,16 +4899,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>17</v>
@@ -4927,16 +4928,16 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>16</v>
@@ -4951,21 +4952,21 @@
         <v>2</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>7</v>
@@ -4980,21 +4981,21 @@
         <v>2</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>17</v>
@@ -5023,7 +5024,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>16</v>
@@ -5038,7 +5039,7 @@
         <v>2</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -5052,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>7</v>
@@ -5067,21 +5068,21 @@
         <v>2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>17</v>
@@ -5101,16 +5102,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>17</v>
@@ -5130,16 +5131,16 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>17</v>
@@ -5159,16 +5160,16 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>16</v>
@@ -5183,21 +5184,21 @@
         <v>2</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>9</v>
@@ -5212,21 +5213,21 @@
         <v>2</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>17</v>
@@ -5241,21 +5242,21 @@
         <v>3</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>16</v>
@@ -5275,16 +5276,16 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>9</v>
@@ -5304,16 +5305,16 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>17</v>
@@ -5328,21 +5329,21 @@
         <v>3</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>16</v>
@@ -5362,16 +5363,16 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>9</v>
@@ -5391,16 +5392,16 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>16</v>
@@ -5420,16 +5421,16 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>9</v>
@@ -5449,16 +5450,16 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>17</v>
@@ -5473,21 +5474,21 @@
         <v>3</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>16</v>
@@ -5507,16 +5508,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>7</v>
@@ -5536,16 +5537,16 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>17</v>
@@ -5560,21 +5561,21 @@
         <v>3</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>17</v>
@@ -5589,21 +5590,21 @@
         <v>3</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>16</v>
@@ -5623,16 +5624,16 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>7</v>
@@ -5652,16 +5653,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>16</v>
@@ -5681,16 +5682,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>9</v>
@@ -5710,16 +5711,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>17</v>
@@ -5734,21 +5735,21 @@
         <v>3</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>16</v>
@@ -5768,16 +5769,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>7</v>
@@ -5806,7 +5807,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>17</v>
@@ -5821,7 +5822,7 @@
         <v>3</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -5835,7 +5836,7 @@
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>16</v>
@@ -5864,7 +5865,7 @@
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>7</v>
@@ -5884,16 +5885,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>17</v>
@@ -5908,21 +5909,21 @@
         <v>3</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>17</v>
@@ -5942,16 +5943,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>16</v>
@@ -5966,21 +5967,21 @@
         <v>4</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>7</v>
@@ -5995,21 +5996,21 @@
         <v>4</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>16</v>
@@ -6024,21 +6025,21 @@
         <v>4</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>9</v>
@@ -6053,21 +6054,21 @@
         <v>4</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>17</v>
@@ -6087,16 +6088,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>16</v>
@@ -6111,21 +6112,21 @@
         <v>4</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>7</v>
@@ -6140,21 +6141,21 @@
         <v>4</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>16</v>
@@ -6169,21 +6170,21 @@
         <v>4</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>9</v>
@@ -6198,21 +6199,21 @@
         <v>4</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>17</v>
@@ -6232,16 +6233,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>17</v>
@@ -6261,16 +6262,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>17</v>
@@ -6290,16 +6291,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>16</v>
@@ -6314,21 +6315,21 @@
         <v>4</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>9</v>
@@ -6343,21 +6344,21 @@
         <v>4</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>16</v>
@@ -6372,21 +6373,21 @@
         <v>4</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>7</v>
@@ -6401,21 +6402,21 @@
         <v>4</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>17</v>
@@ -6435,16 +6436,16 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>16</v>
@@ -6459,21 +6460,21 @@
         <v>4</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>9</v>
@@ -6488,21 +6489,21 @@
         <v>4</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>16</v>
@@ -6517,21 +6518,21 @@
         <v>4</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>7</v>
@@ -6546,21 +6547,21 @@
         <v>4</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>17</v>
@@ -6589,7 +6590,7 @@
         <v>5</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>17</v>
@@ -6609,16 +6610,16 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>17</v>
@@ -6633,21 +6634,21 @@
         <v>1</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>16</v>
@@ -6667,16 +6668,16 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>7</v>
@@ -6696,16 +6697,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>17</v>
@@ -6720,21 +6721,21 @@
         <v>1</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>17</v>
@@ -6749,7 +6750,7 @@
         <v>1</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -6763,7 +6764,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>16</v>
@@ -6792,7 +6793,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>7</v>
@@ -6812,16 +6813,16 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>16</v>
@@ -6841,16 +6842,16 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>9</v>
@@ -6870,16 +6871,16 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>17</v>
@@ -6894,21 +6895,21 @@
         <v>1</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>16</v>
@@ -6928,16 +6929,16 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>9</v>
@@ -6966,7 +6967,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>16</v>
@@ -6995,7 +6996,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>9</v>
@@ -7015,16 +7016,16 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>17</v>
@@ -7039,21 +7040,21 @@
         <v>1</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>17</v>
@@ -7068,21 +7069,21 @@
         <v>1</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>16</v>
@@ -7102,16 +7103,16 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>7</v>
@@ -7131,16 +7132,16 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>17</v>
@@ -7155,21 +7156,21 @@
         <v>1</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>17</v>
@@ -7184,21 +7185,21 @@
         <v>1</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>16</v>
@@ -7218,16 +7219,16 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>7</v>
@@ -7247,16 +7248,16 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>16</v>
@@ -7276,16 +7277,16 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>9</v>
@@ -7305,16 +7306,16 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>16</v>
@@ -7329,21 +7330,21 @@
         <v>2</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>7</v>
@@ -7358,21 +7359,21 @@
         <v>2</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>17</v>
@@ -7401,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>17</v>
@@ -7421,16 +7422,16 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>16</v>
@@ -7445,21 +7446,21 @@
         <v>2</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>7</v>
@@ -7474,21 +7475,21 @@
         <v>2</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>16</v>
@@ -7503,21 +7504,21 @@
         <v>2</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>9</v>
@@ -7532,21 +7533,21 @@
         <v>2</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>17</v>
@@ -7566,16 +7567,16 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>16</v>
@@ -7590,21 +7591,21 @@
         <v>2</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>9</v>
@@ -7619,7 +7620,7 @@
         <v>2</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -7633,7 +7634,7 @@
         <v>5</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>16</v>
@@ -7648,7 +7649,7 @@
         <v>2</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -7662,7 +7663,7 @@
         <v>4</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>9</v>
@@ -7677,21 +7678,21 @@
         <v>2</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>17</v>
@@ -7720,7 +7721,7 @@
         <v>5</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>17</v>
@@ -7740,16 +7741,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>16</v>
@@ -7764,21 +7765,21 @@
         <v>2</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>7</v>
@@ -7793,21 +7794,21 @@
         <v>2</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>17</v>
@@ -7827,16 +7828,16 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>16</v>
@@ -7851,21 +7852,21 @@
         <v>2</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>7</v>
@@ -7880,21 +7881,21 @@
         <v>2</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>16</v>
@@ -7909,21 +7910,21 @@
         <v>2</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>9</v>
@@ -7938,21 +7939,21 @@
         <v>2</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>17</v>
@@ -7972,16 +7973,16 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>17</v>
@@ -8001,16 +8002,16 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>16</v>
@@ -8030,16 +8031,16 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>9</v>
@@ -8059,16 +8060,16 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>17</v>
@@ -8083,21 +8084,21 @@
         <v>3</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>17</v>
@@ -8112,21 +8113,21 @@
         <v>3</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>16</v>
@@ -8146,16 +8147,16 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>9</v>
@@ -8184,7 +8185,7 @@
         <v>5</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>16</v>
@@ -8213,7 +8214,7 @@
         <v>4</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>9</v>
@@ -8233,16 +8234,16 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>17</v>
@@ -8257,21 +8258,21 @@
         <v>3</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>16</v>
@@ -8291,16 +8292,16 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>7</v>
@@ -8320,16 +8321,16 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>17</v>
@@ -8344,7 +8345,7 @@
         <v>3</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -8358,7 +8359,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>17</v>
@@ -8373,21 +8374,21 @@
         <v>3</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>17</v>
@@ -8402,21 +8403,21 @@
         <v>3</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>16</v>
@@ -8436,16 +8437,16 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>7</v>
@@ -8465,16 +8466,16 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>16</v>
@@ -8494,16 +8495,16 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>9</v>
@@ -8523,16 +8524,16 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>16</v>
@@ -8552,16 +8553,16 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>7</v>
@@ -8581,16 +8582,16 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>17</v>
@@ -8605,21 +8606,21 @@
         <v>3</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>16</v>
@@ -8639,16 +8640,16 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>7</v>
@@ -8668,16 +8669,16 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>17</v>
@@ -8692,21 +8693,21 @@
         <v>3</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>16</v>
@@ -8721,21 +8722,21 @@
         <v>4</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>7</v>
@@ -8750,21 +8751,21 @@
         <v>4</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>17</v>
@@ -8784,16 +8785,16 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>16</v>
@@ -8808,21 +8809,21 @@
         <v>4</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>9</v>
@@ -8837,21 +8838,21 @@
         <v>4</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>16</v>
@@ -8866,21 +8867,21 @@
         <v>4</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>7</v>
@@ -8895,21 +8896,21 @@
         <v>4</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>17</v>
@@ -8938,7 +8939,7 @@
         <v>4</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>17</v>
@@ -8958,16 +8959,16 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>16</v>
@@ -8982,21 +8983,21 @@
         <v>4</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>9</v>
@@ -9011,21 +9012,21 @@
         <v>4</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>16</v>
@@ -9040,21 +9041,21 @@
         <v>4</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>9</v>
@@ -9069,21 +9070,21 @@
         <v>4</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>17</v>
@@ -9103,16 +9104,16 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>16</v>
@@ -9127,21 +9128,21 @@
         <v>4</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>7</v>
@@ -9156,21 +9157,21 @@
         <v>4</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>17</v>
@@ -9190,16 +9191,16 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>16</v>
@@ -9214,21 +9215,21 @@
         <v>4</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>9</v>
@@ -9243,21 +9244,21 @@
         <v>4</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>16</v>
@@ -9272,21 +9273,21 @@
         <v>4</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>7</v>
@@ -9301,21 +9302,21 @@
         <v>4</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>17</v>
@@ -9335,16 +9336,16 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>17</v>
@@ -9364,16 +9365,16 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>17</v>
@@ -9393,16 +9394,16 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>17</v>
@@ -9417,21 +9418,21 @@
         <v>1</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>16</v>
@@ -9451,16 +9452,16 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>7</v>
@@ -9480,16 +9481,16 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>17</v>
@@ -9504,21 +9505,21 @@
         <v>1</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>17</v>
@@ -9533,21 +9534,21 @@
         <v>1</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>17</v>
@@ -9562,21 +9563,21 @@
         <v>1</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>16</v>
@@ -9596,16 +9597,16 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>7</v>
@@ -9625,16 +9626,16 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>16</v>
@@ -9654,16 +9655,16 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>9</v>
@@ -9683,16 +9684,16 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>17</v>
@@ -9707,21 +9708,21 @@
         <v>1</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>16</v>
@@ -9741,16 +9742,16 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>9</v>
@@ -9770,16 +9771,16 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>16</v>
@@ -9799,16 +9800,16 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>9</v>
@@ -9828,16 +9829,16 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>17</v>
@@ -9852,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -9866,7 +9867,7 @@
         <v>5</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>16</v>
@@ -9895,7 +9896,7 @@
         <v>5</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>7</v>
@@ -9915,16 +9916,16 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>17</v>
@@ -9939,21 +9940,21 @@
         <v>1</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>17</v>
@@ -9968,21 +9969,21 @@
         <v>1</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>16</v>
@@ -10002,16 +10003,16 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>7</v>
@@ -10040,7 +10041,7 @@
         <v>5</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>16</v>
@@ -10069,7 +10070,7 @@
         <v>4</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>9</v>
@@ -10098,7 +10099,7 @@
         <v>5</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>16</v>
@@ -10113,7 +10114,7 @@
         <v>2</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -10127,7 +10128,7 @@
         <v>5</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>7</v>
@@ -10142,21 +10143,21 @@
         <v>2</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>17</v>
@@ -10176,16 +10177,16 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>16</v>
@@ -10200,21 +10201,21 @@
         <v>2</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>7</v>
@@ -10229,21 +10230,21 @@
         <v>2</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>17</v>
@@ -10263,16 +10264,16 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>16</v>
@@ -10287,21 +10288,21 @@
         <v>2</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>9</v>
@@ -10316,21 +10317,21 @@
         <v>2</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>16</v>
@@ -10345,21 +10346,21 @@
         <v>2</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>9</v>
@@ -10374,21 +10375,21 @@
         <v>2</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>17</v>
@@ -10408,16 +10409,16 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>17</v>
@@ -10437,16 +10438,16 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>17</v>
@@ -10466,16 +10467,16 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>16</v>
@@ -10490,21 +10491,21 @@
         <v>2</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>9</v>
@@ -10519,21 +10520,21 @@
         <v>2</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>16</v>
@@ -10548,21 +10549,21 @@
         <v>2</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>7</v>
@@ -10577,7 +10578,7 @@
         <v>2</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -10591,7 +10592,7 @@
         <v>5</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>17</v>
@@ -10611,16 +10612,16 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>16</v>
@@ -10635,21 +10636,21 @@
         <v>2</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>7</v>
@@ -10664,21 +10665,21 @@
         <v>2</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>17</v>
@@ -10707,7 +10708,7 @@
         <v>4</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>17</v>
@@ -10727,16 +10728,16 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>16</v>
@@ -10751,21 +10752,21 @@
         <v>2</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>9</v>
@@ -10780,21 +10781,21 @@
         <v>2</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>16</v>
@@ -10814,16 +10815,16 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>9</v>
@@ -10843,16 +10844,16 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>16</v>
@@ -10872,16 +10873,16 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>9</v>
@@ -10910,7 +10911,7 @@
         <v>4</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>17</v>
@@ -10925,21 +10926,21 @@
         <v>3</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>17</v>
@@ -10954,21 +10955,21 @@
         <v>3</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>16</v>
@@ -10988,16 +10989,16 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>9</v>
@@ -11017,16 +11018,16 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>17</v>
@@ -11041,21 +11042,21 @@
         <v>3</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>16</v>
@@ -11075,16 +11076,16 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>7</v>
@@ -11104,16 +11105,16 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>17</v>
@@ -11128,21 +11129,21 @@
         <v>3</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>17</v>
@@ -11157,7 +11158,7 @@
         <v>3</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -11171,7 +11172,7 @@
         <v>4</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>16</v>
@@ -11200,7 +11201,7 @@
         <v>4</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>7</v>
@@ -11220,16 +11221,16 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>16</v>
@@ -11249,16 +11250,16 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>9</v>
@@ -11278,16 +11279,16 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>17</v>
@@ -11302,21 +11303,21 @@
         <v>3</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>17</v>
@@ -11331,21 +11332,21 @@
         <v>3</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>16</v>
@@ -11365,16 +11366,16 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>7</v>
@@ -11394,16 +11395,16 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>17</v>
@@ -11418,21 +11419,21 @@
         <v>3</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>16</v>
@@ -11452,16 +11453,16 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>7</v>
@@ -11481,16 +11482,16 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>17</v>
@@ -11510,16 +11511,16 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>17</v>
@@ -11539,16 +11540,16 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>16</v>
@@ -11563,21 +11564,21 @@
         <v>4</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>7</v>
@@ -11592,21 +11593,21 @@
         <v>4</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>16</v>
@@ -11621,21 +11622,21 @@
         <v>4</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>9</v>
@@ -11650,21 +11651,21 @@
         <v>4</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>17</v>
@@ -11684,16 +11685,16 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>16</v>
@@ -11708,21 +11709,21 @@
         <v>4</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>7</v>
@@ -11737,21 +11738,21 @@
         <v>4</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>16</v>
@@ -11766,21 +11767,21 @@
         <v>4</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>9</v>
@@ -11795,21 +11796,21 @@
         <v>4</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>17</v>
@@ -11829,16 +11830,16 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>16</v>
@@ -11853,21 +11854,21 @@
         <v>4</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>9</v>
@@ -11882,21 +11883,21 @@
         <v>4</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>16</v>
@@ -11911,21 +11912,21 @@
         <v>4</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>7</v>
@@ -11940,7 +11941,7 @@
         <v>4</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -11954,7 +11955,7 @@
         <v>5</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>17</v>
@@ -11974,16 +11975,16 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>17</v>
@@ -12003,16 +12004,16 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>16</v>
@@ -12027,21 +12028,21 @@
         <v>4</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>9</v>
@@ -12056,21 +12057,21 @@
         <v>4</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>16</v>
@@ -12085,21 +12086,21 @@
         <v>4</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>7</v>
@@ -12114,21 +12115,21 @@
         <v>4</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>17</v>
@@ -12148,16 +12149,16 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>17</v>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B845BD8-62BF-44A4-B60B-12250F981A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E689915-7A72-49A8-B2DD-7E973B3F7444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="600" windowWidth="6960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="116">
   <si>
     <t>image</t>
   </si>
@@ -376,12 +376,18 @@
   <si>
     <t>frameColor</t>
   </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>psychopy_order</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,13 +408,29 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -432,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,11 +462,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -693,18 +777,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8936D077-876B-4C64-99BE-AC6B099BF6AE}" name="Table332" displayName="Table332" ref="A1:I385" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="A1:I385" xr:uid="{8936D077-876B-4C64-99BE-AC6B099BF6AE}"/>
-  <tableColumns count="9">
-    <tableColumn id="8" xr3:uid="{AAC2525B-EEB7-4C77-8144-789666C1EE77}" name="image" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{356E7C16-DC84-47BC-A838-692165270B9C}" name="correctAns" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{A33D72A7-AA2C-4569-9724-E34B7B5FE5BA}" name="respModal" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{82D5032D-52E2-4E9F-986B-C22E168EE5C7}" name="frameColor" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{138B71F2-3E5B-4D1D-8B8D-09A30A3CE74E}" name="repSwitch" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2C5E9C98-DE10-480B-889B-32EF39402387}" name="sequence" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8E03A433-5E08-4085-9622-CB3F0E9BABDF}" name="target" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{A503346D-610A-4844-989F-3C4B1C16C654}" name="set" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{791CFDCE-A233-47FE-907A-8F7FAD0227F9}" name="stimulus" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8936D077-876B-4C64-99BE-AC6B099BF6AE}" name="Table332" displayName="Table332" ref="A1:K385" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:K385" xr:uid="{8936D077-876B-4C64-99BE-AC6B099BF6AE}"/>
+  <tableColumns count="11">
+    <tableColumn id="8" xr3:uid="{AAC2525B-EEB7-4C77-8144-789666C1EE77}" name="image" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{356E7C16-DC84-47BC-A838-692165270B9C}" name="correctAns" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A33D72A7-AA2C-4569-9724-E34B7B5FE5BA}" name="respModal" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{82D5032D-52E2-4E9F-986B-C22E168EE5C7}" name="frameColor" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{138B71F2-3E5B-4D1D-8B8D-09A30A3CE74E}" name="repSwitch" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2C5E9C98-DE10-480B-889B-32EF39402387}" name="sequence" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8E03A433-5E08-4085-9622-CB3F0E9BABDF}" name="target" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{A503346D-610A-4844-989F-3C4B1C16C654}" name="set" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{791CFDCE-A233-47FE-907A-8F7FAD0227F9}" name="stimulus" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{9AB3A6BA-1C1C-4DAB-87D2-11EEE74901CD}" name="order" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{5C85C16F-9BD0-440E-BF54-99083BE7A4AF}" name="psychopy_order" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,13 +1083,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5FFB8-ADEE-4233-9EF1-4711A9BB639D}">
-  <dimension ref="A1:I385"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
@@ -1011,7 +1097,7 @@
     <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,8 +1125,14 @@
       <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1068,8 +1160,14 @@
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1097,8 +1195,14 @@
       <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
@@ -1126,8 +1230,14 @@
       <c r="I4" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -1155,8 +1265,14 @@
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -1184,8 +1300,14 @@
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
@@ -1213,8 +1335,14 @@
       <c r="I7" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
@@ -1242,8 +1370,14 @@
       <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="4">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>99</v>
       </c>
@@ -1271,8 +1405,14 @@
       <c r="I9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="4">
+        <v>8</v>
+      </c>
+      <c r="K9" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1440,14 @@
       <c r="I10" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="4">
+        <v>9</v>
+      </c>
+      <c r="K10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1329,8 +1475,14 @@
       <c r="I11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="4">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -1358,8 +1510,14 @@
       <c r="I12" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="4">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>101</v>
       </c>
@@ -1387,8 +1545,14 @@
       <c r="I13" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="4">
+        <v>12</v>
+      </c>
+      <c r="K13" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>101</v>
       </c>
@@ -1416,8 +1580,14 @@
       <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="4">
+        <v>13</v>
+      </c>
+      <c r="K14" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>106</v>
       </c>
@@ -1445,8 +1615,14 @@
       <c r="I15" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="4">
+        <v>14</v>
+      </c>
+      <c r="K15" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1474,8 +1650,14 @@
       <c r="I16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="4">
+        <v>15</v>
+      </c>
+      <c r="K16" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1503,8 +1685,14 @@
       <c r="I17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="4">
+        <v>16</v>
+      </c>
+      <c r="K17" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
         <v>91</v>
       </c>
@@ -1532,8 +1720,14 @@
       <c r="I18" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="4">
+        <v>17</v>
+      </c>
+      <c r="K18" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -1561,8 +1755,14 @@
       <c r="I19" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="4">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -1590,8 +1790,14 @@
       <c r="I20" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="4">
+        <v>19</v>
+      </c>
+      <c r="K20" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
@@ -1619,8 +1825,14 @@
       <c r="I21" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="4">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
         <v>112</v>
       </c>
@@ -1648,8 +1860,14 @@
       <c r="I22" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="4">
+        <v>21</v>
+      </c>
+      <c r="K22" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
         <v>112</v>
       </c>
@@ -1677,8 +1895,14 @@
       <c r="I23" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="4">
+        <v>22</v>
+      </c>
+      <c r="K23" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
@@ -1706,8 +1930,14 @@
       <c r="I24" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="4">
+        <v>23</v>
+      </c>
+      <c r="K24" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
         <v>103</v>
       </c>
@@ -1735,8 +1965,14 @@
       <c r="I25" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="4">
+        <v>24</v>
+      </c>
+      <c r="K25" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -1764,8 +2000,14 @@
       <c r="I26" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="4">
+        <v>25</v>
+      </c>
+      <c r="K26" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -1793,8 +2035,14 @@
       <c r="I27" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="4">
+        <v>26</v>
+      </c>
+      <c r="K27" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -1822,8 +2070,14 @@
       <c r="I28" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="4">
+        <v>27</v>
+      </c>
+      <c r="K28" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
@@ -1851,8 +2105,14 @@
       <c r="I29" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="4">
+        <v>28</v>
+      </c>
+      <c r="K29" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
@@ -1880,8 +2140,14 @@
       <c r="I30" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="4">
+        <v>29</v>
+      </c>
+      <c r="K30" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -1909,8 +2175,14 @@
       <c r="I31" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="4">
+        <v>30</v>
+      </c>
+      <c r="K31" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
@@ -1938,8 +2210,14 @@
       <c r="I32" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="4">
+        <v>31</v>
+      </c>
+      <c r="K32" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
@@ -1967,8 +2245,14 @@
       <c r="I33" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="4">
+        <v>32</v>
+      </c>
+      <c r="K33" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
@@ -1996,8 +2280,14 @@
       <c r="I34" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="4">
+        <v>33</v>
+      </c>
+      <c r="K34" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2" t="s">
         <v>88</v>
       </c>
@@ -2025,8 +2315,14 @@
       <c r="I35" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="4">
+        <v>34</v>
+      </c>
+      <c r="K35" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -2054,8 +2350,14 @@
       <c r="I36" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="4">
+        <v>35</v>
+      </c>
+      <c r="K36" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
@@ -2083,8 +2385,14 @@
       <c r="I37" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="4">
+        <v>36</v>
+      </c>
+      <c r="K37" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -2112,8 +2420,14 @@
       <c r="I38" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="4">
+        <v>37</v>
+      </c>
+      <c r="K38" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -2141,8 +2455,14 @@
       <c r="I39" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="4">
+        <v>38</v>
+      </c>
+      <c r="K39" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
         <v>101</v>
       </c>
@@ -2170,8 +2490,14 @@
       <c r="I40" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="4">
+        <v>39</v>
+      </c>
+      <c r="K40" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
@@ -2199,8 +2525,14 @@
       <c r="I41" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="4">
+        <v>40</v>
+      </c>
+      <c r="K41" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2" t="s">
         <v>86</v>
       </c>
@@ -2228,8 +2560,14 @@
       <c r="I42" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="4">
+        <v>41</v>
+      </c>
+      <c r="K42" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
@@ -2257,8 +2595,14 @@
       <c r="I43" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="4">
+        <v>42</v>
+      </c>
+      <c r="K43" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
         <v>110</v>
       </c>
@@ -2286,8 +2630,14 @@
       <c r="I44" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="4">
+        <v>43</v>
+      </c>
+      <c r="K44" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2" t="s">
         <v>110</v>
       </c>
@@ -2315,8 +2665,14 @@
       <c r="I45" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="4">
+        <v>44</v>
+      </c>
+      <c r="K45" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
         <v>78</v>
       </c>
@@ -2344,8 +2700,14 @@
       <c r="I46" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="4">
+        <v>45</v>
+      </c>
+      <c r="K46" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2" t="s">
         <v>112</v>
       </c>
@@ -2373,8 +2735,14 @@
       <c r="I47" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="4">
+        <v>46</v>
+      </c>
+      <c r="K47" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -2402,8 +2770,14 @@
       <c r="I48" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="4">
+        <v>47</v>
+      </c>
+      <c r="K48" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2" t="s">
         <v>21</v>
       </c>
@@ -2431,8 +2805,14 @@
       <c r="I49" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="4">
+        <v>48</v>
+      </c>
+      <c r="K49" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2" t="s">
         <v>89</v>
       </c>
@@ -2460,8 +2840,14 @@
       <c r="I50" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="4">
+        <v>49</v>
+      </c>
+      <c r="K50" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2" t="s">
         <v>89</v>
       </c>
@@ -2489,8 +2875,14 @@
       <c r="I51" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="4">
+        <v>50</v>
+      </c>
+      <c r="K51" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2" t="s">
         <v>39</v>
       </c>
@@ -2518,8 +2910,14 @@
       <c r="I52" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="4">
+        <v>51</v>
+      </c>
+      <c r="K52" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2" t="s">
         <v>39</v>
       </c>
@@ -2547,8 +2945,14 @@
       <c r="I53" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="4">
+        <v>52</v>
+      </c>
+      <c r="K53" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
@@ -2576,8 +2980,14 @@
       <c r="I54" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="4">
+        <v>53</v>
+      </c>
+      <c r="K54" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2" t="s">
         <v>80</v>
       </c>
@@ -2605,8 +3015,14 @@
       <c r="I55" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="4">
+        <v>54</v>
+      </c>
+      <c r="K55" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
         <v>80</v>
       </c>
@@ -2634,8 +3050,14 @@
       <c r="I56" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="4">
+        <v>55</v>
+      </c>
+      <c r="K56" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
         <v>81</v>
       </c>
@@ -2663,8 +3085,14 @@
       <c r="I57" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="4">
+        <v>56</v>
+      </c>
+      <c r="K57" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2" t="s">
         <v>87</v>
       </c>
@@ -2692,8 +3120,14 @@
       <c r="I58" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="4">
+        <v>57</v>
+      </c>
+      <c r="K58" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2" t="s">
         <v>87</v>
       </c>
@@ -2721,8 +3155,14 @@
       <c r="I59" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="4">
+        <v>58</v>
+      </c>
+      <c r="K59" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2" t="s">
         <v>90</v>
       </c>
@@ -2750,8 +3190,14 @@
       <c r="I60" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="4">
+        <v>59</v>
+      </c>
+      <c r="K60" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -2779,8 +3225,14 @@
       <c r="I61" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="4">
+        <v>60</v>
+      </c>
+      <c r="K61" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2" t="s">
         <v>82</v>
       </c>
@@ -2808,8 +3260,14 @@
       <c r="I62" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="4">
+        <v>61</v>
+      </c>
+      <c r="K62" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2" t="s">
         <v>102</v>
       </c>
@@ -2837,8 +3295,14 @@
       <c r="I63" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="4">
+        <v>62</v>
+      </c>
+      <c r="K63" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2" t="s">
         <v>102</v>
       </c>
@@ -2866,8 +3330,14 @@
       <c r="I64" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="4">
+        <v>63</v>
+      </c>
+      <c r="K64" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2" t="s">
         <v>100</v>
       </c>
@@ -2895,8 +3365,14 @@
       <c r="I65" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="4">
+        <v>64</v>
+      </c>
+      <c r="K65" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
         <v>100</v>
       </c>
@@ -2924,8 +3400,14 @@
       <c r="I66" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="4">
+        <v>65</v>
+      </c>
+      <c r="K66" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2" t="s">
         <v>86</v>
       </c>
@@ -2953,8 +3435,14 @@
       <c r="I67" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="4">
+        <v>66</v>
+      </c>
+      <c r="K67" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2" t="s">
         <v>93</v>
       </c>
@@ -2982,8 +3470,14 @@
       <c r="I68" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="4">
+        <v>67</v>
+      </c>
+      <c r="K68" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -3011,8 +3505,14 @@
       <c r="I69" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="4">
+        <v>68</v>
+      </c>
+      <c r="K69" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
@@ -3040,8 +3540,14 @@
       <c r="I70" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="4">
+        <v>69</v>
+      </c>
+      <c r="K70" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2" t="s">
         <v>21</v>
       </c>
@@ -3069,8 +3575,14 @@
       <c r="I71" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="4">
+        <v>70</v>
+      </c>
+      <c r="K71" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2" t="s">
         <v>85</v>
       </c>
@@ -3098,8 +3610,14 @@
       <c r="I72" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="4">
+        <v>71</v>
+      </c>
+      <c r="K72" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2" t="s">
         <v>85</v>
       </c>
@@ -3127,8 +3645,14 @@
       <c r="I73" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="4">
+        <v>72</v>
+      </c>
+      <c r="K73" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2" t="s">
         <v>89</v>
       </c>
@@ -3156,8 +3680,14 @@
       <c r="I74" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="4">
+        <v>73</v>
+      </c>
+      <c r="K74" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
@@ -3185,8 +3715,14 @@
       <c r="I75" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="4">
+        <v>74</v>
+      </c>
+      <c r="K75" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3750,14 @@
       <c r="I76" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="4">
+        <v>75</v>
+      </c>
+      <c r="K76" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -3243,8 +3785,14 @@
       <c r="I77" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="4">
+        <v>76</v>
+      </c>
+      <c r="K77" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -3272,8 +3820,14 @@
       <c r="I78" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="4">
+        <v>77</v>
+      </c>
+      <c r="K78" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2" t="s">
         <v>39</v>
       </c>
@@ -3301,8 +3855,14 @@
       <c r="I79" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="4">
+        <v>78</v>
+      </c>
+      <c r="K79" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -3330,8 +3890,14 @@
       <c r="I80" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="4">
+        <v>79</v>
+      </c>
+      <c r="K80" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -3359,8 +3925,14 @@
       <c r="I81" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="4">
+        <v>80</v>
+      </c>
+      <c r="K81" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -3388,8 +3960,14 @@
       <c r="I82" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="4">
+        <v>81</v>
+      </c>
+      <c r="K82" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2" t="s">
         <v>106</v>
       </c>
@@ -3417,8 +3995,14 @@
       <c r="I83" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="4">
+        <v>82</v>
+      </c>
+      <c r="K83" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2" t="s">
         <v>106</v>
       </c>
@@ -3446,8 +4030,14 @@
       <c r="I84" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="4">
+        <v>83</v>
+      </c>
+      <c r="K84" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -3475,8 +4065,14 @@
       <c r="I85" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="4">
+        <v>84</v>
+      </c>
+      <c r="K85" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
@@ -3504,8 +4100,14 @@
       <c r="I86" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="4">
+        <v>85</v>
+      </c>
+      <c r="K86" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2" t="s">
         <v>91</v>
       </c>
@@ -3533,8 +4135,14 @@
       <c r="I87" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="4">
+        <v>86</v>
+      </c>
+      <c r="K87" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2" t="s">
         <v>108</v>
       </c>
@@ -3562,8 +4170,14 @@
       <c r="I88" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="4">
+        <v>87</v>
+      </c>
+      <c r="K88" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2" t="s">
         <v>108</v>
       </c>
@@ -3591,8 +4205,14 @@
       <c r="I89" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="4">
+        <v>88</v>
+      </c>
+      <c r="K89" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2" t="s">
         <v>102</v>
       </c>
@@ -3620,8 +4240,14 @@
       <c r="I90" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="4">
+        <v>89</v>
+      </c>
+      <c r="K90" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2" t="s">
         <v>100</v>
       </c>
@@ -3649,8 +4275,14 @@
       <c r="I91" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="4">
+        <v>90</v>
+      </c>
+      <c r="K91" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
@@ -3678,8 +4310,14 @@
       <c r="I92" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="4">
+        <v>91</v>
+      </c>
+      <c r="K92" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2" t="s">
         <v>83</v>
       </c>
@@ -3707,8 +4345,14 @@
       <c r="I93" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="4">
+        <v>92</v>
+      </c>
+      <c r="K93" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2" t="s">
         <v>83</v>
       </c>
@@ -3736,8 +4380,14 @@
       <c r="I94" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="4">
+        <v>93</v>
+      </c>
+      <c r="K94" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2" t="s">
         <v>85</v>
       </c>
@@ -3765,8 +4415,14 @@
       <c r="I95" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="4">
+        <v>94</v>
+      </c>
+      <c r="K95" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2" t="s">
         <v>103</v>
       </c>
@@ -3794,37 +4450,49 @@
       <c r="I96" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+      <c r="J96" s="4">
+        <v>95</v>
+      </c>
+      <c r="K96" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="C97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="2">
-        <v>1</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H97" s="2">
-        <v>4</v>
-      </c>
-      <c r="I97" s="2" t="s">
+      <c r="H97" s="3">
+        <v>4</v>
+      </c>
+      <c r="I97" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6">
+        <v>96</v>
+      </c>
+      <c r="K97" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2" t="s">
         <v>19</v>
       </c>
@@ -3852,8 +4520,14 @@
       <c r="I98" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="4">
+        <v>97</v>
+      </c>
+      <c r="K98" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2" t="s">
         <v>19</v>
       </c>
@@ -3881,8 +4555,14 @@
       <c r="I99" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="4">
+        <v>98</v>
+      </c>
+      <c r="K99" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2" t="s">
         <v>92</v>
       </c>
@@ -3910,8 +4590,14 @@
       <c r="I100" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="4">
+        <v>99</v>
+      </c>
+      <c r="K100" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
@@ -3939,8 +4625,14 @@
       <c r="I101" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="4">
+        <v>100</v>
+      </c>
+      <c r="K101" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2" t="s">
         <v>99</v>
       </c>
@@ -3968,8 +4660,14 @@
       <c r="I102" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="4">
+        <v>101</v>
+      </c>
+      <c r="K102" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2" t="s">
         <v>99</v>
       </c>
@@ -3997,8 +4695,14 @@
       <c r="I103" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="4">
+        <v>102</v>
+      </c>
+      <c r="K103" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2" t="s">
         <v>20</v>
       </c>
@@ -4026,8 +4730,14 @@
       <c r="I104" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="4">
+        <v>103</v>
+      </c>
+      <c r="K104" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4765,14 @@
       <c r="I105" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="4">
+        <v>104</v>
+      </c>
+      <c r="K105" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
@@ -4084,8 +4800,14 @@
       <c r="I106" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="4">
+        <v>105</v>
+      </c>
+      <c r="K106" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2" t="s">
         <v>78</v>
       </c>
@@ -4113,8 +4835,14 @@
       <c r="I107" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="4">
+        <v>106</v>
+      </c>
+      <c r="K107" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2" t="s">
         <v>78</v>
       </c>
@@ -4142,8 +4870,14 @@
       <c r="I108" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="4">
+        <v>107</v>
+      </c>
+      <c r="K108" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2" t="s">
         <v>77</v>
       </c>
@@ -4171,8 +4905,14 @@
       <c r="I109" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="4">
+        <v>108</v>
+      </c>
+      <c r="K109" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2" t="s">
         <v>77</v>
       </c>
@@ -4200,8 +4940,14 @@
       <c r="I110" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="4">
+        <v>109</v>
+      </c>
+      <c r="K110" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2" t="s">
         <v>94</v>
       </c>
@@ -4229,8 +4975,14 @@
       <c r="I111" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="4">
+        <v>110</v>
+      </c>
+      <c r="K111" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
@@ -4258,8 +5010,14 @@
       <c r="I112" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="4">
+        <v>111</v>
+      </c>
+      <c r="K112" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -4287,8 +5045,14 @@
       <c r="I113" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="4">
+        <v>112</v>
+      </c>
+      <c r="K113" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2" t="s">
         <v>83</v>
       </c>
@@ -4316,8 +5080,14 @@
       <c r="I114" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="4">
+        <v>113</v>
+      </c>
+      <c r="K114" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2" t="s">
         <v>101</v>
       </c>
@@ -4345,8 +5115,14 @@
       <c r="I115" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="4">
+        <v>114</v>
+      </c>
+      <c r="K115" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2" t="s">
         <v>101</v>
       </c>
@@ -4374,8 +5150,14 @@
       <c r="I116" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="4">
+        <v>115</v>
+      </c>
+      <c r="K116" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2" t="s">
         <v>84</v>
       </c>
@@ -4403,8 +5185,14 @@
       <c r="I117" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="4">
+        <v>116</v>
+      </c>
+      <c r="K117" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2" t="s">
         <v>108</v>
       </c>
@@ -4432,8 +5220,14 @@
       <c r="I118" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="4">
+        <v>117</v>
+      </c>
+      <c r="K118" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2" t="s">
         <v>78</v>
       </c>
@@ -4461,8 +5255,14 @@
       <c r="I119" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="4">
+        <v>118</v>
+      </c>
+      <c r="K119" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2" t="s">
         <v>78</v>
       </c>
@@ -4490,8 +5290,14 @@
       <c r="I120" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="4">
+        <v>119</v>
+      </c>
+      <c r="K120" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2" t="s">
         <v>91</v>
       </c>
@@ -4519,8 +5325,14 @@
       <c r="I121" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="4">
+        <v>120</v>
+      </c>
+      <c r="K121" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2" t="s">
         <v>82</v>
       </c>
@@ -4548,8 +5360,14 @@
       <c r="I122" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="4">
+        <v>121</v>
+      </c>
+      <c r="K122" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2" t="s">
         <v>82</v>
       </c>
@@ -4577,8 +5395,14 @@
       <c r="I123" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="4">
+        <v>122</v>
+      </c>
+      <c r="K123" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2" t="s">
         <v>19</v>
       </c>
@@ -4606,8 +5430,14 @@
       <c r="I124" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="4">
+        <v>123</v>
+      </c>
+      <c r="K124" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2" t="s">
         <v>90</v>
       </c>
@@ -4635,8 +5465,14 @@
       <c r="I125" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="4">
+        <v>124</v>
+      </c>
+      <c r="K125" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5500,14 @@
       <c r="I126" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="4">
+        <v>125</v>
+      </c>
+      <c r="K126" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2" t="s">
         <v>79</v>
       </c>
@@ -4693,8 +5535,14 @@
       <c r="I127" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="4">
+        <v>126</v>
+      </c>
+      <c r="K127" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2" t="s">
         <v>79</v>
       </c>
@@ -4722,8 +5570,14 @@
       <c r="I128" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="4">
+        <v>127</v>
+      </c>
+      <c r="K128" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2" t="s">
         <v>99</v>
       </c>
@@ -4751,8 +5605,14 @@
       <c r="I129" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="4">
+        <v>128</v>
+      </c>
+      <c r="K129" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2" t="s">
         <v>110</v>
       </c>
@@ -4780,8 +5640,14 @@
       <c r="I130" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="4">
+        <v>129</v>
+      </c>
+      <c r="K130" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2" t="s">
         <v>110</v>
       </c>
@@ -4809,8 +5675,14 @@
       <c r="I131" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="4">
+        <v>130</v>
+      </c>
+      <c r="K131" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2" t="s">
         <v>81</v>
       </c>
@@ -4838,8 +5710,14 @@
       <c r="I132" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="4">
+        <v>131</v>
+      </c>
+      <c r="K132" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2" t="s">
         <v>81</v>
       </c>
@@ -4867,8 +5745,14 @@
       <c r="I133" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="4">
+        <v>132</v>
+      </c>
+      <c r="K133" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2" t="s">
         <v>20</v>
       </c>
@@ -4896,8 +5780,14 @@
       <c r="I134" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="4">
+        <v>133</v>
+      </c>
+      <c r="K134" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2" t="s">
         <v>78</v>
       </c>
@@ -4925,8 +5815,14 @@
       <c r="I135" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="4">
+        <v>134</v>
+      </c>
+      <c r="K135" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2" t="s">
         <v>88</v>
       </c>
@@ -4954,8 +5850,14 @@
       <c r="I136" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="4">
+        <v>135</v>
+      </c>
+      <c r="K136" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2" t="s">
         <v>88</v>
       </c>
@@ -4983,8 +5885,14 @@
       <c r="I137" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="4">
+        <v>136</v>
+      </c>
+      <c r="K137" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2" t="s">
         <v>77</v>
       </c>
@@ -5012,8 +5920,14 @@
       <c r="I138" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="4">
+        <v>137</v>
+      </c>
+      <c r="K138" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2" t="s">
         <v>21</v>
       </c>
@@ -5041,8 +5955,14 @@
       <c r="I139" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="4">
+        <v>138</v>
+      </c>
+      <c r="K139" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2" t="s">
         <v>21</v>
       </c>
@@ -5070,8 +5990,14 @@
       <c r="I140" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="4">
+        <v>139</v>
+      </c>
+      <c r="K140" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2" t="s">
         <v>112</v>
       </c>
@@ -5099,8 +6025,14 @@
       <c r="I141" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="4">
+        <v>140</v>
+      </c>
+      <c r="K141" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2" t="s">
         <v>101</v>
       </c>
@@ -5128,8 +6060,14 @@
       <c r="I142" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="4">
+        <v>141</v>
+      </c>
+      <c r="K142" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2" t="s">
         <v>78</v>
       </c>
@@ -5157,8 +6095,14 @@
       <c r="I143" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="4">
+        <v>142</v>
+      </c>
+      <c r="K143" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2" t="s">
         <v>86</v>
       </c>
@@ -5186,8 +6130,14 @@
       <c r="I144" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="4">
+        <v>143</v>
+      </c>
+      <c r="K144" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2" t="s">
         <v>86</v>
       </c>
@@ -5215,8 +6165,14 @@
       <c r="I145" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="4">
+        <v>144</v>
+      </c>
+      <c r="K145" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2" t="s">
         <v>82</v>
       </c>
@@ -5244,8 +6200,14 @@
       <c r="I146" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="4">
+        <v>145</v>
+      </c>
+      <c r="K146" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2" t="s">
         <v>100</v>
       </c>
@@ -5273,8 +6235,14 @@
       <c r="I147" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="4">
+        <v>146</v>
+      </c>
+      <c r="K147" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2" t="s">
         <v>100</v>
       </c>
@@ -5302,8 +6270,14 @@
       <c r="I148" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="4">
+        <v>147</v>
+      </c>
+      <c r="K148" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2" t="s">
         <v>90</v>
       </c>
@@ -5331,8 +6305,14 @@
       <c r="I149" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="4">
+        <v>148</v>
+      </c>
+      <c r="K149" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2" t="s">
         <v>87</v>
       </c>
@@ -5360,8 +6340,14 @@
       <c r="I150" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="4">
+        <v>149</v>
+      </c>
+      <c r="K150" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2" t="s">
         <v>87</v>
       </c>
@@ -5389,8 +6375,14 @@
       <c r="I151" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="4">
+        <v>150</v>
+      </c>
+      <c r="K151" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2" t="s">
         <v>85</v>
       </c>
@@ -5418,8 +6410,14 @@
       <c r="I152" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="4">
+        <v>151</v>
+      </c>
+      <c r="K152" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2" t="s">
         <v>85</v>
       </c>
@@ -5447,8 +6445,14 @@
       <c r="I153" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="4">
+        <v>152</v>
+      </c>
+      <c r="K153" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2" t="s">
         <v>79</v>
       </c>
@@ -5476,8 +6480,14 @@
       <c r="I154" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="4">
+        <v>153</v>
+      </c>
+      <c r="K154" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -5505,8 +6515,14 @@
       <c r="I155" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="4">
+        <v>154</v>
+      </c>
+      <c r="K155" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -5534,8 +6550,14 @@
       <c r="I156" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="4">
+        <v>155</v>
+      </c>
+      <c r="K156" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2" t="s">
         <v>110</v>
       </c>
@@ -5563,8 +6585,14 @@
       <c r="I157" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="4">
+        <v>156</v>
+      </c>
+      <c r="K157" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2" t="s">
         <v>81</v>
       </c>
@@ -5592,8 +6620,14 @@
       <c r="I158" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="4">
+        <v>157</v>
+      </c>
+      <c r="K158" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2" t="s">
         <v>89</v>
       </c>
@@ -5621,8 +6655,14 @@
       <c r="I159" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="4">
+        <v>158</v>
+      </c>
+      <c r="K159" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2" t="s">
         <v>89</v>
       </c>
@@ -5650,8 +6690,14 @@
       <c r="I160" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="4">
+        <v>159</v>
+      </c>
+      <c r="K160" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2" t="s">
         <v>80</v>
       </c>
@@ -5679,8 +6725,14 @@
       <c r="I161" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="4">
+        <v>160</v>
+      </c>
+      <c r="K161" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2" t="s">
         <v>80</v>
       </c>
@@ -5708,8 +6760,14 @@
       <c r="I162" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="4">
+        <v>161</v>
+      </c>
+      <c r="K162" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2" t="s">
         <v>88</v>
       </c>
@@ -5737,8 +6795,14 @@
       <c r="I163" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="4">
+        <v>162</v>
+      </c>
+      <c r="K163" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2" t="s">
         <v>102</v>
       </c>
@@ -5766,8 +6830,14 @@
       <c r="I164" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="4">
+        <v>163</v>
+      </c>
+      <c r="K164" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2" t="s">
         <v>102</v>
       </c>
@@ -5795,8 +6865,14 @@
       <c r="I165" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="4">
+        <v>164</v>
+      </c>
+      <c r="K165" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2" t="s">
         <v>21</v>
       </c>
@@ -5824,8 +6900,14 @@
       <c r="I166" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="4">
+        <v>165</v>
+      </c>
+      <c r="K166" s="4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2" t="s">
         <v>39</v>
       </c>
@@ -5853,8 +6935,14 @@
       <c r="I167" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="4">
+        <v>166</v>
+      </c>
+      <c r="K167" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2" t="s">
         <v>39</v>
       </c>
@@ -5882,8 +6970,14 @@
       <c r="I168" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="4">
+        <v>167</v>
+      </c>
+      <c r="K168" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2" t="s">
         <v>86</v>
       </c>
@@ -5911,8 +7005,14 @@
       <c r="I169" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="4">
+        <v>168</v>
+      </c>
+      <c r="K169" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2" t="s">
         <v>100</v>
       </c>
@@ -5940,8 +7040,14 @@
       <c r="I170" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="4">
+        <v>169</v>
+      </c>
+      <c r="K170" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2" t="s">
         <v>92</v>
       </c>
@@ -5969,8 +7075,14 @@
       <c r="I171" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="4">
+        <v>170</v>
+      </c>
+      <c r="K171" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2" t="s">
         <v>92</v>
       </c>
@@ -5998,8 +7110,14 @@
       <c r="I172" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="4">
+        <v>171</v>
+      </c>
+      <c r="K172" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2" t="s">
         <v>103</v>
       </c>
@@ -6027,8 +7145,14 @@
       <c r="I173" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="4">
+        <v>172</v>
+      </c>
+      <c r="K173" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2" t="s">
         <v>103</v>
       </c>
@@ -6056,8 +7180,14 @@
       <c r="I174" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="4">
+        <v>173</v>
+      </c>
+      <c r="K174" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2" t="s">
         <v>87</v>
       </c>
@@ -6085,8 +7215,14 @@
       <c r="I175" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="4">
+        <v>174</v>
+      </c>
+      <c r="K175" s="4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2" t="s">
         <v>106</v>
       </c>
@@ -6114,8 +7250,14 @@
       <c r="I176" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="4">
+        <v>175</v>
+      </c>
+      <c r="K176" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2" t="s">
         <v>106</v>
       </c>
@@ -6143,8 +7285,14 @@
       <c r="I177" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="4">
+        <v>176</v>
+      </c>
+      <c r="K177" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2" t="s">
         <v>94</v>
       </c>
@@ -6172,8 +7320,14 @@
       <c r="I178" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="4">
+        <v>177</v>
+      </c>
+      <c r="K178" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2" t="s">
         <v>94</v>
       </c>
@@ -6201,8 +7355,14 @@
       <c r="I179" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="4">
+        <v>178</v>
+      </c>
+      <c r="K179" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2" t="s">
         <v>85</v>
       </c>
@@ -6230,8 +7390,14 @@
       <c r="I180" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="4">
+        <v>179</v>
+      </c>
+      <c r="K180" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -6259,8 +7425,14 @@
       <c r="I181" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="4">
+        <v>180</v>
+      </c>
+      <c r="K181" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2" t="s">
         <v>89</v>
       </c>
@@ -6288,8 +7460,14 @@
       <c r="I182" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="4">
+        <v>181</v>
+      </c>
+      <c r="K182" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2" t="s">
         <v>83</v>
       </c>
@@ -6317,8 +7495,14 @@
       <c r="I183" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="4">
+        <v>182</v>
+      </c>
+      <c r="K183" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2" t="s">
         <v>83</v>
       </c>
@@ -6346,8 +7530,14 @@
       <c r="I184" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="4">
+        <v>183</v>
+      </c>
+      <c r="K184" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2" t="s">
         <v>84</v>
       </c>
@@ -6375,8 +7565,14 @@
       <c r="I185" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="4">
+        <v>184</v>
+      </c>
+      <c r="K185" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2" t="s">
         <v>84</v>
       </c>
@@ -6404,8 +7600,14 @@
       <c r="I186" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="4">
+        <v>185</v>
+      </c>
+      <c r="K186" s="4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2" t="s">
         <v>80</v>
       </c>
@@ -6433,8 +7635,14 @@
       <c r="I187" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="4">
+        <v>186</v>
+      </c>
+      <c r="K187" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2" t="s">
         <v>108</v>
       </c>
@@ -6462,8 +7670,14 @@
       <c r="I188" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="4">
+        <v>187</v>
+      </c>
+      <c r="K188" s="4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2" t="s">
         <v>108</v>
       </c>
@@ -6491,8 +7705,14 @@
       <c r="I189" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="4">
+        <v>188</v>
+      </c>
+      <c r="K189" s="4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2" t="s">
         <v>91</v>
       </c>
@@ -6520,8 +7740,14 @@
       <c r="I190" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="4">
+        <v>189</v>
+      </c>
+      <c r="K190" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2" t="s">
         <v>91</v>
       </c>
@@ -6549,8 +7775,14 @@
       <c r="I191" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191" s="4">
+        <v>190</v>
+      </c>
+      <c r="K191" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2" t="s">
         <v>102</v>
       </c>
@@ -6578,37 +7810,49 @@
       <c r="I192" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+      <c r="J192" s="4">
+        <v>191</v>
+      </c>
+      <c r="K192" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E193" s="2" t="s">
+      <c r="C193" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E193" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F193" s="2">
-        <v>1</v>
-      </c>
-      <c r="G193" s="2" t="s">
+      <c r="F193" s="3">
+        <v>1</v>
+      </c>
+      <c r="G193" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H193" s="2">
-        <v>4</v>
-      </c>
-      <c r="I193" s="2" t="s">
+      <c r="H193" s="3">
+        <v>4</v>
+      </c>
+      <c r="I193" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="6">
+        <v>192</v>
+      </c>
+      <c r="K193" s="6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2" t="s">
         <v>106</v>
       </c>
@@ -6636,8 +7880,14 @@
       <c r="I194" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194" s="4">
+        <v>193</v>
+      </c>
+      <c r="K194" s="4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2" t="s">
         <v>78</v>
       </c>
@@ -6665,8 +7915,14 @@
       <c r="I195" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="4">
+        <v>194</v>
+      </c>
+      <c r="K195" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2" t="s">
         <v>78</v>
       </c>
@@ -6694,8 +7950,14 @@
       <c r="I196" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="4">
+        <v>195</v>
+      </c>
+      <c r="K196" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2" t="s">
         <v>108</v>
       </c>
@@ -6723,8 +7985,14 @@
       <c r="I197" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="4">
+        <v>196</v>
+      </c>
+      <c r="K197" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2" t="s">
         <v>94</v>
       </c>
@@ -6752,8 +8020,14 @@
       <c r="I198" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="4">
+        <v>197</v>
+      </c>
+      <c r="K198" s="4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2" t="s">
         <v>20</v>
       </c>
@@ -6781,8 +8055,14 @@
       <c r="I199" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199" s="4">
+        <v>198</v>
+      </c>
+      <c r="K199" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2" t="s">
         <v>20</v>
       </c>
@@ -6810,8 +8090,14 @@
       <c r="I200" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="4">
+        <v>199</v>
+      </c>
+      <c r="K200" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2" t="s">
         <v>112</v>
       </c>
@@ -6839,8 +8125,14 @@
       <c r="I201" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="4">
+        <v>200</v>
+      </c>
+      <c r="K201" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2" t="s">
         <v>112</v>
       </c>
@@ -6868,8 +8160,14 @@
       <c r="I202" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202" s="4">
+        <v>201</v>
+      </c>
+      <c r="K202" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2" t="s">
         <v>91</v>
       </c>
@@ -6897,8 +8195,14 @@
       <c r="I203" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="4">
+        <v>202</v>
+      </c>
+      <c r="K203" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +8230,14 @@
       <c r="I204" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="4">
+        <v>203</v>
+      </c>
+      <c r="K204" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2" t="s">
         <v>77</v>
       </c>
@@ -6955,8 +8265,14 @@
       <c r="I205" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205" s="4">
+        <v>204</v>
+      </c>
+      <c r="K205" s="4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2" t="s">
         <v>19</v>
       </c>
@@ -6984,8 +8300,14 @@
       <c r="I206" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206" s="4">
+        <v>205</v>
+      </c>
+      <c r="K206" s="4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2" t="s">
         <v>19</v>
       </c>
@@ -7013,8 +8335,14 @@
       <c r="I207" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207" s="4">
+        <v>206</v>
+      </c>
+      <c r="K207" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2" t="s">
         <v>84</v>
       </c>
@@ -7042,8 +8370,14 @@
       <c r="I208" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208" s="4">
+        <v>207</v>
+      </c>
+      <c r="K208" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2" t="s">
         <v>103</v>
       </c>
@@ -7071,8 +8405,14 @@
       <c r="I209" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209" s="4">
+        <v>208</v>
+      </c>
+      <c r="K209" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2" t="s">
         <v>78</v>
       </c>
@@ -7100,8 +8440,14 @@
       <c r="I210" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210" s="4">
+        <v>209</v>
+      </c>
+      <c r="K210" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2" t="s">
         <v>78</v>
       </c>
@@ -7129,8 +8475,14 @@
       <c r="I211" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211" s="4">
+        <v>210</v>
+      </c>
+      <c r="K211" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2" t="s">
         <v>92</v>
       </c>
@@ -7158,8 +8510,14 @@
       <c r="I212" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212" s="4">
+        <v>211</v>
+      </c>
+      <c r="K212" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2" t="s">
         <v>83</v>
       </c>
@@ -7187,8 +8545,14 @@
       <c r="I213" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213" s="4">
+        <v>212</v>
+      </c>
+      <c r="K213" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2" t="s">
         <v>99</v>
       </c>
@@ -7216,8 +8580,14 @@
       <c r="I214" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214" s="4">
+        <v>213</v>
+      </c>
+      <c r="K214" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2" t="s">
         <v>99</v>
       </c>
@@ -7245,8 +8615,14 @@
       <c r="I215" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="4">
+        <v>214</v>
+      </c>
+      <c r="K215" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2" t="s">
         <v>101</v>
       </c>
@@ -7274,8 +8650,14 @@
       <c r="I216" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="4">
+        <v>215</v>
+      </c>
+      <c r="K216" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2" t="s">
         <v>101</v>
       </c>
@@ -7303,8 +8685,14 @@
       <c r="I217" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217" s="4">
+        <v>216</v>
+      </c>
+      <c r="K217" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2" t="s">
         <v>110</v>
       </c>
@@ -7332,8 +8720,14 @@
       <c r="I218" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218" s="4">
+        <v>217</v>
+      </c>
+      <c r="K218" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2" t="s">
         <v>110</v>
       </c>
@@ -7361,8 +8755,14 @@
       <c r="I219" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219" s="4">
+        <v>218</v>
+      </c>
+      <c r="K219" s="4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2" t="s">
         <v>78</v>
       </c>
@@ -7390,8 +8790,14 @@
       <c r="I220" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220" s="4">
+        <v>219</v>
+      </c>
+      <c r="K220" s="4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2" t="s">
         <v>20</v>
       </c>
@@ -7419,8 +8825,14 @@
       <c r="I221" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221" s="4">
+        <v>220</v>
+      </c>
+      <c r="K221" s="4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2" t="s">
         <v>86</v>
       </c>
@@ -7448,8 +8860,14 @@
       <c r="I222" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222" s="4">
+        <v>221</v>
+      </c>
+      <c r="K222" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2" t="s">
         <v>86</v>
       </c>
@@ -7477,8 +8895,14 @@
       <c r="I223" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223" s="4">
+        <v>222</v>
+      </c>
+      <c r="K223" s="4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2" t="s">
         <v>88</v>
       </c>
@@ -7506,8 +8930,14 @@
       <c r="I224" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224" s="4">
+        <v>223</v>
+      </c>
+      <c r="K224" s="4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2" t="s">
         <v>88</v>
       </c>
@@ -7535,8 +8965,14 @@
       <c r="I225" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225" s="4">
+        <v>224</v>
+      </c>
+      <c r="K225" s="4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2" t="s">
         <v>112</v>
       </c>
@@ -7564,8 +9000,14 @@
       <c r="I226" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226" s="4">
+        <v>225</v>
+      </c>
+      <c r="K226" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2" t="s">
         <v>82</v>
       </c>
@@ -7593,8 +9035,14 @@
       <c r="I227" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227" s="4">
+        <v>226</v>
+      </c>
+      <c r="K227" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2" t="s">
         <v>82</v>
       </c>
@@ -7622,8 +9070,14 @@
       <c r="I228" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228" s="4">
+        <v>227</v>
+      </c>
+      <c r="K228" s="4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2" t="s">
         <v>21</v>
       </c>
@@ -7651,8 +9105,14 @@
       <c r="I229" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229" s="4">
+        <v>228</v>
+      </c>
+      <c r="K229" s="4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2" t="s">
         <v>21</v>
       </c>
@@ -7680,8 +9140,14 @@
       <c r="I230" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230" s="4">
+        <v>229</v>
+      </c>
+      <c r="K230" s="4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2" t="s">
         <v>77</v>
       </c>
@@ -7709,8 +9175,14 @@
       <c r="I231" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231" s="4">
+        <v>230</v>
+      </c>
+      <c r="K231" s="4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2" t="s">
         <v>19</v>
       </c>
@@ -7738,8 +9210,14 @@
       <c r="I232" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232" s="4">
+        <v>231</v>
+      </c>
+      <c r="K232" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2" t="s">
         <v>81</v>
       </c>
@@ -7767,8 +9245,14 @@
       <c r="I233" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233" s="4">
+        <v>232</v>
+      </c>
+      <c r="K233" s="4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2" t="s">
         <v>81</v>
       </c>
@@ -7796,8 +9280,14 @@
       <c r="I234" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234" s="4">
+        <v>233</v>
+      </c>
+      <c r="K234" s="4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2" t="s">
         <v>78</v>
       </c>
@@ -7825,8 +9315,14 @@
       <c r="I235" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235" s="4">
+        <v>234</v>
+      </c>
+      <c r="K235" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2" t="s">
         <v>79</v>
       </c>
@@ -7854,8 +9350,14 @@
       <c r="I236" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236" s="4">
+        <v>235</v>
+      </c>
+      <c r="K236" s="4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2" t="s">
         <v>79</v>
       </c>
@@ -7883,8 +9385,14 @@
       <c r="I237" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237" s="4">
+        <v>236</v>
+      </c>
+      <c r="K237" s="4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2" t="s">
         <v>90</v>
       </c>
@@ -7912,8 +9420,14 @@
       <c r="I238" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238" s="4">
+        <v>237</v>
+      </c>
+      <c r="K238" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2" t="s">
         <v>90</v>
       </c>
@@ -7941,8 +9455,14 @@
       <c r="I239" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239" s="4">
+        <v>238</v>
+      </c>
+      <c r="K239" s="4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2" t="s">
         <v>99</v>
       </c>
@@ -7970,8 +9490,14 @@
       <c r="I240" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240" s="4">
+        <v>239</v>
+      </c>
+      <c r="K240" s="4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2" t="s">
         <v>101</v>
       </c>
@@ -7999,8 +9525,14 @@
       <c r="I241" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241" s="4">
+        <v>240</v>
+      </c>
+      <c r="K241" s="4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2" t="s">
         <v>87</v>
       </c>
@@ -8028,8 +9560,14 @@
       <c r="I242" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242" s="4">
+        <v>241</v>
+      </c>
+      <c r="K242" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2" t="s">
         <v>87</v>
       </c>
@@ -8057,8 +9595,14 @@
       <c r="I243" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243" s="4">
+        <v>242</v>
+      </c>
+      <c r="K243" s="4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2" t="s">
         <v>110</v>
       </c>
@@ -8086,8 +9630,14 @@
       <c r="I244" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244" s="4">
+        <v>243</v>
+      </c>
+      <c r="K244" s="4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2" t="s">
         <v>86</v>
       </c>
@@ -8115,8 +9665,14 @@
       <c r="I245" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245" s="4">
+        <v>244</v>
+      </c>
+      <c r="K245" s="4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
@@ -8144,8 +9700,14 @@
       <c r="I246" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246" s="4">
+        <v>245</v>
+      </c>
+      <c r="K246" s="4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2" t="s">
         <v>93</v>
       </c>
@@ -8173,8 +9735,14 @@
       <c r="I247" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247" s="4">
+        <v>246</v>
+      </c>
+      <c r="K247" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2" t="s">
         <v>39</v>
       </c>
@@ -8202,8 +9770,14 @@
       <c r="I248" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248" s="4">
+        <v>247</v>
+      </c>
+      <c r="K248" s="4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2" t="s">
         <v>39</v>
       </c>
@@ -8231,8 +9805,14 @@
       <c r="I249" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249" s="4">
+        <v>248</v>
+      </c>
+      <c r="K249" s="4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2" t="s">
         <v>88</v>
       </c>
@@ -8260,8 +9840,14 @@
       <c r="I250" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250" s="4">
+        <v>249</v>
+      </c>
+      <c r="K250" s="4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2" t="s">
         <v>100</v>
       </c>
@@ -8289,8 +9875,14 @@
       <c r="I251" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251" s="4">
+        <v>250</v>
+      </c>
+      <c r="K251" s="4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2" t="s">
         <v>100</v>
       </c>
@@ -8318,8 +9910,14 @@
       <c r="I252" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252" s="4">
+        <v>251</v>
+      </c>
+      <c r="K252" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2" t="s">
         <v>82</v>
       </c>
@@ -8347,8 +9945,14 @@
       <c r="I253" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253" s="4">
+        <v>252</v>
+      </c>
+      <c r="K253" s="4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2" t="s">
         <v>21</v>
       </c>
@@ -8376,8 +9980,14 @@
       <c r="I254" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254" s="4">
+        <v>253</v>
+      </c>
+      <c r="K254" s="4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2" t="s">
         <v>81</v>
       </c>
@@ -8405,8 +10015,14 @@
       <c r="I255" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255" s="4">
+        <v>254</v>
+      </c>
+      <c r="K255" s="4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2" t="s">
         <v>85</v>
       </c>
@@ -8434,8 +10050,14 @@
       <c r="I256" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256" s="4">
+        <v>255</v>
+      </c>
+      <c r="K256" s="4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2" t="s">
         <v>85</v>
       </c>
@@ -8463,8 +10085,14 @@
       <c r="I257" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257" s="4">
+        <v>256</v>
+      </c>
+      <c r="K257" s="4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2" t="s">
         <v>102</v>
       </c>
@@ -8492,8 +10120,14 @@
       <c r="I258" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258" s="4">
+        <v>257</v>
+      </c>
+      <c r="K258" s="4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2" t="s">
         <v>102</v>
       </c>
@@ -8521,8 +10155,14 @@
       <c r="I259" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259" s="4">
+        <v>258</v>
+      </c>
+      <c r="K259" s="4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2" t="s">
         <v>80</v>
       </c>
@@ -8550,8 +10190,14 @@
       <c r="I260" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260" s="4">
+        <v>259</v>
+      </c>
+      <c r="K260" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2" t="s">
         <v>80</v>
       </c>
@@ -8579,8 +10225,14 @@
       <c r="I261" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261" s="4">
+        <v>260</v>
+      </c>
+      <c r="K261" s="4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2" t="s">
         <v>90</v>
       </c>
@@ -8608,8 +10260,14 @@
       <c r="I262" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262" s="4">
+        <v>261</v>
+      </c>
+      <c r="K262" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2" t="s">
         <v>89</v>
       </c>
@@ -8637,8 +10295,14 @@
       <c r="I263" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263" s="4">
+        <v>262</v>
+      </c>
+      <c r="K263" s="4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2" t="s">
         <v>89</v>
       </c>
@@ -8666,8 +10330,14 @@
       <c r="I264" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264" s="4">
+        <v>263</v>
+      </c>
+      <c r="K264" s="4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2" t="s">
         <v>79</v>
       </c>
@@ -8695,8 +10365,14 @@
       <c r="I265" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265" s="4">
+        <v>264</v>
+      </c>
+      <c r="K265" s="4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2" t="s">
         <v>106</v>
       </c>
@@ -8724,8 +10400,14 @@
       <c r="I266" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266" s="4">
+        <v>265</v>
+      </c>
+      <c r="K266" s="4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2" t="s">
         <v>106</v>
       </c>
@@ -8753,8 +10435,14 @@
       <c r="I267" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267" s="4">
+        <v>266</v>
+      </c>
+      <c r="K267" s="4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2" t="s">
         <v>87</v>
       </c>
@@ -8782,8 +10470,14 @@
       <c r="I268" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268" s="4">
+        <v>267</v>
+      </c>
+      <c r="K268" s="4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2" t="s">
         <v>108</v>
       </c>
@@ -8811,8 +10505,14 @@
       <c r="I269" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269" s="4">
+        <v>268</v>
+      </c>
+      <c r="K269" s="4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2" t="s">
         <v>108</v>
       </c>
@@ -8840,8 +10540,14 @@
       <c r="I270" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270" s="4">
+        <v>269</v>
+      </c>
+      <c r="K270" s="4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2" t="s">
         <v>94</v>
       </c>
@@ -8869,8 +10575,14 @@
       <c r="I271" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271" s="4">
+        <v>270</v>
+      </c>
+      <c r="K271" s="4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2" t="s">
         <v>94</v>
       </c>
@@ -8898,8 +10610,14 @@
       <c r="I272" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272" s="4">
+        <v>271</v>
+      </c>
+      <c r="K272" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2" t="s">
         <v>93</v>
       </c>
@@ -8927,8 +10645,14 @@
       <c r="I273" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273" s="4">
+        <v>272</v>
+      </c>
+      <c r="K273" s="4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2" t="s">
         <v>39</v>
       </c>
@@ -8956,8 +10680,14 @@
       <c r="I274" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274" s="4">
+        <v>273</v>
+      </c>
+      <c r="K274" s="4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2" t="s">
         <v>91</v>
       </c>
@@ -8985,8 +10715,14 @@
       <c r="I275" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275" s="4">
+        <v>274</v>
+      </c>
+      <c r="K275" s="4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2" t="s">
         <v>91</v>
       </c>
@@ -9014,8 +10750,14 @@
       <c r="I276" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276" s="4">
+        <v>275</v>
+      </c>
+      <c r="K276" s="4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2" t="s">
         <v>84</v>
       </c>
@@ -9043,8 +10785,14 @@
       <c r="I277" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277" s="4">
+        <v>276</v>
+      </c>
+      <c r="K277" s="4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2" t="s">
         <v>84</v>
       </c>
@@ -9072,8 +10820,14 @@
       <c r="I278" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278" s="4">
+        <v>277</v>
+      </c>
+      <c r="K278" s="4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2" t="s">
         <v>100</v>
       </c>
@@ -9101,8 +10855,14 @@
       <c r="I279" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279" s="4">
+        <v>278</v>
+      </c>
+      <c r="K279" s="4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2" t="s">
         <v>103</v>
       </c>
@@ -9130,8 +10890,14 @@
       <c r="I280" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280" s="4">
+        <v>279</v>
+      </c>
+      <c r="K280" s="4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2" t="s">
         <v>103</v>
       </c>
@@ -9159,8 +10925,14 @@
       <c r="I281" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281" s="4">
+        <v>280</v>
+      </c>
+      <c r="K281" s="4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2" t="s">
         <v>85</v>
       </c>
@@ -9188,8 +10960,14 @@
       <c r="I282" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282" s="4">
+        <v>281</v>
+      </c>
+      <c r="K282" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2" t="s">
         <v>92</v>
       </c>
@@ -9217,8 +10995,14 @@
       <c r="I283" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283" s="4">
+        <v>282</v>
+      </c>
+      <c r="K283" s="4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2" t="s">
         <v>92</v>
       </c>
@@ -9246,8 +11030,14 @@
       <c r="I284" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284" s="4">
+        <v>283</v>
+      </c>
+      <c r="K284" s="4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2" t="s">
         <v>83</v>
       </c>
@@ -9275,8 +11065,14 @@
       <c r="I285" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285" s="4">
+        <v>284</v>
+      </c>
+      <c r="K285" s="4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2" t="s">
         <v>83</v>
       </c>
@@ -9304,8 +11100,14 @@
       <c r="I286" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286" s="4">
+        <v>285</v>
+      </c>
+      <c r="K286" s="4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2" t="s">
         <v>102</v>
       </c>
@@ -9333,8 +11135,14 @@
       <c r="I287" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287" s="4">
+        <v>286</v>
+      </c>
+      <c r="K287" s="4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2" t="s">
         <v>80</v>
       </c>
@@ -9362,37 +11170,49 @@
       <c r="I288" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A289" s="2" t="s">
+      <c r="J288" s="4">
+        <v>287</v>
+      </c>
+      <c r="K288" s="4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
+      <c r="A289" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E289" s="2" t="s">
+      <c r="C289" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E289" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F289" s="2">
-        <v>2</v>
-      </c>
-      <c r="G289" s="2" t="s">
+      <c r="F289" s="3">
+        <v>2</v>
+      </c>
+      <c r="G289" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H289" s="2">
-        <v>4</v>
-      </c>
-      <c r="I289" s="2" t="s">
+      <c r="H289" s="3">
+        <v>4</v>
+      </c>
+      <c r="I289" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289" s="6">
+        <v>288</v>
+      </c>
+      <c r="K289" s="6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2" t="s">
         <v>108</v>
       </c>
@@ -9420,8 +11240,14 @@
       <c r="I290" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290" s="4">
+        <v>289</v>
+      </c>
+      <c r="K290" s="4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2" t="s">
         <v>101</v>
       </c>
@@ -9449,8 +11275,14 @@
       <c r="I291" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291" s="4">
+        <v>290</v>
+      </c>
+      <c r="K291" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2" t="s">
         <v>101</v>
       </c>
@@ -9478,8 +11310,14 @@
       <c r="I292" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292" s="4">
+        <v>291</v>
+      </c>
+      <c r="K292" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2" t="s">
         <v>92</v>
       </c>
@@ -9507,8 +11345,14 @@
       <c r="I293" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293" s="4">
+        <v>292</v>
+      </c>
+      <c r="K293" s="4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2" t="s">
         <v>91</v>
       </c>
@@ -9536,8 +11380,14 @@
       <c r="I294" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294" s="4">
+        <v>293</v>
+      </c>
+      <c r="K294" s="4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2" t="s">
         <v>84</v>
       </c>
@@ -9565,8 +11415,14 @@
       <c r="I295" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J295" s="4">
+        <v>294</v>
+      </c>
+      <c r="K295" s="4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2" t="s">
         <v>112</v>
       </c>
@@ -9594,8 +11450,14 @@
       <c r="I296" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J296" s="4">
+        <v>295</v>
+      </c>
+      <c r="K296" s="4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2" t="s">
         <v>112</v>
       </c>
@@ -9623,8 +11485,14 @@
       <c r="I297" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297" s="4">
+        <v>296</v>
+      </c>
+      <c r="K297" s="4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2" t="s">
         <v>78</v>
       </c>
@@ -9652,8 +11520,14 @@
       <c r="I298" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J298" s="4">
+        <v>297</v>
+      </c>
+      <c r="K298" s="4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2" t="s">
         <v>78</v>
       </c>
@@ -9681,8 +11555,14 @@
       <c r="I299" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299" s="4">
+        <v>298</v>
+      </c>
+      <c r="K299" s="4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2" t="s">
         <v>106</v>
       </c>
@@ -9710,8 +11590,14 @@
       <c r="I300" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300" s="4">
+        <v>299</v>
+      </c>
+      <c r="K300" s="4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2" t="s">
         <v>99</v>
       </c>
@@ -9739,8 +11625,14 @@
       <c r="I301" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301" s="4">
+        <v>300</v>
+      </c>
+      <c r="K301" s="4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2" t="s">
         <v>99</v>
       </c>
@@ -9768,8 +11660,14 @@
       <c r="I302" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302" s="4">
+        <v>301</v>
+      </c>
+      <c r="K302" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2" t="s">
         <v>78</v>
       </c>
@@ -9797,8 +11695,14 @@
       <c r="I303" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303" s="4">
+        <v>302</v>
+      </c>
+      <c r="K303" s="4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2" t="s">
         <v>78</v>
       </c>
@@ -9826,8 +11730,14 @@
       <c r="I304" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304" s="4">
+        <v>303</v>
+      </c>
+      <c r="K304" s="4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2" t="s">
         <v>83</v>
       </c>
@@ -9855,8 +11765,14 @@
       <c r="I305" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305" s="4">
+        <v>304</v>
+      </c>
+      <c r="K305" s="4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2" t="s">
         <v>19</v>
       </c>
@@ -9884,8 +11800,14 @@
       <c r="I306" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306" s="4">
+        <v>305</v>
+      </c>
+      <c r="K306" s="4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2" t="s">
         <v>19</v>
       </c>
@@ -9913,8 +11835,14 @@
       <c r="I307" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307" s="4">
+        <v>306</v>
+      </c>
+      <c r="K307" s="4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2" t="s">
         <v>103</v>
       </c>
@@ -9942,8 +11870,14 @@
       <c r="I308" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308" s="4">
+        <v>307</v>
+      </c>
+      <c r="K308" s="4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2" t="s">
         <v>94</v>
       </c>
@@ -9971,8 +11905,14 @@
       <c r="I309" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309" s="4">
+        <v>308</v>
+      </c>
+      <c r="K309" s="4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2" t="s">
         <v>77</v>
       </c>
@@ -10000,8 +11940,14 @@
       <c r="I310" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310" s="4">
+        <v>309</v>
+      </c>
+      <c r="K310" s="4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2" t="s">
         <v>77</v>
       </c>
@@ -10029,8 +11975,14 @@
       <c r="I311" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311" s="4">
+        <v>310</v>
+      </c>
+      <c r="K311" s="4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
       <c r="A312" s="2" t="s">
         <v>20</v>
       </c>
@@ -10058,8 +12010,14 @@
       <c r="I312" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312" s="4">
+        <v>311</v>
+      </c>
+      <c r="K312" s="4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11">
       <c r="A313" s="2" t="s">
         <v>20</v>
       </c>
@@ -10087,8 +12045,14 @@
       <c r="I313" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313" s="4">
+        <v>312</v>
+      </c>
+      <c r="K313" s="4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11">
       <c r="A314" s="2" t="s">
         <v>21</v>
       </c>
@@ -10116,8 +12080,14 @@
       <c r="I314" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314" s="4">
+        <v>313</v>
+      </c>
+      <c r="K314" s="4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11">
       <c r="A315" s="2" t="s">
         <v>21</v>
       </c>
@@ -10145,8 +12115,14 @@
       <c r="I315" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315" s="4">
+        <v>314</v>
+      </c>
+      <c r="K315" s="4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11">
       <c r="A316" s="2" t="s">
         <v>101</v>
       </c>
@@ -10174,8 +12150,14 @@
       <c r="I316" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316" s="4">
+        <v>315</v>
+      </c>
+      <c r="K316" s="4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11">
       <c r="A317" s="2" t="s">
         <v>88</v>
       </c>
@@ -10203,8 +12185,14 @@
       <c r="I317" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J317" s="4">
+        <v>316</v>
+      </c>
+      <c r="K317" s="4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11">
       <c r="A318" s="2" t="s">
         <v>88</v>
       </c>
@@ -10232,8 +12220,14 @@
       <c r="I318" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318" s="4">
+        <v>317</v>
+      </c>
+      <c r="K318" s="4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11">
       <c r="A319" s="2" t="s">
         <v>112</v>
       </c>
@@ -10261,8 +12255,14 @@
       <c r="I319" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J319" s="4">
+        <v>318</v>
+      </c>
+      <c r="K319" s="4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11">
       <c r="A320" s="2" t="s">
         <v>86</v>
       </c>
@@ -10290,8 +12290,14 @@
       <c r="I320" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320" s="4">
+        <v>319</v>
+      </c>
+      <c r="K320" s="4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11">
       <c r="A321" s="2" t="s">
         <v>86</v>
       </c>
@@ -10319,8 +12325,14 @@
       <c r="I321" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J321" s="4">
+        <v>320</v>
+      </c>
+      <c r="K321" s="4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11">
       <c r="A322" s="2" t="s">
         <v>81</v>
       </c>
@@ -10348,8 +12360,14 @@
       <c r="I322" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322" s="4">
+        <v>321</v>
+      </c>
+      <c r="K322" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11">
       <c r="A323" s="2" t="s">
         <v>81</v>
       </c>
@@ -10377,8 +12395,14 @@
       <c r="I323" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J323" s="4">
+        <v>322</v>
+      </c>
+      <c r="K323" s="4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11">
       <c r="A324" s="2" t="s">
         <v>78</v>
       </c>
@@ -10406,8 +12430,14 @@
       <c r="I324" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J324" s="4">
+        <v>323</v>
+      </c>
+      <c r="K324" s="4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11">
       <c r="A325" s="2" t="s">
         <v>99</v>
       </c>
@@ -10435,8 +12465,14 @@
       <c r="I325" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J325" s="4">
+        <v>324</v>
+      </c>
+      <c r="K325" s="4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11">
       <c r="A326" s="2" t="s">
         <v>78</v>
       </c>
@@ -10464,8 +12500,14 @@
       <c r="I326" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J326" s="4">
+        <v>325</v>
+      </c>
+      <c r="K326" s="4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
       <c r="A327" s="2" t="s">
         <v>110</v>
       </c>
@@ -10493,8 +12535,14 @@
       <c r="I327" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J327" s="4">
+        <v>326</v>
+      </c>
+      <c r="K327" s="4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11">
       <c r="A328" s="2" t="s">
         <v>110</v>
       </c>
@@ -10522,8 +12570,14 @@
       <c r="I328" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J328" s="4">
+        <v>327</v>
+      </c>
+      <c r="K328" s="4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11">
       <c r="A329" s="2" t="s">
         <v>90</v>
       </c>
@@ -10551,8 +12605,14 @@
       <c r="I329" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J329" s="4">
+        <v>328</v>
+      </c>
+      <c r="K329" s="4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
       <c r="A330" s="2" t="s">
         <v>90</v>
       </c>
@@ -10580,8 +12640,14 @@
       <c r="I330" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J330" s="4">
+        <v>329</v>
+      </c>
+      <c r="K330" s="4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11">
       <c r="A331" s="2" t="s">
         <v>19</v>
       </c>
@@ -10609,8 +12675,14 @@
       <c r="I331" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J331" s="4">
+        <v>330</v>
+      </c>
+      <c r="K331" s="4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11">
       <c r="A332" s="2" t="s">
         <v>82</v>
       </c>
@@ -10638,8 +12710,14 @@
       <c r="I332" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J332" s="4">
+        <v>331</v>
+      </c>
+      <c r="K332" s="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11">
       <c r="A333" s="2" t="s">
         <v>82</v>
       </c>
@@ -10667,8 +12745,14 @@
       <c r="I333" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J333" s="4">
+        <v>332</v>
+      </c>
+      <c r="K333" s="4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11">
       <c r="A334" s="2" t="s">
         <v>77</v>
       </c>
@@ -10696,8 +12780,14 @@
       <c r="I334" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J334" s="4">
+        <v>333</v>
+      </c>
+      <c r="K334" s="4">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11">
       <c r="A335" s="2" t="s">
         <v>20</v>
       </c>
@@ -10725,8 +12815,14 @@
       <c r="I335" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J335" s="4">
+        <v>334</v>
+      </c>
+      <c r="K335" s="4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
       <c r="A336" s="2" t="s">
         <v>79</v>
       </c>
@@ -10754,8 +12850,14 @@
       <c r="I336" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J336" s="4">
+        <v>335</v>
+      </c>
+      <c r="K336" s="4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11">
       <c r="A337" s="2" t="s">
         <v>79</v>
       </c>
@@ -10783,8 +12885,14 @@
       <c r="I337" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J337" s="4">
+        <v>336</v>
+      </c>
+      <c r="K337" s="4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11">
       <c r="A338" s="2" t="s">
         <v>102</v>
       </c>
@@ -10812,8 +12920,14 @@
       <c r="I338" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J338" s="4">
+        <v>337</v>
+      </c>
+      <c r="K338" s="4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
       <c r="A339" s="2" t="s">
         <v>102</v>
       </c>
@@ -10841,8 +12955,14 @@
       <c r="I339" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J339" s="4">
+        <v>338</v>
+      </c>
+      <c r="K339" s="4">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11">
       <c r="A340" s="2" t="s">
         <v>89</v>
       </c>
@@ -10870,8 +12990,14 @@
       <c r="I340" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J340" s="4">
+        <v>339</v>
+      </c>
+      <c r="K340" s="4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11">
       <c r="A341" s="2" t="s">
         <v>89</v>
       </c>
@@ -10899,8 +13025,14 @@
       <c r="I341" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J341" s="4">
+        <v>340</v>
+      </c>
+      <c r="K341" s="4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11">
       <c r="A342" s="2" t="s">
         <v>21</v>
       </c>
@@ -10928,8 +13060,14 @@
       <c r="I342" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J342" s="4">
+        <v>341</v>
+      </c>
+      <c r="K342" s="4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11">
       <c r="A343" s="2" t="s">
         <v>88</v>
       </c>
@@ -10957,8 +13095,14 @@
       <c r="I343" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343" s="4">
+        <v>342</v>
+      </c>
+      <c r="K343" s="4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11">
       <c r="A344" s="2" t="s">
         <v>93</v>
       </c>
@@ -10986,8 +13130,14 @@
       <c r="I344" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J344" s="4">
+        <v>343</v>
+      </c>
+      <c r="K344" s="4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
       <c r="A345" s="2" t="s">
         <v>93</v>
       </c>
@@ -11015,8 +13165,14 @@
       <c r="I345" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J345" s="4">
+        <v>344</v>
+      </c>
+      <c r="K345" s="4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11">
       <c r="A346" s="2" t="s">
         <v>86</v>
       </c>
@@ -11044,8 +13200,14 @@
       <c r="I346" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J346" s="4">
+        <v>345</v>
+      </c>
+      <c r="K346" s="4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
       <c r="A347" s="2" t="s">
         <v>80</v>
       </c>
@@ -11073,8 +13235,14 @@
       <c r="I347" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J347" s="4">
+        <v>346</v>
+      </c>
+      <c r="K347" s="4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11">
       <c r="A348" s="2" t="s">
         <v>80</v>
       </c>
@@ -11102,8 +13270,14 @@
       <c r="I348" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J348" s="4">
+        <v>347</v>
+      </c>
+      <c r="K348" s="4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
       <c r="A349" s="2" t="s">
         <v>81</v>
       </c>
@@ -11131,8 +13305,14 @@
       <c r="I349" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J349" s="4">
+        <v>348</v>
+      </c>
+      <c r="K349" s="4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
       <c r="A350" s="2" t="s">
         <v>110</v>
       </c>
@@ -11160,8 +13340,14 @@
       <c r="I350" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J350" s="4">
+        <v>349</v>
+      </c>
+      <c r="K350" s="4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11">
       <c r="A351" s="2" t="s">
         <v>39</v>
       </c>
@@ -11189,8 +13375,14 @@
       <c r="I351" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J351" s="4">
+        <v>350</v>
+      </c>
+      <c r="K351" s="4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11">
       <c r="A352" s="2" t="s">
         <v>39</v>
       </c>
@@ -11218,8 +13410,14 @@
       <c r="I352" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J352" s="4">
+        <v>351</v>
+      </c>
+      <c r="K352" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11">
       <c r="A353" s="2" t="s">
         <v>85</v>
       </c>
@@ -11247,8 +13445,14 @@
       <c r="I353" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J353" s="4">
+        <v>352</v>
+      </c>
+      <c r="K353" s="4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11">
       <c r="A354" s="2" t="s">
         <v>85</v>
       </c>
@@ -11276,8 +13480,14 @@
       <c r="I354" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J354" s="4">
+        <v>353</v>
+      </c>
+      <c r="K354" s="4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11">
       <c r="A355" s="2" t="s">
         <v>90</v>
       </c>
@@ -11305,8 +13515,14 @@
       <c r="I355" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J355" s="4">
+        <v>354</v>
+      </c>
+      <c r="K355" s="4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11">
       <c r="A356" s="2" t="s">
         <v>82</v>
       </c>
@@ -11334,8 +13550,14 @@
       <c r="I356" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J356" s="4">
+        <v>355</v>
+      </c>
+      <c r="K356" s="4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11">
       <c r="A357" s="2" t="s">
         <v>100</v>
       </c>
@@ -11363,8 +13585,14 @@
       <c r="I357" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J357" s="4">
+        <v>356</v>
+      </c>
+      <c r="K357" s="4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11">
       <c r="A358" s="2" t="s">
         <v>100</v>
       </c>
@@ -11392,8 +13620,14 @@
       <c r="I358" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J358" s="4">
+        <v>357</v>
+      </c>
+      <c r="K358" s="4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11">
       <c r="A359" s="2" t="s">
         <v>79</v>
       </c>
@@ -11421,8 +13655,14 @@
       <c r="I359" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J359" s="4">
+        <v>358</v>
+      </c>
+      <c r="K359" s="4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11">
       <c r="A360" s="2" t="s">
         <v>87</v>
       </c>
@@ -11450,8 +13690,14 @@
       <c r="I360" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J360" s="4">
+        <v>359</v>
+      </c>
+      <c r="K360" s="4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11">
       <c r="A361" s="2" t="s">
         <v>87</v>
       </c>
@@ -11479,8 +13725,14 @@
       <c r="I361" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J361" s="4">
+        <v>360</v>
+      </c>
+      <c r="K361" s="4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11">
       <c r="A362" s="2" t="s">
         <v>102</v>
       </c>
@@ -11508,8 +13760,14 @@
       <c r="I362" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J362" s="4">
+        <v>361</v>
+      </c>
+      <c r="K362" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11">
       <c r="A363" s="2" t="s">
         <v>89</v>
       </c>
@@ -11537,8 +13795,14 @@
       <c r="I363" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J363" s="4">
+        <v>362</v>
+      </c>
+      <c r="K363" s="4">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11">
       <c r="A364" s="2" t="s">
         <v>108</v>
       </c>
@@ -11566,8 +13830,14 @@
       <c r="I364" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J364" s="4">
+        <v>363</v>
+      </c>
+      <c r="K364" s="4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11">
       <c r="A365" s="2" t="s">
         <v>108</v>
       </c>
@@ -11595,8 +13865,14 @@
       <c r="I365" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J365" s="4">
+        <v>364</v>
+      </c>
+      <c r="K365" s="4">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11">
       <c r="A366" s="2" t="s">
         <v>92</v>
       </c>
@@ -11624,8 +13900,14 @@
       <c r="I366" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J366" s="4">
+        <v>365</v>
+      </c>
+      <c r="K366" s="4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11">
       <c r="A367" s="2" t="s">
         <v>92</v>
       </c>
@@ -11653,8 +13935,14 @@
       <c r="I367" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J367" s="4">
+        <v>366</v>
+      </c>
+      <c r="K367" s="4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11">
       <c r="A368" s="2" t="s">
         <v>93</v>
       </c>
@@ -11682,8 +13970,14 @@
       <c r="I368" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J368" s="4">
+        <v>367</v>
+      </c>
+      <c r="K368" s="4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11">
       <c r="A369" s="2" t="s">
         <v>91</v>
       </c>
@@ -11711,8 +14005,14 @@
       <c r="I369" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J369" s="4">
+        <v>368</v>
+      </c>
+      <c r="K369" s="4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11">
       <c r="A370" s="2" t="s">
         <v>91</v>
       </c>
@@ -11740,8 +14040,14 @@
       <c r="I370" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J370" s="4">
+        <v>369</v>
+      </c>
+      <c r="K370" s="4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11">
       <c r="A371" s="2" t="s">
         <v>84</v>
       </c>
@@ -11769,8 +14075,14 @@
       <c r="I371" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J371" s="4">
+        <v>370</v>
+      </c>
+      <c r="K371" s="4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
       <c r="A372" s="2" t="s">
         <v>84</v>
       </c>
@@ -11798,8 +14110,14 @@
       <c r="I372" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J372" s="4">
+        <v>371</v>
+      </c>
+      <c r="K372" s="4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
       <c r="A373" s="2" t="s">
         <v>80</v>
       </c>
@@ -11827,8 +14145,14 @@
       <c r="I373" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J373" s="4">
+        <v>372</v>
+      </c>
+      <c r="K373" s="4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11">
       <c r="A374" s="2" t="s">
         <v>106</v>
       </c>
@@ -11856,8 +14180,14 @@
       <c r="I374" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J374" s="4">
+        <v>373</v>
+      </c>
+      <c r="K374" s="4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
       <c r="A375" s="2" t="s">
         <v>106</v>
       </c>
@@ -11885,8 +14215,14 @@
       <c r="I375" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J375" s="4">
+        <v>374</v>
+      </c>
+      <c r="K375" s="4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
       <c r="A376" s="2" t="s">
         <v>83</v>
       </c>
@@ -11914,8 +14250,14 @@
       <c r="I376" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J376" s="4">
+        <v>375</v>
+      </c>
+      <c r="K376" s="4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11">
       <c r="A377" s="2" t="s">
         <v>83</v>
       </c>
@@ -11943,8 +14285,14 @@
       <c r="I377" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J377" s="4">
+        <v>376</v>
+      </c>
+      <c r="K377" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11">
       <c r="A378" s="2" t="s">
         <v>39</v>
       </c>
@@ -11972,8 +14320,14 @@
       <c r="I378" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J378" s="4">
+        <v>377</v>
+      </c>
+      <c r="K378" s="4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11">
       <c r="A379" s="2" t="s">
         <v>85</v>
       </c>
@@ -12001,8 +14355,14 @@
       <c r="I379" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J379" s="4">
+        <v>378</v>
+      </c>
+      <c r="K379" s="4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11">
       <c r="A380" s="2" t="s">
         <v>103</v>
       </c>
@@ -12030,8 +14390,14 @@
       <c r="I380" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J380" s="4">
+        <v>379</v>
+      </c>
+      <c r="K380" s="4">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11">
       <c r="A381" s="2" t="s">
         <v>103</v>
       </c>
@@ -12059,8 +14425,14 @@
       <c r="I381" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J381" s="4">
+        <v>380</v>
+      </c>
+      <c r="K381" s="4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11">
       <c r="A382" s="2" t="s">
         <v>94</v>
       </c>
@@ -12088,8 +14460,14 @@
       <c r="I382" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J382" s="4">
+        <v>381</v>
+      </c>
+      <c r="K382" s="4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11">
       <c r="A383" s="2" t="s">
         <v>94</v>
       </c>
@@ -12117,8 +14495,14 @@
       <c r="I383" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J383" s="4">
+        <v>382</v>
+      </c>
+      <c r="K383" s="4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11">
       <c r="A384" s="2" t="s">
         <v>100</v>
       </c>
@@ -12146,8 +14530,14 @@
       <c r="I384" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J384" s="4">
+        <v>383</v>
+      </c>
+      <c r="K384" s="4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11">
       <c r="A385" s="2" t="s">
         <v>87</v>
       </c>
@@ -12174,6 +14564,12 @@
       </c>
       <c r="I385" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="J385" s="4">
+        <v>384</v>
+      </c>
+      <c r="K385" s="4">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E689915-7A72-49A8-B2DD-7E973B3F7444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC955BB-A76A-4EED-9265-33A04B73D2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="600" windowWidth="6960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -347,9 +347,6 @@
     <t>REPSWITCH1/PICTURE_728.png</t>
   </si>
   <si>
-    <t>indigo</t>
-  </si>
-  <si>
     <t>taza</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>psychopy_order</t>
+  </si>
+  <si>
+    <t>darkblue</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -1126,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1318,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -1388,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1633,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1668,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -1738,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -1773,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1799,10 +1799,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -1834,16 +1834,16 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -1913,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -1948,7 +1948,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
@@ -2018,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -2053,7 +2053,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -2123,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -2158,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -2193,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
@@ -2298,7 +2298,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
@@ -2368,7 +2368,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
@@ -2438,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -2473,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -2578,7 +2578,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
@@ -2639,10 +2639,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -2788,7 +2788,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
@@ -2823,7 +2823,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>16</v>
@@ -2928,7 +2928,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>9</v>
@@ -2963,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -2998,7 +2998,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
@@ -3068,7 +3068,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -3208,7 +3208,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
@@ -3243,7 +3243,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>17</v>
@@ -3383,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
@@ -3453,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -3488,7 +3488,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>7</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
@@ -3593,7 +3593,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>16</v>
@@ -3628,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>7</v>
@@ -3698,7 +3698,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>16</v>
@@ -3733,7 +3733,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>7</v>
@@ -3768,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -3838,7 +3838,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>17</v>
@@ -3873,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>17</v>
@@ -3969,10 +3969,10 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
@@ -4004,16 +4004,16 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -4083,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -4144,10 +4144,10 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -4223,7 +4223,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>17</v>
@@ -4293,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>17</v>
@@ -4363,7 +4363,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>9</v>
@@ -4433,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>16</v>
@@ -4468,7 +4468,7 @@
         <v>5</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
@@ -4573,7 +4573,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>17</v>
@@ -4608,7 +4608,7 @@
         <v>5</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>17</v>
@@ -4748,7 +4748,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>9</v>
@@ -4774,10 +4774,10 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
@@ -4818,7 +4818,7 @@
         <v>5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>16</v>
@@ -4923,7 +4923,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>9</v>
@@ -4984,16 +4984,16 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>16</v>
@@ -5019,16 +5019,16 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>7</v>
@@ -5098,7 +5098,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>16</v>
@@ -5133,7 +5133,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>7</v>
@@ -5168,7 +5168,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>17</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
@@ -5238,7 +5238,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>16</v>
@@ -5308,7 +5308,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>17</v>
@@ -5343,7 +5343,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>16</v>
@@ -5378,7 +5378,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>7</v>
@@ -5448,7 +5448,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>16</v>
@@ -5483,7 +5483,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>7</v>
@@ -5518,7 +5518,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>16</v>
@@ -5614,10 +5614,10 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
@@ -5649,16 +5649,16 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>9</v>
@@ -5693,7 +5693,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>16</v>
@@ -5763,7 +5763,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>17</v>
@@ -5798,7 +5798,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>17</v>
@@ -5903,7 +5903,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>17</v>
@@ -5999,10 +5999,10 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
@@ -6043,7 +6043,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>17</v>
@@ -6148,7 +6148,7 @@
         <v>5</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>9</v>
@@ -6218,7 +6218,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>16</v>
@@ -6358,7 +6358,7 @@
         <v>5</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>9</v>
@@ -6393,7 +6393,7 @@
         <v>5</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>16</v>
@@ -6463,7 +6463,7 @@
         <v>5</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>17</v>
@@ -6559,16 +6559,16 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>17</v>
@@ -6743,7 +6743,7 @@
         <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>9</v>
@@ -6813,7 +6813,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>16</v>
@@ -6848,7 +6848,7 @@
         <v>5</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>7</v>
@@ -6918,7 +6918,7 @@
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>16</v>
@@ -6953,7 +6953,7 @@
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>7</v>
@@ -6988,7 +6988,7 @@
         <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>17</v>
@@ -7058,7 +7058,7 @@
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>16</v>
@@ -7093,7 +7093,7 @@
         <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>7</v>
@@ -7128,7 +7128,7 @@
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>16</v>
@@ -7198,7 +7198,7 @@
         <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>17</v>
@@ -7224,10 +7224,10 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
@@ -7259,10 +7259,10 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
@@ -7338,7 +7338,7 @@
         <v>5</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>9</v>
@@ -7408,7 +7408,7 @@
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>17</v>
@@ -7478,7 +7478,7 @@
         <v>5</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>16</v>
@@ -7618,7 +7618,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>17</v>
@@ -7644,10 +7644,10 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
@@ -7679,16 +7679,16 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>9</v>
@@ -7723,7 +7723,7 @@
         <v>5</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>16</v>
@@ -7758,7 +7758,7 @@
         <v>5</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>7</v>
@@ -7828,7 +7828,7 @@
         <v>5</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>17</v>
@@ -7854,10 +7854,10 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>4</v>
@@ -7959,16 +7959,16 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>17</v>
@@ -8003,7 +8003,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>17</v>
@@ -8099,10 +8099,10 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>4</v>
@@ -8134,16 +8134,16 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>9</v>
@@ -8213,7 +8213,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>16</v>
@@ -8318,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>9</v>
@@ -8353,7 +8353,7 @@
         <v>5</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>17</v>
@@ -8423,7 +8423,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>16</v>
@@ -8458,7 +8458,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>7</v>
@@ -8493,7 +8493,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>17</v>
@@ -8563,7 +8563,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>16</v>
@@ -8598,7 +8598,7 @@
         <v>5</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>7</v>
@@ -8633,7 +8633,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>16</v>
@@ -8694,16 +8694,16 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>16</v>
@@ -8729,16 +8729,16 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>7</v>
@@ -8843,7 +8843,7 @@
         <v>5</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>16</v>
@@ -8878,7 +8878,7 @@
         <v>5</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>7</v>
@@ -8913,7 +8913,7 @@
         <v>5</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>16</v>
@@ -8974,16 +8974,16 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>17</v>
@@ -9053,7 +9053,7 @@
         <v>5</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>9</v>
@@ -9088,7 +9088,7 @@
         <v>5</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>16</v>
@@ -9193,7 +9193,7 @@
         <v>5</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>17</v>
@@ -9298,7 +9298,7 @@
         <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>17</v>
@@ -9438,7 +9438,7 @@
         <v>5</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>9</v>
@@ -9473,7 +9473,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>17</v>
@@ -9543,7 +9543,7 @@
         <v>5</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>16</v>
@@ -9604,10 +9604,10 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>4</v>
@@ -9648,7 +9648,7 @@
         <v>5</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>17</v>
@@ -9718,7 +9718,7 @@
         <v>5</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>9</v>
@@ -9753,7 +9753,7 @@
         <v>5</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>16</v>
@@ -9823,7 +9823,7 @@
         <v>5</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>17</v>
@@ -9928,7 +9928,7 @@
         <v>5</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>17</v>
@@ -9998,7 +9998,7 @@
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>17</v>
@@ -10138,7 +10138,7 @@
         <v>5</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>9</v>
@@ -10173,7 +10173,7 @@
         <v>5</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>16</v>
@@ -10208,7 +10208,7 @@
         <v>5</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>7</v>
@@ -10278,7 +10278,7 @@
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>16</v>
@@ -10313,7 +10313,7 @@
         <v>5</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>7</v>
@@ -10374,16 +10374,16 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>16</v>
@@ -10409,16 +10409,16 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>7</v>
@@ -10479,16 +10479,16 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>16</v>
@@ -10514,10 +10514,10 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>4</v>
@@ -10628,7 +10628,7 @@
         <v>5</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>17</v>
@@ -10733,7 +10733,7 @@
         <v>5</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>9</v>
@@ -10768,7 +10768,7 @@
         <v>5</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>16</v>
@@ -10838,7 +10838,7 @@
         <v>5</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>17</v>
@@ -10943,7 +10943,7 @@
         <v>5</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>17</v>
@@ -11013,7 +11013,7 @@
         <v>5</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>9</v>
@@ -11048,7 +11048,7 @@
         <v>5</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>16</v>
@@ -11083,7 +11083,7 @@
         <v>5</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>7</v>
@@ -11153,7 +11153,7 @@
         <v>5</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>17</v>
@@ -11214,10 +11214,10 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>4</v>
@@ -11328,7 +11328,7 @@
         <v>5</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>17</v>
@@ -11398,7 +11398,7 @@
         <v>5</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>17</v>
@@ -11424,10 +11424,10 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>4</v>
@@ -11459,10 +11459,10 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>4</v>
@@ -11538,7 +11538,7 @@
         <v>5</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>9</v>
@@ -11564,16 +11564,16 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>17</v>
@@ -11608,7 +11608,7 @@
         <v>5</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>16</v>
@@ -11713,7 +11713,7 @@
         <v>5</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>9</v>
@@ -11783,7 +11783,7 @@
         <v>5</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>16</v>
@@ -11818,7 +11818,7 @@
         <v>5</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>7</v>
@@ -11853,7 +11853,7 @@
         <v>5</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>17</v>
@@ -11923,7 +11923,7 @@
         <v>5</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>16</v>
@@ -11958,7 +11958,7 @@
         <v>5</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>7</v>
@@ -11993,7 +11993,7 @@
         <v>5</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>16</v>
@@ -12063,7 +12063,7 @@
         <v>5</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>16</v>
@@ -12098,7 +12098,7 @@
         <v>5</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>7</v>
@@ -12168,7 +12168,7 @@
         <v>5</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>16</v>
@@ -12203,7 +12203,7 @@
         <v>5</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>7</v>
@@ -12229,10 +12229,10 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>4</v>
@@ -12273,7 +12273,7 @@
         <v>5</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>16</v>
@@ -12378,7 +12378,7 @@
         <v>5</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>9</v>
@@ -12413,7 +12413,7 @@
         <v>5</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>17</v>
@@ -12483,7 +12483,7 @@
         <v>5</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>17</v>
@@ -12509,16 +12509,16 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>16</v>
@@ -12544,10 +12544,10 @@
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>4</v>
@@ -12658,7 +12658,7 @@
         <v>5</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>17</v>
@@ -12763,7 +12763,7 @@
         <v>5</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>17</v>
@@ -12868,7 +12868,7 @@
         <v>5</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>9</v>
@@ -12903,7 +12903,7 @@
         <v>5</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>16</v>
@@ -13008,7 +13008,7 @@
         <v>5</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>9</v>
@@ -13078,7 +13078,7 @@
         <v>5</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>17</v>
@@ -13113,7 +13113,7 @@
         <v>5</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>16</v>
@@ -13183,7 +13183,7 @@
         <v>5</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>17</v>
@@ -13288,7 +13288,7 @@
         <v>5</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>17</v>
@@ -13314,16 +13314,16 @@
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>17</v>
@@ -13463,7 +13463,7 @@
         <v>5</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>9</v>
@@ -13568,7 +13568,7 @@
         <v>5</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>16</v>
@@ -13603,7 +13603,7 @@
         <v>5</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>7</v>
@@ -13673,7 +13673,7 @@
         <v>5</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>16</v>
@@ -13708,7 +13708,7 @@
         <v>5</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>7</v>
@@ -13804,16 +13804,16 @@
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>16</v>
@@ -13839,16 +13839,16 @@
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>7</v>
@@ -13883,7 +13883,7 @@
         <v>5</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>16</v>
@@ -13953,7 +13953,7 @@
         <v>5</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>17</v>
@@ -14093,7 +14093,7 @@
         <v>5</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>9</v>
@@ -14154,16 +14154,16 @@
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>16</v>
@@ -14189,10 +14189,10 @@
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>4</v>
@@ -14303,7 +14303,7 @@
         <v>5</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>17</v>
@@ -14338,7 +14338,7 @@
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>17</v>
@@ -14408,7 +14408,7 @@
         <v>5</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>9</v>
@@ -14443,7 +14443,7 @@
         <v>5</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>16</v>
@@ -14478,7 +14478,7 @@
         <v>5</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>7</v>
@@ -14548,7 +14548,7 @@
         <v>5</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>17</v>

--- a/repswitch.xlsx
+++ b/repswitch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC955BB-A76A-4EED-9265-33A04B73D2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D572674A-03C7-42B9-AA6B-59D548ABCC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_610.png</t>
-  </si>
-  <si>
-    <t>yellow</t>
   </si>
   <si>
     <t>set</t>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>darkblue</t>
+  </si>
+  <si>
+    <t>gold</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5FFB8-ADEE-4233-9EF1-4711A9BB639D}">
   <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N193" sqref="N193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1108,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -1120,30 +1120,30 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -1169,16 +1169,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="4">
         <v>3</v>
@@ -1239,16 +1239,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -1309,16 +1309,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="4">
         <v>6</v>
@@ -1344,16 +1344,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="4">
         <v>11</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
@@ -1554,16 +1554,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
@@ -1589,16 +1589,16 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="4">
         <v>14</v>
@@ -1633,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1668,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -1694,16 +1694,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="4">
         <v>17</v>
@@ -1729,16 +1729,16 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -1764,16 +1764,16 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21" s="4">
         <v>20</v>
@@ -1834,16 +1834,16 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>16</v>
@@ -1869,16 +1869,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
@@ -1904,16 +1904,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" s="4">
         <v>23</v>
@@ -1939,16 +1939,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" s="4">
         <v>24</v>
@@ -1974,16 +1974,16 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -2009,16 +2009,16 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27" s="4">
         <v>26</v>
@@ -2044,16 +2044,16 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28" s="4">
         <v>27</v>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>17</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -2138,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" s="4">
         <v>29</v>
@@ -2149,16 +2149,16 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="4">
         <v>30</v>
@@ -2184,16 +2184,16 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>16</v>
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J32" s="4">
         <v>31</v>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>9</v>
@@ -2243,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" s="4">
         <v>32</v>
@@ -2254,16 +2254,16 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
@@ -2278,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J34" s="4">
         <v>33</v>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35" s="4">
         <v>34</v>
@@ -2324,16 +2324,16 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
@@ -2359,16 +2359,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>16</v>
@@ -2383,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J37" s="4">
         <v>36</v>
@@ -2394,16 +2394,16 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
@@ -2418,7 +2418,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J38" s="4">
         <v>37</v>
@@ -2438,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>17</v>
@@ -2464,16 +2464,16 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>17</v>
@@ -2499,16 +2499,16 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>16</v>
@@ -2523,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J41" s="4">
         <v>40</v>
@@ -2534,16 +2534,16 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
@@ -2558,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42" s="4">
         <v>41</v>
@@ -2578,7 +2578,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>17</v>
@@ -2604,16 +2604,16 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>16</v>
@@ -2628,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J44" s="4">
         <v>43</v>
@@ -2639,16 +2639,16 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J45" s="4">
         <v>44</v>
@@ -2674,16 +2674,16 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
@@ -2753,7 +2753,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>16</v>
@@ -2768,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J48" s="4">
         <v>47</v>
@@ -2788,7 +2788,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
@@ -2803,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49" s="4">
         <v>48</v>
@@ -2814,16 +2814,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>16</v>
@@ -2849,16 +2849,16 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
@@ -2893,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>16</v>
@@ -2928,7 +2928,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>9</v>
@@ -2954,16 +2954,16 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -2978,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J54" s="4">
         <v>53</v>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>16</v>
@@ -3024,16 +3024,16 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
@@ -3059,16 +3059,16 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>17</v>
@@ -3083,7 +3083,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J57" s="4">
         <v>56</v>
@@ -3094,16 +3094,16 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>16</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>7</v>
@@ -3164,16 +3164,16 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>17</v>
@@ -3188,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J60" s="4">
         <v>59</v>
@@ -3199,16 +3199,16 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
@@ -3223,7 +3223,7 @@
         <v>3</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J61" s="4">
         <v>60</v>
@@ -3234,16 +3234,16 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>17</v>
@@ -3258,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J62" s="4">
         <v>61</v>
@@ -3269,16 +3269,16 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>16</v>
@@ -3304,16 +3304,16 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>7</v>
@@ -3339,16 +3339,16 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>16</v>
@@ -3374,16 +3374,16 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
@@ -3409,16 +3409,16 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>17</v>
@@ -3433,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J67" s="4">
         <v>66</v>
@@ -3444,16 +3444,16 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
@@ -3479,16 +3479,16 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>7</v>
@@ -3514,16 +3514,16 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>17</v>
@@ -3538,7 +3538,7 @@
         <v>3</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J70" s="4">
         <v>69</v>
@@ -3558,7 +3558,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>17</v>
@@ -3573,7 +3573,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J71" s="4">
         <v>70</v>
@@ -3584,16 +3584,16 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>16</v>
@@ -3619,16 +3619,16 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>7</v>
@@ -3654,16 +3654,16 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>17</v>
@@ -3689,16 +3689,16 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>16</v>
@@ -3713,7 +3713,7 @@
         <v>4</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J75" s="4">
         <v>74</v>
@@ -3724,16 +3724,16 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>7</v>
@@ -3748,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J76" s="4">
         <v>75</v>
@@ -3759,16 +3759,16 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
@@ -3783,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J77" s="4">
         <v>76</v>
@@ -3794,16 +3794,16 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
@@ -3818,7 +3818,7 @@
         <v>4</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J78" s="4">
         <v>77</v>
@@ -3838,7 +3838,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>17</v>
@@ -3864,16 +3864,16 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>17</v>
@@ -3899,16 +3899,16 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>16</v>
@@ -3923,7 +3923,7 @@
         <v>4</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J81" s="4">
         <v>80</v>
@@ -3934,16 +3934,16 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>7</v>
@@ -3958,7 +3958,7 @@
         <v>4</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J82" s="4">
         <v>81</v>
@@ -3969,16 +3969,16 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>16</v>
@@ -3993,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J83" s="4">
         <v>82</v>
@@ -4004,16 +4004,16 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -4028,7 +4028,7 @@
         <v>4</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J84" s="4">
         <v>83</v>
@@ -4039,16 +4039,16 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>17</v>
@@ -4074,16 +4074,16 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>16</v>
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J86" s="4">
         <v>85</v>
@@ -4109,16 +4109,16 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>9</v>
@@ -4133,7 +4133,7 @@
         <v>4</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J87" s="4">
         <v>86</v>
@@ -4144,16 +4144,16 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>16</v>
@@ -4168,7 +4168,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J88" s="4">
         <v>87</v>
@@ -4179,16 +4179,16 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>7</v>
@@ -4203,7 +4203,7 @@
         <v>4</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J89" s="4">
         <v>88</v>
@@ -4214,16 +4214,16 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>17</v>
@@ -4249,16 +4249,16 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>17</v>
@@ -4284,16 +4284,16 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>17</v>
@@ -4319,16 +4319,16 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>16</v>
@@ -4343,7 +4343,7 @@
         <v>4</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J93" s="4">
         <v>92</v>
@@ -4354,16 +4354,16 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>9</v>
@@ -4378,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J94" s="4">
         <v>93</v>
@@ -4389,16 +4389,16 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>17</v>
@@ -4424,16 +4424,16 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>16</v>
@@ -4448,7 +4448,7 @@
         <v>4</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J96" s="4">
         <v>95</v>
@@ -4459,16 +4459,16 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
@@ -4483,7 +4483,7 @@
         <v>4</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J97" s="6">
         <v>96</v>
@@ -4503,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>16</v>
@@ -4538,7 +4538,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>7</v>
@@ -4564,16 +4564,16 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>17</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J100" s="4">
         <v>99</v>
@@ -4599,16 +4599,16 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>17</v>
@@ -4623,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J101" s="4">
         <v>100</v>
@@ -4634,16 +4634,16 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>16</v>
@@ -4669,16 +4669,16 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>7</v>
@@ -4713,7 +4713,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>16</v>
@@ -4748,7 +4748,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>9</v>
@@ -4774,16 +4774,16 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>17</v>
@@ -4798,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J106" s="4">
         <v>105</v>
@@ -4809,16 +4809,16 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>16</v>
@@ -4844,16 +4844,16 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>9</v>
@@ -4879,16 +4879,16 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>16</v>
@@ -4914,16 +4914,16 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>9</v>
@@ -4949,16 +4949,16 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>17</v>
@@ -4973,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J111" s="4">
         <v>110</v>
@@ -4984,16 +4984,16 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>16</v>
@@ -5019,16 +5019,16 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>7</v>
@@ -5054,16 +5054,16 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>17</v>
@@ -5078,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J114" s="4">
         <v>113</v>
@@ -5089,16 +5089,16 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>16</v>
@@ -5124,16 +5124,16 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>7</v>
@@ -5159,16 +5159,16 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>17</v>
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J117" s="4">
         <v>116</v>
@@ -5194,16 +5194,16 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>17</v>
@@ -5218,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J118" s="4">
         <v>117</v>
@@ -5229,16 +5229,16 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>16</v>
@@ -5264,16 +5264,16 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>9</v>
@@ -5299,16 +5299,16 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>17</v>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J121" s="4">
         <v>120</v>
@@ -5334,16 +5334,16 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>16</v>
@@ -5358,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J122" s="4">
         <v>121</v>
@@ -5369,16 +5369,16 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>7</v>
@@ -5393,7 +5393,7 @@
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J123" s="4">
         <v>122</v>
@@ -5413,7 +5413,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>17</v>
@@ -5439,16 +5439,16 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>16</v>
@@ -5463,7 +5463,7 @@
         <v>2</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J125" s="4">
         <v>124</v>
@@ -5474,16 +5474,16 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>7</v>
@@ -5498,7 +5498,7 @@
         <v>2</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J126" s="4">
         <v>125</v>
@@ -5509,16 +5509,16 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>16</v>
@@ -5533,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J127" s="4">
         <v>126</v>
@@ -5544,16 +5544,16 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>9</v>
@@ -5568,7 +5568,7 @@
         <v>2</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J128" s="4">
         <v>127</v>
@@ -5579,16 +5579,16 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>17</v>
@@ -5614,16 +5614,16 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>16</v>
@@ -5638,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J130" s="4">
         <v>129</v>
@@ -5649,16 +5649,16 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>9</v>
@@ -5673,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J131" s="4">
         <v>130</v>
@@ -5684,16 +5684,16 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>16</v>
@@ -5708,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J132" s="4">
         <v>131</v>
@@ -5719,16 +5719,16 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>9</v>
@@ -5743,7 +5743,7 @@
         <v>2</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J133" s="4">
         <v>132</v>
@@ -5763,7 +5763,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>17</v>
@@ -5789,16 +5789,16 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>17</v>
@@ -5824,16 +5824,16 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>16</v>
@@ -5848,7 +5848,7 @@
         <v>2</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J136" s="4">
         <v>135</v>
@@ -5859,16 +5859,16 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>7</v>
@@ -5883,7 +5883,7 @@
         <v>2</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J137" s="4">
         <v>136</v>
@@ -5894,16 +5894,16 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>17</v>
@@ -5938,7 +5938,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>16</v>
@@ -5953,7 +5953,7 @@
         <v>2</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J139" s="4">
         <v>138</v>
@@ -5973,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>7</v>
@@ -5988,7 +5988,7 @@
         <v>2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J140" s="4">
         <v>139</v>
@@ -5999,16 +5999,16 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>17</v>
@@ -6034,16 +6034,16 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>17</v>
@@ -6069,16 +6069,16 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>17</v>
@@ -6104,16 +6104,16 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>16</v>
@@ -6128,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J144" s="4">
         <v>143</v>
@@ -6139,16 +6139,16 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>9</v>
@@ -6163,7 +6163,7 @@
         <v>2</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J145" s="4">
         <v>144</v>
@@ -6174,16 +6174,16 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>17</v>
@@ -6198,7 +6198,7 @@
         <v>3</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J146" s="4">
         <v>145</v>
@@ -6209,16 +6209,16 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>16</v>
@@ -6244,16 +6244,16 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>9</v>
@@ -6279,16 +6279,16 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>17</v>
@@ -6303,7 +6303,7 @@
         <v>3</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J149" s="4">
         <v>148</v>
@@ -6314,16 +6314,16 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>16</v>
@@ -6349,16 +6349,16 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>9</v>
@@ -6384,16 +6384,16 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>16</v>
@@ -6419,16 +6419,16 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>9</v>
@@ -6454,16 +6454,16 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>17</v>
@@ -6478,7 +6478,7 @@
         <v>3</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J154" s="4">
         <v>153</v>
@@ -6489,16 +6489,16 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>16</v>
@@ -6524,16 +6524,16 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>7</v>
@@ -6559,16 +6559,16 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>17</v>
@@ -6583,7 +6583,7 @@
         <v>3</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J157" s="4">
         <v>156</v>
@@ -6594,16 +6594,16 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>17</v>
@@ -6618,7 +6618,7 @@
         <v>3</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J158" s="4">
         <v>157</v>
@@ -6629,16 +6629,16 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>16</v>
@@ -6664,16 +6664,16 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>7</v>
@@ -6699,16 +6699,16 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>16</v>
@@ -6734,16 +6734,16 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>9</v>
@@ -6769,16 +6769,16 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>17</v>
@@ -6793,7 +6793,7 @@
         <v>3</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J163" s="4">
         <v>162</v>
@@ -6804,16 +6804,16 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>16</v>
@@ -6839,16 +6839,16 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>7</v>
@@ -6883,7 +6883,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>17</v>
@@ -6898,7 +6898,7 @@
         <v>3</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J166" s="4">
         <v>165</v>
@@ -6918,7 +6918,7 @@
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>16</v>
@@ -6953,7 +6953,7 @@
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>7</v>
@@ -6979,16 +6979,16 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>17</v>
@@ -7003,7 +7003,7 @@
         <v>3</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J169" s="4">
         <v>168</v>
@@ -7014,16 +7014,16 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>17</v>
@@ -7049,16 +7049,16 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>16</v>
@@ -7073,7 +7073,7 @@
         <v>4</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J171" s="4">
         <v>170</v>
@@ -7084,16 +7084,16 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>7</v>
@@ -7108,7 +7108,7 @@
         <v>4</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J172" s="4">
         <v>171</v>
@@ -7119,16 +7119,16 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>16</v>
@@ -7143,7 +7143,7 @@
         <v>4</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J173" s="4">
         <v>172</v>
@@ -7154,16 +7154,16 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>9</v>
@@ -7178,7 +7178,7 @@
         <v>4</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J174" s="4">
         <v>173</v>
@@ -7189,16 +7189,16 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>17</v>
@@ -7224,16 +7224,16 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>16</v>
@@ -7248,7 +7248,7 @@
         <v>4</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J176" s="4">
         <v>175</v>
@@ -7259,16 +7259,16 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>7</v>
@@ -7283,7 +7283,7 @@
         <v>4</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J177" s="4">
         <v>176</v>
@@ -7294,16 +7294,16 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>16</v>
@@ -7318,7 +7318,7 @@
         <v>4</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J178" s="4">
         <v>177</v>
@@ -7329,16 +7329,16 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>9</v>
@@ -7353,7 +7353,7 @@
         <v>4</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J179" s="4">
         <v>178</v>
@@ -7364,16 +7364,16 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>17</v>
@@ -7399,16 +7399,16 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>17</v>
@@ -7434,16 +7434,16 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>17</v>
@@ -7469,16 +7469,16 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>16</v>
@@ -7493,7 +7493,7 @@
         <v>4</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J183" s="4">
         <v>182</v>
@@ -7504,16 +7504,16 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>9</v>
@@ -7528,7 +7528,7 @@
         <v>4</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J184" s="4">
         <v>183</v>
@@ -7539,16 +7539,16 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>16</v>
@@ -7563,7 +7563,7 @@
         <v>4</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J185" s="4">
         <v>184</v>
@@ -7574,16 +7574,16 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>7</v>
@@ -7598,7 +7598,7 @@
         <v>4</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J186" s="4">
         <v>185</v>
@@ -7609,16 +7609,16 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>17</v>
@@ -7644,16 +7644,16 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>16</v>
@@ -7668,7 +7668,7 @@
         <v>4</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J188" s="4">
         <v>187</v>
@@ -7679,16 +7679,16 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>9</v>
@@ -7703,7 +7703,7 @@
         <v>4</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J189" s="4">
         <v>188</v>
@@ -7714,16 +7714,16 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>16</v>
@@ -7738,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J190" s="4">
         <v>189</v>
@@ -7749,16 +7749,16 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>7</v>
@@ -7773,7 +7773,7 @@
         <v>4</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J191" s="4">
         <v>190</v>
@@ -7784,16 +7784,16 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>17</v>
@@ -7828,7 +7828,7 @@
         <v>5</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>17</v>
@@ -7854,16 +7854,16 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>17</v>
@@ -7878,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J194" s="4">
         <v>193</v>
@@ -7889,16 +7889,16 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>16</v>
@@ -7924,16 +7924,16 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>7</v>
@@ -7959,16 +7959,16 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>17</v>
@@ -7983,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J197" s="4">
         <v>196</v>
@@ -7994,16 +7994,16 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>17</v>
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J198" s="4">
         <v>197</v>
@@ -8038,7 +8038,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>16</v>
@@ -8073,7 +8073,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>7</v>
@@ -8099,16 +8099,16 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>16</v>
@@ -8134,16 +8134,16 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>9</v>
@@ -8169,16 +8169,16 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>17</v>
@@ -8193,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J203" s="4">
         <v>202</v>
@@ -8204,16 +8204,16 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>16</v>
@@ -8239,16 +8239,16 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>9</v>
@@ -8283,7 +8283,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>16</v>
@@ -8318,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>9</v>
@@ -8344,16 +8344,16 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>17</v>
@@ -8368,7 +8368,7 @@
         <v>1</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J208" s="4">
         <v>207</v>
@@ -8379,16 +8379,16 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>17</v>
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J209" s="4">
         <v>208</v>
@@ -8414,16 +8414,16 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>16</v>
@@ -8449,16 +8449,16 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>7</v>
@@ -8484,16 +8484,16 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>17</v>
@@ -8508,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J212" s="4">
         <v>211</v>
@@ -8519,16 +8519,16 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>17</v>
@@ -8543,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J213" s="4">
         <v>212</v>
@@ -8554,16 +8554,16 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>16</v>
@@ -8589,16 +8589,16 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>7</v>
@@ -8624,16 +8624,16 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>16</v>
@@ -8659,16 +8659,16 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>9</v>
@@ -8694,16 +8694,16 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>16</v>
@@ -8718,7 +8718,7 @@
         <v>2</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J218" s="4">
         <v>217</v>
@@ -8729,16 +8729,16 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>7</v>
@@ -8753,7 +8753,7 @@
         <v>2</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J219" s="4">
         <v>218</v>
@@ -8764,16 +8764,16 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>17</v>
@@ -8808,7 +8808,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>17</v>
@@ -8834,16 +8834,16 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>16</v>
@@ -8858,7 +8858,7 @@
         <v>2</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J222" s="4">
         <v>221</v>
@@ -8869,16 +8869,16 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>7</v>
@@ -8893,7 +8893,7 @@
         <v>2</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J223" s="4">
         <v>222</v>
@@ -8904,16 +8904,16 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>16</v>
@@ -8928,7 +8928,7 @@
         <v>2</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J224" s="4">
         <v>223</v>
@@ -8939,16 +8939,16 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>9</v>
@@ -8963,7 +8963,7 @@
         <v>2</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J225" s="4">
         <v>224</v>
@@ -8974,16 +8974,16 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>17</v>
@@ -9009,16 +9009,16 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>16</v>
@@ -9033,7 +9033,7 @@
         <v>2</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J227" s="4">
         <v>226</v>
@@ -9044,16 +9044,16 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>9</v>
@@ -9068,7 +9068,7 @@
         <v>2</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J228" s="4">
         <v>227</v>
@@ -9088,7 +9088,7 @@
         <v>5</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>16</v>
@@ -9103,7 +9103,7 @@
         <v>2</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J229" s="4">
         <v>228</v>
@@ -9123,7 +9123,7 @@
         <v>4</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>9</v>
@@ -9138,7 +9138,7 @@
         <v>2</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J230" s="4">
         <v>229</v>
@@ -9149,16 +9149,16 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>17</v>
@@ -9193,7 +9193,7 @@
         <v>5</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>17</v>
@@ -9219,16 +9219,16 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>16</v>
@@ -9243,7 +9243,7 @@
         <v>2</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J233" s="4">
         <v>232</v>
@@ -9254,16 +9254,16 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>7</v>
@@ -9278,7 +9278,7 @@
         <v>2</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J234" s="4">
         <v>233</v>
@@ -9289,16 +9289,16 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>17</v>
@@ -9324,16 +9324,16 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>16</v>
@@ -9348,7 +9348,7 @@
         <v>2</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J236" s="4">
         <v>235</v>
@@ -9359,16 +9359,16 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>7</v>
@@ -9383,7 +9383,7 @@
         <v>2</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J237" s="4">
         <v>236</v>
@@ -9394,16 +9394,16 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>16</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J238" s="4">
         <v>237</v>
@@ -9429,16 +9429,16 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>9</v>
@@ -9453,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J239" s="4">
         <v>238</v>
@@ -9464,16 +9464,16 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>17</v>
@@ -9499,16 +9499,16 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>17</v>
@@ -9534,16 +9534,16 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>16</v>
@@ -9569,16 +9569,16 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>9</v>
@@ -9604,16 +9604,16 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>17</v>
@@ -9628,7 +9628,7 @@
         <v>3</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J244" s="4">
         <v>243</v>
@@ -9639,16 +9639,16 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>17</v>
@@ -9663,7 +9663,7 @@
         <v>3</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J245" s="4">
         <v>244</v>
@@ -9674,16 +9674,16 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>16</v>
@@ -9709,16 +9709,16 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>9</v>
@@ -9753,7 +9753,7 @@
         <v>5</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>16</v>
@@ -9788,7 +9788,7 @@
         <v>4</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>9</v>
@@ -9814,16 +9814,16 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>17</v>
@@ -9838,7 +9838,7 @@
         <v>3</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J250" s="4">
         <v>249</v>
@@ -9849,16 +9849,16 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>16</v>
@@ -9884,16 +9884,16 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>7</v>
@@ -9919,16 +9919,16 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>17</v>
@@ -9943,7 +9943,7 @@
         <v>3</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J253" s="4">
         <v>252</v>
@@ -9963,7 +9963,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>17</v>
@@ -9978,7 +9978,7 @@
         <v>3</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J254" s="4">
         <v>253</v>
@@ -9989,16 +9989,16 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>17</v>
@@ -10013,7 +10013,7 @@
         <v>3</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J255" s="4">
         <v>254</v>
@@ -10024,16 +10024,16 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>16</v>
@@ -10059,16 +10059,16 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>7</v>
@@ -10094,16 +10094,16 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>16</v>
@@ -10129,16 +10129,16 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>9</v>
@@ -10164,16 +10164,16 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>16</v>
@@ -10199,16 +10199,16 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>7</v>
@@ -10234,16 +10234,16 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>17</v>
@@ -10258,7 +10258,7 @@
         <v>3</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J262" s="4">
         <v>261</v>
@@ -10269,16 +10269,16 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>16</v>
@@ -10304,16 +10304,16 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>7</v>
@@ -10339,16 +10339,16 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>17</v>
@@ -10363,7 +10363,7 @@
         <v>3</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J265" s="4">
         <v>264</v>
@@ -10374,16 +10374,16 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>16</v>
@@ -10398,7 +10398,7 @@
         <v>4</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J266" s="4">
         <v>265</v>
@@ -10409,16 +10409,16 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>7</v>
@@ -10433,7 +10433,7 @@
         <v>4</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J267" s="4">
         <v>266</v>
@@ -10444,16 +10444,16 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>17</v>
@@ -10479,16 +10479,16 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>16</v>
@@ -10503,7 +10503,7 @@
         <v>4</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J269" s="4">
         <v>268</v>
@@ -10514,16 +10514,16 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>9</v>
@@ -10538,7 +10538,7 @@
         <v>4</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J270" s="4">
         <v>269</v>
@@ -10549,16 +10549,16 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>16</v>
@@ -10573,7 +10573,7 @@
         <v>4</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J271" s="4">
         <v>270</v>
@@ -10584,16 +10584,16 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>7</v>
@@ -10608,7 +10608,7 @@
         <v>4</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J272" s="4">
         <v>271</v>
@@ -10619,16 +10619,16 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>17</v>
@@ -10663,7 +10663,7 @@
         <v>4</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>17</v>
@@ -10689,16 +10689,16 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>16</v>
@@ -10713,7 +10713,7 @@
         <v>4</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J275" s="4">
         <v>274</v>
@@ -10724,16 +10724,16 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>9</v>
@@ -10748,7 +10748,7 @@
         <v>4</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J276" s="4">
         <v>275</v>
@@ -10759,16 +10759,16 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>16</v>
@@ -10783,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J277" s="4">
         <v>276</v>
@@ -10794,16 +10794,16 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>9</v>
@@ -10818,7 +10818,7 @@
         <v>4</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J278" s="4">
         <v>277</v>
@@ -10829,16 +10829,16 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>17</v>
@@ -10864,16 +10864,16 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>16</v>
@@ -10888,7 +10888,7 @@
         <v>4</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J280" s="4">
         <v>279</v>
@@ -10899,16 +10899,16 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>7</v>
@@ -10923,7 +10923,7 @@
         <v>4</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J281" s="4">
         <v>280</v>
@@ -10934,16 +10934,16 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>17</v>
@@ -10969,16 +10969,16 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>16</v>
@@ -10993,7 +10993,7 @@
         <v>4</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J283" s="4">
         <v>282</v>
@@ -11004,16 +11004,16 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>9</v>
@@ -11028,7 +11028,7 @@
         <v>4</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J284" s="4">
         <v>283</v>
@@ -11039,16 +11039,16 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>16</v>
@@ -11063,7 +11063,7 @@
         <v>4</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J285" s="4">
         <v>284</v>
@@ -11074,16 +11074,16 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>7</v>
@@ -11098,7 +11098,7 @@
         <v>4</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J286" s="4">
         <v>285</v>
@@ -11109,16 +11109,16 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>17</v>
@@ -11144,16 +11144,16 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>17</v>
@@ -11179,16 +11179,16 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>17</v>
@@ -11214,16 +11214,16 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>17</v>
@@ -11238,7 +11238,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J290" s="4">
         <v>289</v>
@@ -11249,16 +11249,16 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>16</v>
@@ -11284,16 +11284,16 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>7</v>
@@ -11319,16 +11319,16 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>17</v>
@@ -11343,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J293" s="4">
         <v>292</v>
@@ -11354,16 +11354,16 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>17</v>
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J294" s="4">
         <v>293</v>
@@ -11389,16 +11389,16 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>17</v>
@@ -11413,7 +11413,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J295" s="4">
         <v>294</v>
@@ -11424,16 +11424,16 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>16</v>
@@ -11459,16 +11459,16 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>7</v>
@@ -11494,16 +11494,16 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>16</v>
@@ -11529,16 +11529,16 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>9</v>
@@ -11564,16 +11564,16 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>17</v>
@@ -11588,7 +11588,7 @@
         <v>1</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J300" s="4">
         <v>299</v>
@@ -11599,16 +11599,16 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>16</v>
@@ -11634,16 +11634,16 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>9</v>
@@ -11669,16 +11669,16 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>16</v>
@@ -11704,16 +11704,16 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>9</v>
@@ -11739,16 +11739,16 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>17</v>
@@ -11763,7 +11763,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J305" s="4">
         <v>304</v>
@@ -11783,7 +11783,7 @@
         <v>5</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>16</v>
@@ -11818,7 +11818,7 @@
         <v>5</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>7</v>
@@ -11844,16 +11844,16 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>17</v>
@@ -11868,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J308" s="4">
         <v>307</v>
@@ -11879,16 +11879,16 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>17</v>
@@ -11903,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J309" s="4">
         <v>308</v>
@@ -11914,16 +11914,16 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>16</v>
@@ -11949,16 +11949,16 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>7</v>
@@ -11993,7 +11993,7 @@
         <v>5</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>16</v>
@@ -12028,7 +12028,7 @@
         <v>4</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>9</v>
@@ -12063,7 +12063,7 @@
         <v>5</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>16</v>
@@ -12078,7 +12078,7 @@
         <v>2</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J314" s="4">
         <v>313</v>
@@ -12098,7 +12098,7 @@
         <v>5</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>7</v>
@@ -12113,7 +12113,7 @@
         <v>2</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J315" s="4">
         <v>314</v>
@@ -12124,16 +12124,16 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>17</v>
@@ -12159,16 +12159,16 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>16</v>
@@ -12183,7 +12183,7 @@
         <v>2</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J317" s="4">
         <v>316</v>
@@ -12194,16 +12194,16 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>7</v>
@@ -12218,7 +12218,7 @@
         <v>2</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J318" s="4">
         <v>317</v>
@@ -12229,16 +12229,16 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>17</v>
@@ -12264,16 +12264,16 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>16</v>
@@ -12288,7 +12288,7 @@
         <v>2</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J320" s="4">
         <v>319</v>
@@ -12299,16 +12299,16 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>9</v>
@@ -12323,7 +12323,7 @@
         <v>2</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J321" s="4">
         <v>320</v>
@@ -12334,16 +12334,16 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>16</v>
@@ -12358,7 +12358,7 @@
         <v>2</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J322" s="4">
         <v>321</v>
@@ -12369,16 +12369,16 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>9</v>
@@ -12393,7 +12393,7 @@
         <v>2</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J323" s="4">
         <v>322</v>
@@ -12404,16 +12404,16 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>17</v>
@@ -12439,16 +12439,16 @@
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>17</v>
@@ -12474,16 +12474,16 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>17</v>
@@ -12509,16 +12509,16 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>16</v>
@@ -12533,7 +12533,7 @@
         <v>2</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J327" s="4">
         <v>326</v>
@@ -12544,16 +12544,16 @@
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>9</v>
@@ -12568,7 +12568,7 @@
         <v>2</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J328" s="4">
         <v>327</v>
@@ -12579,16 +12579,16 @@
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>16</v>
@@ -12603,7 +12603,7 @@
         <v>2</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J329" s="4">
         <v>328</v>
@@ -12614,16 +12614,16 @@
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>7</v>
@@ -12638,7 +12638,7 @@
         <v>2</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J330" s="4">
         <v>329</v>
@@ -12658,7 +12658,7 @@
         <v>5</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>17</v>
@@ -12684,16 +12684,16 @@
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>16</v>
@@ -12708,7 +12708,7 @@
         <v>2</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J332" s="4">
         <v>331</v>
@@ -12719,16 +12719,16 @@
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>7</v>
@@ -12743,7 +12743,7 @@
         <v>2</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J333" s="4">
         <v>332</v>
@@ -12754,16 +12754,16 @@
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>17</v>
@@ -12798,7 +12798,7 @@
         <v>4</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>17</v>
@@ -12824,16 +12824,16 @@
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>16</v>
@@ -12848,7 +12848,7 @@
         <v>2</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J336" s="4">
         <v>335</v>
@@ -12859,16 +12859,16 @@
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>9</v>
@@ -12883,7 +12883,7 @@
         <v>2</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J337" s="4">
         <v>336</v>
@@ -12894,16 +12894,16 @@
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>16</v>
@@ -12929,16 +12929,16 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>9</v>
@@ -12964,16 +12964,16 @@
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>16</v>
@@ -12999,16 +12999,16 @@
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>9</v>
@@ -13043,7 +13043,7 @@
         <v>4</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>17</v>
@@ -13058,7 +13058,7 @@
         <v>3</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J342" s="4">
         <v>341</v>
@@ -13069,16 +13069,16 @@
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>17</v>
@@ -13093,7 +13093,7 @@
         <v>3</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J343" s="4">
         <v>342</v>
@@ -13104,16 +13104,16 @@
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>16</v>
@@ -13139,16 +13139,16 @@
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>9</v>
@@ -13174,16 +13174,16 @@
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>17</v>
@@ -13198,7 +13198,7 @@
         <v>3</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J346" s="4">
         <v>345</v>
@@ -13209,16 +13209,16 @@
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>16</v>
@@ -13244,16 +13244,16 @@
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>7</v>
@@ -13279,16 +13279,16 @@
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>17</v>
@@ -13303,7 +13303,7 @@
         <v>3</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J349" s="4">
         <v>348</v>
@@ -13314,16 +13314,16 @@
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>17</v>
@@ -13338,7 +13338,7 @@
         <v>3</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J350" s="4">
         <v>349</v>
@@ -13358,7 +13358,7 @@
         <v>4</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>16</v>
@@ -13393,7 +13393,7 @@
         <v>4</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>7</v>
@@ -13419,16 +13419,16 @@
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>16</v>
@@ -13454,16 +13454,16 @@
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>9</v>
@@ -13489,16 +13489,16 @@
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>17</v>
@@ -13513,7 +13513,7 @@
         <v>3</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J355" s="4">
         <v>354</v>
@@ -13524,16 +13524,16 @@
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>17</v>
@@ -13548,7 +13548,7 @@
         <v>3</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J356" s="4">
         <v>355</v>
@@ -13559,16 +13559,16 @@
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>16</v>
@@ -13594,16 +13594,16 @@
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>7</v>
@@ -13629,16 +13629,16 @@
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>17</v>
@@ -13653,7 +13653,7 @@
         <v>3</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J359" s="4">
         <v>358</v>
@@ -13664,16 +13664,16 @@
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>16</v>
@@ -13699,16 +13699,16 @@
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>7</v>
@@ -13734,16 +13734,16 @@
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>17</v>
@@ -13769,16 +13769,16 @@
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>17</v>
@@ -13804,16 +13804,16 @@
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>16</v>
@@ -13828,7 +13828,7 @@
         <v>4</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J364" s="4">
         <v>363</v>
@@ -13839,16 +13839,16 @@
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>7</v>
@@ -13863,7 +13863,7 @@
         <v>4</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J365" s="4">
         <v>364</v>
@@ -13874,16 +13874,16 @@
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>16</v>
@@ -13898,7 +13898,7 @@
         <v>4</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J366" s="4">
         <v>365</v>
@@ -13909,16 +13909,16 @@
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>9</v>
@@ -13933,7 +13933,7 @@
         <v>4</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J367" s="4">
         <v>366</v>
@@ -13944,16 +13944,16 @@
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>17</v>
@@ -13979,16 +13979,16 @@
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>16</v>
@@ -14003,7 +14003,7 @@
         <v>4</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J369" s="4">
         <v>368</v>
@@ -14014,16 +14014,16 @@
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>7</v>
@@ -14038,7 +14038,7 @@
         <v>4</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J370" s="4">
         <v>369</v>
@@ -14049,16 +14049,16 @@
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>16</v>
@@ -14073,7 +14073,7 @@
         <v>4</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J371" s="4">
         <v>370</v>
@@ -14084,16 +14084,16 @@
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>9</v>
@@ -14108,7 +14108,7 @@
         <v>4</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J372" s="4">
         <v>371</v>
@@ -14119,16 +14119,16 @@
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>17</v>
@@ -14154,16 +14154,16 @@
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>16</v>
@@ -14178,7 +14178,7 @@
         <v>4</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J374" s="4">
         <v>373</v>
@@ -14189,16 +14189,16 @@
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>9</v>
@@ -14213,7 +14213,7 @@
         <v>4</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J375" s="4">
         <v>374</v>
@@ -14224,16 +14224,16 @@
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>16</v>
@@ -14248,7 +14248,7 @@
         <v>4</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J376" s="4">
         <v>375</v>
@@ -14259,16 +14259,16 @@
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>7</v>
@@ -14283,7 +14283,7 @@
         <v>4</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J377" s="4">
         <v>376</v>
@@ -14303,7 +14303,7 @@
         <v>5</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>17</v>
@@ -14329,16 +14329,16 @@
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>17</v>
@@ -14364,16 +14364,16 @@
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>16</v>
@@ -14388,7 +14388,7 @@
         <v>4</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J380" s="4">
         <v>379</v>
@@ -14399,16 +14399,16 @@
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>9</v>
@@ -14423,7 +14423,7 @@
         <v>4</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J381" s="4">
         <v>380</v>
@@ -14434,16 +14434,16 @@
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>16</v>
@@ -14458,7 +14458,7 @@
         <v>4</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J382" s="4">
         <v>381</v>
@@ -14469,16 +14469,16 @@
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>7</v>
@@ -14493,7 +14493,7 @@
         <v>4</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J383" s="4">
         <v>382</v>
@@ -14504,16 +14504,16 @@
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>17</v>
@@ -14539,16 +14539,16 @@
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>17</v>
